--- a/AAII_Financials/Quarterly/CS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CS_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>CS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,121 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5469000</v>
+        <v>4454000</v>
       </c>
       <c r="E8" s="3">
-        <v>5801500</v>
+        <v>4546300</v>
       </c>
       <c r="F8" s="3">
-        <v>4944600</v>
+        <v>5526300</v>
       </c>
       <c r="G8" s="3">
-        <v>5658900</v>
+        <v>5862300</v>
       </c>
       <c r="H8" s="3">
-        <v>4677700</v>
+        <v>4996400</v>
       </c>
       <c r="I8" s="3">
+        <v>5718100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4726700</v>
+      </c>
+      <c r="K8" s="3">
         <v>5223700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4567900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4158700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4292300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4622800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4185600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3945300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4372000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -810,8 +822,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +872,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -872,8 +896,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -916,8 +942,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,8 +992,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1004,22 +1042,28 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-6200</v>
+        <v>-2100</v>
       </c>
       <c r="E15" s="3">
         <v>-1000</v>
       </c>
       <c r="F15" s="3">
-        <v>-2100</v>
+        <v>-6200</v>
       </c>
       <c r="G15" s="3">
-        <v>-2100</v>
+        <v>-1000</v>
       </c>
       <c r="H15" s="3">
         <v>-2100</v>
@@ -1028,28 +1072,34 @@
         <v>-2100</v>
       </c>
       <c r="J15" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K15" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="L15" s="3">
         <v>-3100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>-2000</v>
       </c>
       <c r="M15" s="3">
         <v>-2000</v>
       </c>
       <c r="N15" s="3">
-        <v>-3100</v>
+        <v>-2000</v>
       </c>
       <c r="O15" s="3">
-        <v>-1000</v>
+        <v>-2000</v>
       </c>
       <c r="P15" s="3">
         <v>-3100</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R15" s="3">
+        <v>-3100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1113,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3714100</v>
+        <v>3452200</v>
       </c>
       <c r="E17" s="3">
-        <v>3773600</v>
+        <v>2932700</v>
       </c>
       <c r="F17" s="3">
-        <v>3455500</v>
+        <v>3753000</v>
       </c>
       <c r="G17" s="3">
-        <v>3244000</v>
+        <v>3813100</v>
       </c>
       <c r="H17" s="3">
-        <v>3288200</v>
+        <v>3491600</v>
       </c>
       <c r="I17" s="3">
+        <v>3278000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3322600</v>
+      </c>
+      <c r="K17" s="3">
         <v>3663800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2990600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2629800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2695100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2960300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2549500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2343400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2430400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1754900</v>
+        <v>1001800</v>
       </c>
       <c r="E18" s="3">
-        <v>2027900</v>
+        <v>1613600</v>
       </c>
       <c r="F18" s="3">
-        <v>1489100</v>
+        <v>1773300</v>
       </c>
       <c r="G18" s="3">
-        <v>2414800</v>
+        <v>2049200</v>
       </c>
       <c r="H18" s="3">
-        <v>1389600</v>
+        <v>1504700</v>
       </c>
       <c r="I18" s="3">
+        <v>2440100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1404100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1559900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1577400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1528900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1597200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1662500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1636100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1601900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1941600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,96 +1233,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-582900</v>
+        <v>243700</v>
       </c>
       <c r="E20" s="3">
-        <v>-691700</v>
+        <v>-354700</v>
       </c>
       <c r="F20" s="3">
-        <v>-399200</v>
+        <v>-589000</v>
       </c>
       <c r="G20" s="3">
-        <v>-1804200</v>
+        <v>-699000</v>
       </c>
       <c r="H20" s="3">
-        <v>-700900</v>
+        <v>-403400</v>
       </c>
       <c r="I20" s="3">
+        <v>-1823100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-708300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-480300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-495700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1387200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1195400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1077800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-942300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-3883200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1711700</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1414200</v>
+        <v>1573200</v>
       </c>
       <c r="E21" s="3">
-        <v>1571200</v>
+        <v>1854200</v>
       </c>
       <c r="F21" s="3">
-        <v>1332100</v>
+        <v>1429000</v>
       </c>
       <c r="G21" s="3">
-        <v>888700</v>
+        <v>1587700</v>
       </c>
       <c r="H21" s="3">
-        <v>944200</v>
+        <v>1346100</v>
       </c>
       <c r="I21" s="3">
+        <v>898100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>954100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1293100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1295200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>385700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>617800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>802600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>920600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2041000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1301,96 +1379,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1172000</v>
+        <v>1245500</v>
       </c>
       <c r="E23" s="3">
-        <v>1336200</v>
+        <v>1258900</v>
       </c>
       <c r="F23" s="3">
-        <v>1089900</v>
+        <v>1184300</v>
       </c>
       <c r="G23" s="3">
-        <v>610600</v>
+        <v>1350200</v>
       </c>
       <c r="H23" s="3">
-        <v>688600</v>
+        <v>1101300</v>
       </c>
       <c r="I23" s="3">
+        <v>617000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>695800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1079600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1081700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>141600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>401800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>584600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>693800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2281300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>262700</v>
+        <v>-114100</v>
       </c>
       <c r="E24" s="3">
-        <v>374600</v>
+        <v>374400</v>
       </c>
       <c r="F24" s="3">
-        <v>321200</v>
+        <v>265500</v>
       </c>
       <c r="G24" s="3">
-        <v>348900</v>
+        <v>378500</v>
       </c>
       <c r="H24" s="3">
-        <v>267900</v>
+        <v>324600</v>
       </c>
       <c r="I24" s="3">
+        <v>352600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>270700</v>
+      </c>
+      <c r="K24" s="3">
         <v>408500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>371500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-66300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>153700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>277200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>80800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>428700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1529,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>909300</v>
+        <v>1359500</v>
       </c>
       <c r="E26" s="3">
-        <v>961600</v>
+        <v>884600</v>
       </c>
       <c r="F26" s="3">
-        <v>768700</v>
+        <v>918800</v>
       </c>
       <c r="G26" s="3">
-        <v>261700</v>
+        <v>971700</v>
       </c>
       <c r="H26" s="3">
-        <v>420800</v>
+        <v>776700</v>
       </c>
       <c r="I26" s="3">
+        <v>264400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>425200</v>
+      </c>
+      <c r="K26" s="3">
         <v>671200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>710200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>207900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>248100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>307400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>613000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2710000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>904100</v>
+        <v>1362600</v>
       </c>
       <c r="E27" s="3">
-        <v>961600</v>
+        <v>883500</v>
       </c>
       <c r="F27" s="3">
-        <v>768700</v>
+        <v>913600</v>
       </c>
       <c r="G27" s="3">
-        <v>265800</v>
+        <v>971700</v>
       </c>
       <c r="H27" s="3">
-        <v>435100</v>
+        <v>776700</v>
       </c>
       <c r="I27" s="3">
+        <v>268600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>439700</v>
+      </c>
+      <c r="K27" s="3">
         <v>664000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>712200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>174800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>245100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>304400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>617200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2712000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,8 +1679,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1591,26 +1711,32 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-2310400</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1779,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,96 +1829,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>582900</v>
+        <v>-243700</v>
       </c>
       <c r="E32" s="3">
-        <v>691700</v>
+        <v>354700</v>
       </c>
       <c r="F32" s="3">
-        <v>399200</v>
+        <v>589000</v>
       </c>
       <c r="G32" s="3">
-        <v>1804200</v>
+        <v>699000</v>
       </c>
       <c r="H32" s="3">
-        <v>700900</v>
+        <v>403400</v>
       </c>
       <c r="I32" s="3">
+        <v>1823100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>708300</v>
+      </c>
+      <c r="K32" s="3">
         <v>480300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>495700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1387200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1195400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1077800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>942300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>3883200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1711700</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>904100</v>
+        <v>1362600</v>
       </c>
       <c r="E33" s="3">
-        <v>961600</v>
+        <v>883500</v>
       </c>
       <c r="F33" s="3">
-        <v>768700</v>
+        <v>913600</v>
       </c>
       <c r="G33" s="3">
-        <v>265800</v>
+        <v>971700</v>
       </c>
       <c r="H33" s="3">
-        <v>435100</v>
+        <v>776700</v>
       </c>
       <c r="I33" s="3">
+        <v>268600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>439700</v>
+      </c>
+      <c r="K33" s="3">
         <v>664000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>712200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2135600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>245100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>304400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>617200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2712000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1979,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>904100</v>
+        <v>1362600</v>
       </c>
       <c r="E35" s="3">
-        <v>961600</v>
+        <v>883500</v>
       </c>
       <c r="F35" s="3">
-        <v>768700</v>
+        <v>913600</v>
       </c>
       <c r="G35" s="3">
-        <v>265800</v>
+        <v>971700</v>
       </c>
       <c r="H35" s="3">
-        <v>435100</v>
+        <v>776700</v>
       </c>
       <c r="I35" s="3">
+        <v>268600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>439700</v>
+      </c>
+      <c r="K35" s="3">
         <v>664000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>712200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2135600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>245100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>304400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>617200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2712000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2108,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,96 +2128,110 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>98258200</v>
+        <v>123583700</v>
       </c>
       <c r="E41" s="3">
-        <v>94918700</v>
+        <v>105650600</v>
       </c>
       <c r="F41" s="3">
-        <v>97251400</v>
+        <v>99287400</v>
       </c>
       <c r="G41" s="3">
-        <v>102675200</v>
+        <v>95912900</v>
       </c>
       <c r="H41" s="3">
-        <v>97439200</v>
+        <v>98270100</v>
       </c>
       <c r="I41" s="3">
+        <v>103750700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>98459900</v>
+      </c>
+      <c r="K41" s="3">
         <v>115468700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>121268200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>110311400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>106257100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>110830700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>105473900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>125464600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>108700600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>287277600</v>
+        <v>284776100</v>
       </c>
       <c r="E42" s="3">
-        <v>275746400</v>
+        <v>280811500</v>
       </c>
       <c r="F42" s="3">
-        <v>277253000</v>
+        <v>290286800</v>
       </c>
       <c r="G42" s="3">
-        <v>267225300</v>
+        <v>278634800</v>
       </c>
       <c r="H42" s="3">
-        <v>261276000</v>
+        <v>280157200</v>
       </c>
       <c r="I42" s="3">
+        <v>270024500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>264012800</v>
+      </c>
+      <c r="K42" s="3">
         <v>272227400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>278622000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>285284700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>297761800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>285608100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>324448100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>325650300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>323868200</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2090,8 +2274,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2134,8 +2324,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2178,8 +2374,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2222,140 +2424,164 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2455900</v>
+        <v>1488100</v>
       </c>
       <c r="E47" s="3">
-        <v>2454800</v>
+        <v>1464300</v>
       </c>
       <c r="F47" s="3">
-        <v>2533900</v>
+        <v>2481600</v>
       </c>
       <c r="G47" s="3">
-        <v>2531800</v>
+        <v>2480600</v>
       </c>
       <c r="H47" s="3">
-        <v>2552300</v>
+        <v>2560400</v>
       </c>
       <c r="I47" s="3">
+        <v>2558300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2579100</v>
+      </c>
+      <c r="K47" s="3">
         <v>3067500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>3015200</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8010000</v>
+        <v>8016200</v>
       </c>
       <c r="E48" s="3">
-        <v>7940300</v>
+        <v>8121900</v>
       </c>
       <c r="F48" s="3">
-        <v>8291200</v>
+        <v>8093900</v>
       </c>
       <c r="G48" s="3">
-        <v>4965100</v>
+        <v>8023400</v>
       </c>
       <c r="H48" s="3">
-        <v>4951800</v>
+        <v>8378100</v>
       </c>
       <c r="I48" s="3">
+        <v>5017100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5003600</v>
+      </c>
+      <c r="K48" s="3">
         <v>4957900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4799900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4707200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>4611800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>4545500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>4832800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>4878300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>4804800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5109800</v>
+        <v>5063800</v>
       </c>
       <c r="E49" s="3">
-        <v>5077000</v>
+        <v>5137400</v>
       </c>
       <c r="F49" s="3">
-        <v>5163200</v>
+        <v>5163300</v>
       </c>
       <c r="G49" s="3">
-        <v>5116000</v>
+        <v>5130100</v>
       </c>
       <c r="H49" s="3">
-        <v>5080000</v>
+        <v>5217200</v>
       </c>
       <c r="I49" s="3">
+        <v>5169500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5133200</v>
+      </c>
+      <c r="K49" s="3">
         <v>5140600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5007200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>4987400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>4956300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>4890000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>5211800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>5308100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>5091700</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2624,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,52 +2674,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17341900</v>
+        <v>17709200</v>
       </c>
       <c r="E52" s="3">
-        <v>15179600</v>
+        <v>16964600</v>
       </c>
       <c r="F52" s="3">
-        <v>15791200</v>
+        <v>17523600</v>
       </c>
       <c r="G52" s="3">
-        <v>13963400</v>
+        <v>15338600</v>
       </c>
       <c r="H52" s="3">
-        <v>14289800</v>
+        <v>15956600</v>
       </c>
       <c r="I52" s="3">
+        <v>14109700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>14439500</v>
+      </c>
+      <c r="K52" s="3">
         <v>16334100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>17028900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>11088900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>16777500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>19371200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>17695000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>16085800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>21881600</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2774,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>816828800</v>
+        <v>862972800</v>
       </c>
       <c r="E54" s="3">
-        <v>804817400</v>
+        <v>816440700</v>
       </c>
       <c r="F54" s="3">
-        <v>814484800</v>
+        <v>825385000</v>
       </c>
       <c r="G54" s="3">
-        <v>789115400</v>
+        <v>813247700</v>
       </c>
       <c r="H54" s="3">
-        <v>788733700</v>
+        <v>823016400</v>
       </c>
       <c r="I54" s="3">
+        <v>797381300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>796995500</v>
+      </c>
+      <c r="K54" s="3">
         <v>819125600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>830305800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>799888200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>792254900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>786952000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>840820500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>848982500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>835365400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2848,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,52 +2868,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>39958800</v>
+        <v>51548200</v>
       </c>
       <c r="E57" s="3">
-        <v>41733300</v>
+        <v>31923600</v>
       </c>
       <c r="F57" s="3">
-        <v>44199400</v>
+        <v>40377400</v>
       </c>
       <c r="G57" s="3">
-        <v>37029900</v>
+        <v>42170400</v>
       </c>
       <c r="H57" s="3">
-        <v>46420200</v>
+        <v>44662400</v>
       </c>
       <c r="I57" s="3">
+        <v>37417800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>46906500</v>
+      </c>
+      <c r="K57" s="3">
         <v>41249900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>44279400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>49115000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>37807100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>39269700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>48311200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>47521000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>49537200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2698,52 +2964,64 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3921400</v>
+        <v>3778900</v>
       </c>
       <c r="E59" s="3">
-        <v>4385300</v>
+        <v>4035000</v>
       </c>
       <c r="F59" s="3">
-        <v>4509400</v>
+        <v>3962500</v>
       </c>
       <c r="G59" s="3">
-        <v>951400</v>
+        <v>4431200</v>
       </c>
       <c r="H59" s="3">
-        <v>759400</v>
+        <v>4556700</v>
       </c>
       <c r="I59" s="3">
+        <v>961300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>767400</v>
+      </c>
+      <c r="K59" s="3">
         <v>683500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>738900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>703200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>604700</v>
-      </c>
-      <c r="M59" s="3">
-        <v>528400</v>
       </c>
       <c r="N59" s="3">
         <v>604700</v>
       </c>
       <c r="O59" s="3">
+        <v>528400</v>
+      </c>
+      <c r="P59" s="3">
+        <v>604700</v>
+      </c>
+      <c r="Q59" s="3">
         <v>658600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>889500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2786,96 +3064,114 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>163295000</v>
+        <v>150288000</v>
       </c>
       <c r="E61" s="3">
-        <v>162104500</v>
+        <v>157632200</v>
       </c>
       <c r="F61" s="3">
-        <v>164471100</v>
+        <v>165005400</v>
       </c>
       <c r="G61" s="3">
-        <v>158361700</v>
+        <v>163802500</v>
       </c>
       <c r="H61" s="3">
-        <v>168397600</v>
+        <v>166193900</v>
       </c>
       <c r="I61" s="3">
+        <v>160020500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>170161500</v>
+      </c>
+      <c r="K61" s="3">
         <v>170320800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>170531200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>173814100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>181108900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>177498700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>193974600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>200181500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>202397600</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1974500</v>
+        <v>2775100</v>
       </c>
       <c r="E62" s="3">
-        <v>2078200</v>
+        <v>2236900</v>
       </c>
       <c r="F62" s="3">
-        <v>2052500</v>
+        <v>1995200</v>
       </c>
       <c r="G62" s="3">
-        <v>1933500</v>
+        <v>2100000</v>
       </c>
       <c r="H62" s="3">
-        <v>2080200</v>
+        <v>2074000</v>
       </c>
       <c r="I62" s="3">
+        <v>1953700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2102000</v>
+      </c>
+      <c r="K62" s="3">
         <v>2181900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2039200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1407300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1256700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1190400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1612300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>4355400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1895000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3214,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3264,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3314,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>770492700</v>
+        <v>812495800</v>
       </c>
       <c r="E66" s="3">
-        <v>759997100</v>
+        <v>771181000</v>
       </c>
       <c r="F66" s="3">
-        <v>769508500</v>
+        <v>778563500</v>
       </c>
       <c r="G66" s="3">
-        <v>744039600</v>
+        <v>767957900</v>
       </c>
       <c r="H66" s="3">
-        <v>744877000</v>
+        <v>777569000</v>
       </c>
       <c r="I66" s="3">
+        <v>751833300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>752679500</v>
+      </c>
+      <c r="K66" s="3">
         <v>774513700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>786648300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>757796800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>748198600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>743262400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>797637200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>805597300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>789516700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3388,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3434,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,8 +3484,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3200,8 +3534,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3584,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>30564400</v>
+        <v>32993800</v>
       </c>
       <c r="E72" s="3">
-        <v>29660200</v>
+        <v>31768100</v>
       </c>
       <c r="F72" s="3">
-        <v>28698600</v>
+        <v>30884500</v>
       </c>
       <c r="G72" s="3">
-        <v>27681600</v>
+        <v>29970900</v>
       </c>
       <c r="H72" s="3">
-        <v>27415800</v>
+        <v>28999200</v>
       </c>
       <c r="I72" s="3">
+        <v>27971500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>27703000</v>
+      </c>
+      <c r="K72" s="3">
         <v>26980600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>26316600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>25085900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>27221500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>26976400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>27495100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>26875900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>29587900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3684,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3734,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3784,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46336100</v>
+        <v>50476900</v>
       </c>
       <c r="E76" s="3">
-        <v>44820300</v>
+        <v>45259700</v>
       </c>
       <c r="F76" s="3">
-        <v>44976300</v>
+        <v>46821500</v>
       </c>
       <c r="G76" s="3">
-        <v>45075800</v>
+        <v>45289800</v>
       </c>
       <c r="H76" s="3">
-        <v>43856600</v>
+        <v>45447400</v>
       </c>
       <c r="I76" s="3">
+        <v>45548000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>44316000</v>
+      </c>
+      <c r="K76" s="3">
         <v>44612000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>43657500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>42091400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>44056200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>43689600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>43183300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>43385200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>45848700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3884,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>904100</v>
+        <v>1362600</v>
       </c>
       <c r="E81" s="3">
-        <v>961600</v>
+        <v>883500</v>
       </c>
       <c r="F81" s="3">
-        <v>768700</v>
+        <v>913600</v>
       </c>
       <c r="G81" s="3">
-        <v>265800</v>
+        <v>971700</v>
       </c>
       <c r="H81" s="3">
-        <v>435100</v>
+        <v>776700</v>
       </c>
       <c r="I81" s="3">
+        <v>268600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>439700</v>
+      </c>
+      <c r="K81" s="3">
         <v>664000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>712200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2135600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>245100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>304400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>617200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2712000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,52 +4013,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>242200</v>
+        <v>327700</v>
       </c>
       <c r="E83" s="3">
-        <v>235000</v>
+        <v>595200</v>
       </c>
       <c r="F83" s="3">
-        <v>242200</v>
+        <v>244700</v>
       </c>
       <c r="G83" s="3">
-        <v>278100</v>
+        <v>237500</v>
       </c>
       <c r="H83" s="3">
-        <v>255500</v>
+        <v>244700</v>
       </c>
       <c r="I83" s="3">
+        <v>281000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>258200</v>
+      </c>
+      <c r="K83" s="3">
         <v>213500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>213500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>244100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>216000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>218000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>226800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>240200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>242300</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +4109,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +4159,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4209,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4259,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,52 +4309,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-8534500</v>
+        <v>-9510500</v>
       </c>
       <c r="E89" s="3">
-        <v>4351400</v>
+        <v>-6894100</v>
       </c>
       <c r="F89" s="3">
-        <v>-7902300</v>
+        <v>-8623900</v>
       </c>
       <c r="G89" s="3">
-        <v>-10138500</v>
+        <v>4397000</v>
       </c>
       <c r="H89" s="3">
-        <v>11068300</v>
+        <v>-7985100</v>
       </c>
       <c r="I89" s="3">
+        <v>-10244700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>11184300</v>
+      </c>
+      <c r="K89" s="3">
         <v>9858300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2307100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-13452500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>7114000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>4884000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-7346000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>24547000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-7004300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,52 +4383,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-309900</v>
+        <v>-269600</v>
       </c>
       <c r="E91" s="3">
-        <v>-300700</v>
+        <v>-453200</v>
       </c>
       <c r="F91" s="3">
-        <v>-267900</v>
+        <v>-313200</v>
       </c>
       <c r="G91" s="3">
-        <v>-217600</v>
+        <v>-303800</v>
       </c>
       <c r="H91" s="3">
-        <v>-363300</v>
+        <v>-270700</v>
       </c>
       <c r="I91" s="3">
+        <v>-219800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-367100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-294500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-248400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-323500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-274200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-257200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-224700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-304400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-298200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4479,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,52 +4529,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-222700</v>
+        <v>-11889400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1978600</v>
+        <v>3016700</v>
       </c>
       <c r="F94" s="3">
-        <v>-2144900</v>
+        <v>-225000</v>
       </c>
       <c r="G94" s="3">
-        <v>-459800</v>
+        <v>-1999400</v>
       </c>
       <c r="H94" s="3">
-        <v>815900</v>
+        <v>-2167400</v>
       </c>
       <c r="I94" s="3">
+        <v>-464600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>824400</v>
+      </c>
+      <c r="K94" s="3">
         <v>4866600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-12808900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>23224500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-8396800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>3455500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-7649400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-14118300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>6844800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,8 +4603,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4148,43 +4614,49 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-713300</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-720700</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-1000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-679400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-3100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-1000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-1000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-588600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-2100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4699,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4749,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,136 +4799,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>11747700</v>
+        <v>39934600</v>
       </c>
       <c r="E100" s="3">
-        <v>-3929600</v>
+        <v>11070200</v>
       </c>
       <c r="F100" s="3">
-        <v>3998300</v>
+        <v>11870800</v>
       </c>
       <c r="G100" s="3">
-        <v>15160100</v>
+        <v>-3970700</v>
       </c>
       <c r="H100" s="3">
-        <v>-28945900</v>
+        <v>4040200</v>
       </c>
       <c r="I100" s="3">
+        <v>15318900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-29249100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-21541400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>19783400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-5639400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-4152700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1032600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-4215600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>4487900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-9169500</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>348900</v>
+        <v>-601500</v>
       </c>
       <c r="E101" s="3">
-        <v>-775900</v>
+        <v>-829600</v>
       </c>
       <c r="F101" s="3">
-        <v>625000</v>
+        <v>352600</v>
       </c>
       <c r="G101" s="3">
-        <v>448500</v>
+        <v>-784000</v>
       </c>
       <c r="H101" s="3">
-        <v>-927700</v>
+        <v>631500</v>
       </c>
       <c r="I101" s="3">
+        <v>453200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-937500</v>
+      </c>
+      <c r="K101" s="3">
         <v>1076600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-587000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-78400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>861900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-857900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-779700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>1847400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-70400</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3339500</v>
+        <v>17933200</v>
       </c>
       <c r="E102" s="3">
-        <v>-2332700</v>
+        <v>6363200</v>
       </c>
       <c r="F102" s="3">
-        <v>-5423800</v>
+        <v>3374500</v>
       </c>
       <c r="G102" s="3">
-        <v>5236000</v>
+        <v>-2357100</v>
       </c>
       <c r="H102" s="3">
-        <v>-18029500</v>
+        <v>-5480700</v>
       </c>
       <c r="I102" s="3">
+        <v>5290900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-18218400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-5799500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>8568300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>4054200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-4573600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>8514300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-19990700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>16764000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-9399400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>CS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,127 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4454000</v>
+        <v>3952200</v>
       </c>
       <c r="E8" s="3">
-        <v>4546300</v>
+        <v>4729700</v>
       </c>
       <c r="F8" s="3">
-        <v>5526300</v>
+        <v>4827700</v>
       </c>
       <c r="G8" s="3">
-        <v>5862300</v>
+        <v>5868300</v>
       </c>
       <c r="H8" s="3">
-        <v>4996400</v>
+        <v>6225100</v>
       </c>
       <c r="I8" s="3">
-        <v>5718100</v>
+        <v>5305600</v>
       </c>
       <c r="J8" s="3">
+        <v>6072000</v>
+      </c>
+      <c r="K8" s="3">
         <v>4726700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5223700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4567900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4158700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4292300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4622800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4185600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3945300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4372000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,8 +834,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,8 +887,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -898,8 +910,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -948,8 +961,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,8 +1014,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1048,40 +1067,43 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-2100</v>
+        <v>-1100</v>
       </c>
       <c r="E15" s="3">
-        <v>-1000</v>
+        <v>-2200</v>
       </c>
       <c r="F15" s="3">
-        <v>-6200</v>
+        <v>-1100</v>
       </c>
       <c r="G15" s="3">
-        <v>-1000</v>
+        <v>-6600</v>
       </c>
       <c r="H15" s="3">
-        <v>-2100</v>
+        <v>-1100</v>
       </c>
       <c r="I15" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="J15" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="K15" s="3">
         <v>-2100</v>
       </c>
       <c r="L15" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M15" s="3">
         <v>-3100</v>
-      </c>
-      <c r="M15" s="3">
-        <v>-2000</v>
       </c>
       <c r="N15" s="3">
         <v>-2000</v>
@@ -1090,16 +1112,19 @@
         <v>-2000</v>
       </c>
       <c r="P15" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-1000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1140,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3452200</v>
+        <v>2549300</v>
       </c>
       <c r="E17" s="3">
-        <v>2932700</v>
+        <v>3665900</v>
       </c>
       <c r="F17" s="3">
-        <v>3753000</v>
+        <v>3114200</v>
       </c>
       <c r="G17" s="3">
-        <v>3813100</v>
+        <v>3985200</v>
       </c>
       <c r="H17" s="3">
-        <v>3491600</v>
+        <v>4049100</v>
       </c>
       <c r="I17" s="3">
-        <v>3278000</v>
+        <v>3707700</v>
       </c>
       <c r="J17" s="3">
+        <v>3480900</v>
+      </c>
+      <c r="K17" s="3">
         <v>3322600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3663800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2990600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2629800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2695100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2960300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2549500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2343400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2430400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1001800</v>
+        <v>1402900</v>
       </c>
       <c r="E18" s="3">
-        <v>1613600</v>
+        <v>1063800</v>
       </c>
       <c r="F18" s="3">
-        <v>1773300</v>
+        <v>1713500</v>
       </c>
       <c r="G18" s="3">
-        <v>2049200</v>
+        <v>1883100</v>
       </c>
       <c r="H18" s="3">
-        <v>1504700</v>
+        <v>2176000</v>
       </c>
       <c r="I18" s="3">
-        <v>2440100</v>
+        <v>1597800</v>
       </c>
       <c r="J18" s="3">
+        <v>2591100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1404100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1559900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1577400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1528900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1597200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1662500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1636100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1601900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1941600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1235,108 +1267,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>243700</v>
+        <v>305000</v>
       </c>
       <c r="E20" s="3">
-        <v>-354700</v>
+        <v>258800</v>
       </c>
       <c r="F20" s="3">
-        <v>-589000</v>
+        <v>-376600</v>
       </c>
       <c r="G20" s="3">
-        <v>-699000</v>
+        <v>-625500</v>
       </c>
       <c r="H20" s="3">
-        <v>-403400</v>
+        <v>-742200</v>
       </c>
       <c r="I20" s="3">
-        <v>-1823100</v>
+        <v>-428400</v>
       </c>
       <c r="J20" s="3">
+        <v>-1935900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-708300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-480300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-495700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1387200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1195400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1077800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-942300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3883200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1711700</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1573200</v>
+        <v>2086800</v>
       </c>
       <c r="E21" s="3">
-        <v>1854200</v>
+        <v>1670500</v>
       </c>
       <c r="F21" s="3">
-        <v>1429000</v>
+        <v>1968900</v>
       </c>
       <c r="G21" s="3">
-        <v>1587700</v>
+        <v>1517500</v>
       </c>
       <c r="H21" s="3">
-        <v>1346100</v>
+        <v>1685900</v>
       </c>
       <c r="I21" s="3">
-        <v>898100</v>
+        <v>1429400</v>
       </c>
       <c r="J21" s="3">
+        <v>953600</v>
+      </c>
+      <c r="K21" s="3">
         <v>954100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1293100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1295200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>385700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>617800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>802600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>920600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2041000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1385,108 +1424,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1245500</v>
+        <v>1708000</v>
       </c>
       <c r="E23" s="3">
-        <v>1258900</v>
+        <v>1322500</v>
       </c>
       <c r="F23" s="3">
-        <v>1184300</v>
+        <v>1336900</v>
       </c>
       <c r="G23" s="3">
-        <v>1350200</v>
+        <v>1257600</v>
       </c>
       <c r="H23" s="3">
-        <v>1101300</v>
+        <v>1433800</v>
       </c>
       <c r="I23" s="3">
-        <v>617000</v>
+        <v>1169500</v>
       </c>
       <c r="J23" s="3">
+        <v>655200</v>
+      </c>
+      <c r="K23" s="3">
         <v>695800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1079600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1081700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>141600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>401800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>584600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>693800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2281300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-114100</v>
+        <v>430600</v>
       </c>
       <c r="E24" s="3">
+        <v>-121100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>397500</v>
+      </c>
+      <c r="G24" s="3">
+        <v>281900</v>
+      </c>
+      <c r="H24" s="3">
+        <v>401900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>344700</v>
+      </c>
+      <c r="J24" s="3">
         <v>374400</v>
       </c>
-      <c r="F24" s="3">
-        <v>265500</v>
-      </c>
-      <c r="G24" s="3">
-        <v>378500</v>
-      </c>
-      <c r="H24" s="3">
-        <v>324600</v>
-      </c>
-      <c r="I24" s="3">
-        <v>352600</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>270700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>408500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>371500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-66300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>153700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>277200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>80800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>428700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,108 +1583,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1359500</v>
+        <v>1277400</v>
       </c>
       <c r="E26" s="3">
-        <v>884600</v>
+        <v>1443700</v>
       </c>
       <c r="F26" s="3">
-        <v>918800</v>
+        <v>939300</v>
       </c>
       <c r="G26" s="3">
-        <v>971700</v>
+        <v>975700</v>
       </c>
       <c r="H26" s="3">
-        <v>776700</v>
+        <v>1031800</v>
       </c>
       <c r="I26" s="3">
-        <v>264400</v>
+        <v>824800</v>
       </c>
       <c r="J26" s="3">
+        <v>280800</v>
+      </c>
+      <c r="K26" s="3">
         <v>425200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>671200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>710200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>207900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>248100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>307400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>613000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2710000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1362600</v>
+        <v>1279600</v>
       </c>
       <c r="E27" s="3">
-        <v>883500</v>
+        <v>1447000</v>
       </c>
       <c r="F27" s="3">
-        <v>913600</v>
+        <v>938200</v>
       </c>
       <c r="G27" s="3">
-        <v>971700</v>
+        <v>970200</v>
       </c>
       <c r="H27" s="3">
-        <v>776700</v>
+        <v>1031800</v>
       </c>
       <c r="I27" s="3">
-        <v>268600</v>
+        <v>824800</v>
       </c>
       <c r="J27" s="3">
+        <v>285200</v>
+      </c>
+      <c r="K27" s="3">
         <v>439700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>664000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>712200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>174800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>245100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>304400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>617200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2712000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1685,8 +1742,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1717,26 +1777,29 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-2310400</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1848,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,108 +1901,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-243700</v>
+        <v>-305000</v>
       </c>
       <c r="E32" s="3">
-        <v>354700</v>
+        <v>-258800</v>
       </c>
       <c r="F32" s="3">
-        <v>589000</v>
+        <v>376600</v>
       </c>
       <c r="G32" s="3">
-        <v>699000</v>
+        <v>625500</v>
       </c>
       <c r="H32" s="3">
-        <v>403400</v>
+        <v>742200</v>
       </c>
       <c r="I32" s="3">
-        <v>1823100</v>
+        <v>428400</v>
       </c>
       <c r="J32" s="3">
+        <v>1935900</v>
+      </c>
+      <c r="K32" s="3">
         <v>708300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>480300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>495700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1387200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1195400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1077800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>942300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3883200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1711700</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1362600</v>
+        <v>1279600</v>
       </c>
       <c r="E33" s="3">
-        <v>883500</v>
+        <v>1447000</v>
       </c>
       <c r="F33" s="3">
-        <v>913600</v>
+        <v>938200</v>
       </c>
       <c r="G33" s="3">
-        <v>971700</v>
+        <v>970200</v>
       </c>
       <c r="H33" s="3">
-        <v>776700</v>
+        <v>1031800</v>
       </c>
       <c r="I33" s="3">
-        <v>268600</v>
+        <v>824800</v>
       </c>
       <c r="J33" s="3">
+        <v>285200</v>
+      </c>
+      <c r="K33" s="3">
         <v>439700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>664000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>712200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2135600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>245100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>304400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>617200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2712000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2060,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1362600</v>
+        <v>1279600</v>
       </c>
       <c r="E35" s="3">
-        <v>883500</v>
+        <v>1447000</v>
       </c>
       <c r="F35" s="3">
-        <v>913600</v>
+        <v>938200</v>
       </c>
       <c r="G35" s="3">
-        <v>971700</v>
+        <v>970200</v>
       </c>
       <c r="H35" s="3">
-        <v>776700</v>
+        <v>1031800</v>
       </c>
       <c r="I35" s="3">
-        <v>268600</v>
+        <v>824800</v>
       </c>
       <c r="J35" s="3">
+        <v>285200</v>
+      </c>
+      <c r="K35" s="3">
         <v>439700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>664000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>712200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2135600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>245100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>304400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>617200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2712000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2194,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,108 +2215,115 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>123583700</v>
+        <v>145435500</v>
       </c>
       <c r="E41" s="3">
-        <v>105650600</v>
+        <v>131232200</v>
       </c>
       <c r="F41" s="3">
-        <v>99287400</v>
+        <v>112189200</v>
       </c>
       <c r="G41" s="3">
-        <v>95912900</v>
+        <v>105432200</v>
       </c>
       <c r="H41" s="3">
-        <v>98270100</v>
+        <v>101848900</v>
       </c>
       <c r="I41" s="3">
-        <v>103750700</v>
+        <v>104351900</v>
       </c>
       <c r="J41" s="3">
+        <v>110171800</v>
+      </c>
+      <c r="K41" s="3">
         <v>98459900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>115468700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>121268200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>110311400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>106257100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>110830700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>105473900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>125464600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>108700600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>284776100</v>
+        <v>303078900</v>
       </c>
       <c r="E42" s="3">
-        <v>280811500</v>
+        <v>302400500</v>
       </c>
       <c r="F42" s="3">
-        <v>290286800</v>
+        <v>298190600</v>
       </c>
       <c r="G42" s="3">
-        <v>278634800</v>
+        <v>308252300</v>
       </c>
       <c r="H42" s="3">
-        <v>280157200</v>
+        <v>295879200</v>
       </c>
       <c r="I42" s="3">
-        <v>270024500</v>
+        <v>297495800</v>
       </c>
       <c r="J42" s="3">
+        <v>286736000</v>
+      </c>
+      <c r="K42" s="3">
         <v>264012800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>272227400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>278622000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>285284700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>297761800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>285608100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>324448100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>325650300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>323868200</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2280,8 +2372,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2330,8 +2425,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2380,8 +2478,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2430,49 +2531,52 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1488100</v>
+        <v>1619900</v>
       </c>
       <c r="E47" s="3">
-        <v>1464300</v>
+        <v>1580200</v>
       </c>
       <c r="F47" s="3">
-        <v>2481600</v>
+        <v>1554900</v>
       </c>
       <c r="G47" s="3">
-        <v>2480600</v>
+        <v>2635200</v>
       </c>
       <c r="H47" s="3">
-        <v>2560400</v>
+        <v>2634100</v>
       </c>
       <c r="I47" s="3">
-        <v>2558300</v>
+        <v>2718900</v>
       </c>
       <c r="J47" s="3">
+        <v>2716700</v>
+      </c>
+      <c r="K47" s="3">
         <v>2579100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3067500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3015200</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2480,108 +2584,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8016200</v>
+        <v>8424200</v>
       </c>
       <c r="E48" s="3">
-        <v>8121900</v>
+        <v>8512300</v>
       </c>
       <c r="F48" s="3">
-        <v>8093900</v>
+        <v>8624600</v>
       </c>
       <c r="G48" s="3">
-        <v>8023400</v>
+        <v>8594900</v>
       </c>
       <c r="H48" s="3">
-        <v>8378100</v>
+        <v>8520000</v>
       </c>
       <c r="I48" s="3">
-        <v>5017100</v>
+        <v>8896600</v>
       </c>
       <c r="J48" s="3">
+        <v>5327600</v>
+      </c>
+      <c r="K48" s="3">
         <v>5003600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4957900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4799900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4707200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4611800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4545500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4832800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4878300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4804800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5063800</v>
+        <v>5449800</v>
       </c>
       <c r="E49" s="3">
-        <v>5137400</v>
+        <v>5377200</v>
       </c>
       <c r="F49" s="3">
-        <v>5163300</v>
+        <v>5455300</v>
       </c>
       <c r="G49" s="3">
-        <v>5130100</v>
+        <v>5482900</v>
       </c>
       <c r="H49" s="3">
-        <v>5217200</v>
+        <v>5447600</v>
       </c>
       <c r="I49" s="3">
-        <v>5169500</v>
+        <v>5540100</v>
       </c>
       <c r="J49" s="3">
+        <v>5489500</v>
+      </c>
+      <c r="K49" s="3">
         <v>5133200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5140600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5007200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4987400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4956300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4890000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5211800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5308100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5091700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2743,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,58 +2796,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17709200</v>
+        <v>16074200</v>
       </c>
       <c r="E52" s="3">
-        <v>16964600</v>
+        <v>18805200</v>
       </c>
       <c r="F52" s="3">
-        <v>17523600</v>
+        <v>18014500</v>
       </c>
       <c r="G52" s="3">
-        <v>15338600</v>
+        <v>18608100</v>
       </c>
       <c r="H52" s="3">
-        <v>15956600</v>
+        <v>16287800</v>
       </c>
       <c r="I52" s="3">
-        <v>14109700</v>
+        <v>16944200</v>
       </c>
       <c r="J52" s="3">
+        <v>14982900</v>
+      </c>
+      <c r="K52" s="3">
         <v>14439500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16334100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17028900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11088900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16777500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>19371200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17695000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>16085800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>21881600</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2902,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>862972800</v>
+        <v>912322200</v>
       </c>
       <c r="E54" s="3">
-        <v>816440700</v>
+        <v>916381200</v>
       </c>
       <c r="F54" s="3">
-        <v>825385000</v>
+        <v>866969300</v>
       </c>
       <c r="G54" s="3">
-        <v>813247700</v>
+        <v>876467100</v>
       </c>
       <c r="H54" s="3">
-        <v>823016400</v>
+        <v>863578700</v>
       </c>
       <c r="I54" s="3">
-        <v>797381300</v>
+        <v>873952000</v>
       </c>
       <c r="J54" s="3">
+        <v>846730300</v>
+      </c>
+      <c r="K54" s="3">
         <v>796995500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>819125600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>830305800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>799888200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>792254900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>786952000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>840820500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>848982500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>835365400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2978,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,58 +2999,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>51548200</v>
+        <v>40636500</v>
       </c>
       <c r="E57" s="3">
-        <v>31923600</v>
+        <v>54738400</v>
       </c>
       <c r="F57" s="3">
-        <v>40377400</v>
+        <v>33899300</v>
       </c>
       <c r="G57" s="3">
-        <v>42170400</v>
+        <v>42876300</v>
       </c>
       <c r="H57" s="3">
-        <v>44662400</v>
+        <v>44780300</v>
       </c>
       <c r="I57" s="3">
-        <v>37417800</v>
+        <v>47426500</v>
       </c>
       <c r="J57" s="3">
+        <v>39733500</v>
+      </c>
+      <c r="K57" s="3">
         <v>46906500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>41249900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>44279400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>49115000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>37807100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>39269700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>48311200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>47521000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>49537200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2970,58 +3103,64 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3778900</v>
+        <v>3836600</v>
       </c>
       <c r="E59" s="3">
-        <v>4035000</v>
+        <v>4012800</v>
       </c>
       <c r="F59" s="3">
-        <v>3962500</v>
+        <v>4284800</v>
       </c>
       <c r="G59" s="3">
-        <v>4431200</v>
+        <v>4207700</v>
       </c>
       <c r="H59" s="3">
-        <v>4556700</v>
+        <v>4705400</v>
       </c>
       <c r="I59" s="3">
-        <v>961300</v>
+        <v>4838700</v>
       </c>
       <c r="J59" s="3">
+        <v>1020800</v>
+      </c>
+      <c r="K59" s="3">
         <v>767400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>683500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>738900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>703200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>604700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>528400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>604700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>658600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>889500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3070,108 +3209,117 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>150288000</v>
+        <v>186571900</v>
       </c>
       <c r="E61" s="3">
-        <v>157632200</v>
+        <v>159589200</v>
       </c>
       <c r="F61" s="3">
-        <v>165005400</v>
+        <v>167387900</v>
       </c>
       <c r="G61" s="3">
-        <v>163802500</v>
+        <v>175217400</v>
       </c>
       <c r="H61" s="3">
-        <v>166193900</v>
+        <v>173940000</v>
       </c>
       <c r="I61" s="3">
-        <v>160020500</v>
+        <v>176479400</v>
       </c>
       <c r="J61" s="3">
+        <v>169924000</v>
+      </c>
+      <c r="K61" s="3">
         <v>170161500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>170320800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>170531200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>173814100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>181108900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>177498700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>193974600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>200181500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>202397600</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2775100</v>
+        <v>2655000</v>
       </c>
       <c r="E62" s="3">
-        <v>2236900</v>
+        <v>2946800</v>
       </c>
       <c r="F62" s="3">
-        <v>1995200</v>
+        <v>2375300</v>
       </c>
       <c r="G62" s="3">
-        <v>2100000</v>
+        <v>2118700</v>
       </c>
       <c r="H62" s="3">
-        <v>2074000</v>
+        <v>2229900</v>
       </c>
       <c r="I62" s="3">
-        <v>1953700</v>
+        <v>2202400</v>
       </c>
       <c r="J62" s="3">
+        <v>2074700</v>
+      </c>
+      <c r="K62" s="3">
         <v>2102000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2181900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2039200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1407300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1256700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1190400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1612300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4355400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1895000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3368,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3270,8 +3421,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3474,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>812495800</v>
+        <v>861077800</v>
       </c>
       <c r="E66" s="3">
-        <v>771181000</v>
+        <v>862780300</v>
       </c>
       <c r="F66" s="3">
-        <v>778563500</v>
+        <v>818908500</v>
       </c>
       <c r="G66" s="3">
-        <v>767957900</v>
+        <v>826747900</v>
       </c>
       <c r="H66" s="3">
-        <v>777569000</v>
+        <v>815486000</v>
       </c>
       <c r="I66" s="3">
-        <v>751833300</v>
+        <v>825691900</v>
       </c>
       <c r="J66" s="3">
+        <v>798363400</v>
+      </c>
+      <c r="K66" s="3">
         <v>752679500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>774513700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>786648300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>757796800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>748198600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>743262400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>797637200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>805597300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>789516700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3550,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3601,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,8 +3654,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3540,8 +3707,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +3760,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>32993800</v>
+        <v>36128200</v>
       </c>
       <c r="E72" s="3">
-        <v>31768100</v>
+        <v>35035800</v>
       </c>
       <c r="F72" s="3">
-        <v>30884500</v>
+        <v>33734200</v>
       </c>
       <c r="G72" s="3">
-        <v>29970900</v>
+        <v>32795900</v>
       </c>
       <c r="H72" s="3">
-        <v>28999200</v>
+        <v>31825800</v>
       </c>
       <c r="I72" s="3">
-        <v>27971500</v>
+        <v>30794000</v>
       </c>
       <c r="J72" s="3">
+        <v>29702700</v>
+      </c>
+      <c r="K72" s="3">
         <v>27703000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>26980600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>26316600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>25085900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>27221500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>26976400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>27495100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>26875900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>29587900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3866,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3919,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3972,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>50476900</v>
+        <v>51244300</v>
       </c>
       <c r="E76" s="3">
-        <v>45259700</v>
+        <v>53600900</v>
       </c>
       <c r="F76" s="3">
-        <v>46821500</v>
+        <v>48060800</v>
       </c>
       <c r="G76" s="3">
-        <v>45289800</v>
+        <v>49719200</v>
       </c>
       <c r="H76" s="3">
-        <v>45447400</v>
+        <v>48092700</v>
       </c>
       <c r="I76" s="3">
-        <v>45548000</v>
+        <v>48260100</v>
       </c>
       <c r="J76" s="3">
+        <v>48366900</v>
+      </c>
+      <c r="K76" s="3">
         <v>44316000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>44612000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>43657500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>42091400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>44056200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>43689600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>43183300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>43385200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>45848700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4078,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1362600</v>
+        <v>1279600</v>
       </c>
       <c r="E81" s="3">
-        <v>883500</v>
+        <v>1447000</v>
       </c>
       <c r="F81" s="3">
-        <v>913600</v>
+        <v>938200</v>
       </c>
       <c r="G81" s="3">
-        <v>971700</v>
+        <v>970200</v>
       </c>
       <c r="H81" s="3">
-        <v>776700</v>
+        <v>1031800</v>
       </c>
       <c r="I81" s="3">
-        <v>268600</v>
+        <v>824800</v>
       </c>
       <c r="J81" s="3">
+        <v>285200</v>
+      </c>
+      <c r="K81" s="3">
         <v>439700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>664000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>712200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2135600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>245100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>304400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>617200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2712000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,58 +4212,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>327700</v>
+        <v>378800</v>
       </c>
       <c r="E83" s="3">
-        <v>595200</v>
+        <v>348000</v>
       </c>
       <c r="F83" s="3">
-        <v>244700</v>
+        <v>632100</v>
       </c>
       <c r="G83" s="3">
-        <v>237500</v>
+        <v>259900</v>
       </c>
       <c r="H83" s="3">
-        <v>244700</v>
+        <v>252200</v>
       </c>
       <c r="I83" s="3">
-        <v>281000</v>
+        <v>259900</v>
       </c>
       <c r="J83" s="3">
+        <v>298400</v>
+      </c>
+      <c r="K83" s="3">
         <v>258200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>213500</v>
       </c>
       <c r="L83" s="3">
         <v>213500</v>
       </c>
       <c r="M83" s="3">
+        <v>213500</v>
+      </c>
+      <c r="N83" s="3">
         <v>244100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>216000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>218000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>226800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>240200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>242300</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4316,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4369,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4422,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4475,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4528,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-9510500</v>
+        <v>7285500</v>
       </c>
       <c r="E89" s="3">
-        <v>-6894100</v>
+        <v>-10099100</v>
       </c>
       <c r="F89" s="3">
-        <v>-8623900</v>
+        <v>-7320800</v>
       </c>
       <c r="G89" s="3">
-        <v>4397000</v>
+        <v>-9157600</v>
       </c>
       <c r="H89" s="3">
-        <v>-7985100</v>
+        <v>4669100</v>
       </c>
       <c r="I89" s="3">
-        <v>-10244700</v>
+        <v>-8479200</v>
       </c>
       <c r="J89" s="3">
+        <v>-10878800</v>
+      </c>
+      <c r="K89" s="3">
         <v>11184300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9858300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2307100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-13452500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7114000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4884000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-7346000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>24547000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-7004300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,58 +4604,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-269600</v>
+        <v>-322700</v>
       </c>
       <c r="E91" s="3">
-        <v>-453200</v>
+        <v>-286300</v>
       </c>
       <c r="F91" s="3">
-        <v>-313200</v>
+        <v>-481200</v>
       </c>
       <c r="G91" s="3">
-        <v>-303800</v>
+        <v>-332600</v>
       </c>
       <c r="H91" s="3">
-        <v>-270700</v>
+        <v>-322700</v>
       </c>
       <c r="I91" s="3">
-        <v>-219800</v>
+        <v>-287400</v>
       </c>
       <c r="J91" s="3">
+        <v>-233500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-367100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-294500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-248400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-323500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-274200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-257200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-224700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-304400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-298200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4708,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +4761,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11889400</v>
+        <v>11198100</v>
       </c>
       <c r="E94" s="3">
-        <v>3016700</v>
+        <v>-12625300</v>
       </c>
       <c r="F94" s="3">
-        <v>-225000</v>
+        <v>3203400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1999400</v>
+        <v>-239000</v>
       </c>
       <c r="H94" s="3">
-        <v>-2167400</v>
+        <v>-2123100</v>
       </c>
       <c r="I94" s="3">
-        <v>-464600</v>
+        <v>-2301500</v>
       </c>
       <c r="J94" s="3">
+        <v>-493300</v>
+      </c>
+      <c r="K94" s="3">
         <v>824400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>4866600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12808900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>23224500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8396800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3455500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7649400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-14118300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>6844800</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,13 +4837,14 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-394200</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -4620,43 +4853,46 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-720700</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-1000</v>
+        <v>-765300</v>
       </c>
       <c r="I96" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-679400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3100</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-1000</v>
       </c>
       <c r="N96" s="3">
         <v>-1000</v>
       </c>
       <c r="O96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-588600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4941,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4994,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,154 +5047,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>39934600</v>
+        <v>-3990700</v>
       </c>
       <c r="E100" s="3">
-        <v>11070200</v>
+        <v>42406100</v>
       </c>
       <c r="F100" s="3">
-        <v>11870800</v>
+        <v>11755300</v>
       </c>
       <c r="G100" s="3">
-        <v>-3970700</v>
+        <v>12605400</v>
       </c>
       <c r="H100" s="3">
-        <v>4040200</v>
+        <v>-4216500</v>
       </c>
       <c r="I100" s="3">
-        <v>15318900</v>
+        <v>4290300</v>
       </c>
       <c r="J100" s="3">
+        <v>16266900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-29249100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-21541400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>19783400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5639400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4152700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1032600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4215600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4487900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-9169500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-601500</v>
+        <v>-289600</v>
       </c>
       <c r="E101" s="3">
-        <v>-829600</v>
+        <v>-638700</v>
       </c>
       <c r="F101" s="3">
-        <v>352600</v>
+        <v>-881000</v>
       </c>
       <c r="G101" s="3">
-        <v>-784000</v>
+        <v>374400</v>
       </c>
       <c r="H101" s="3">
-        <v>631500</v>
+        <v>-832500</v>
       </c>
       <c r="I101" s="3">
-        <v>453200</v>
+        <v>670600</v>
       </c>
       <c r="J101" s="3">
+        <v>481200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-937500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1076600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-587000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-78400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>861900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-857900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-779700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1847400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-70400</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>17933200</v>
+        <v>14203300</v>
       </c>
       <c r="E102" s="3">
-        <v>6363200</v>
+        <v>19043100</v>
       </c>
       <c r="F102" s="3">
-        <v>3374500</v>
+        <v>6757000</v>
       </c>
       <c r="G102" s="3">
-        <v>-2357100</v>
+        <v>3583300</v>
       </c>
       <c r="H102" s="3">
-        <v>-5480700</v>
+        <v>-2503000</v>
       </c>
       <c r="I102" s="3">
-        <v>5290900</v>
+        <v>-5819800</v>
       </c>
       <c r="J102" s="3">
+        <v>5618300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-18218400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5799500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8568300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4054200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4573600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8514300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-19990700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>16764000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-9399400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>CS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,133 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3952200</v>
+        <v>3589200</v>
       </c>
       <c r="E8" s="3">
-        <v>4729700</v>
+        <v>3969700</v>
       </c>
       <c r="F8" s="3">
-        <v>4827700</v>
+        <v>4750600</v>
       </c>
       <c r="G8" s="3">
-        <v>5868300</v>
+        <v>4849000</v>
       </c>
       <c r="H8" s="3">
-        <v>6225100</v>
+        <v>5894200</v>
       </c>
       <c r="I8" s="3">
-        <v>5305600</v>
+        <v>6252600</v>
       </c>
       <c r="J8" s="3">
+        <v>5329000</v>
+      </c>
+      <c r="K8" s="3">
         <v>6072000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4726700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5223700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4567900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4158700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4292300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4622800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4185600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3945300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4372000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -837,8 +843,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -890,8 +899,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,8 +923,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -964,8 +977,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1017,8 +1033,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1070,43 +1089,46 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E15" s="3">
         <v>-1100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-2200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-1100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-6600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-1100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-2200</v>
       </c>
       <c r="J15" s="3">
         <v>-2200</v>
       </c>
       <c r="K15" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="L15" s="3">
         <v>-2100</v>
       </c>
       <c r="M15" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N15" s="3">
         <v>-3100</v>
-      </c>
-      <c r="N15" s="3">
-        <v>-2000</v>
       </c>
       <c r="O15" s="3">
         <v>-2000</v>
@@ -1115,16 +1137,19 @@
         <v>-2000</v>
       </c>
       <c r="Q15" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="R15" s="3">
         <v>-3100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-1000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1166,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2549300</v>
+        <v>2149100</v>
       </c>
       <c r="E17" s="3">
-        <v>3665900</v>
+        <v>2560600</v>
       </c>
       <c r="F17" s="3">
-        <v>3114200</v>
+        <v>3682100</v>
       </c>
       <c r="G17" s="3">
-        <v>3985200</v>
+        <v>3128000</v>
       </c>
       <c r="H17" s="3">
-        <v>4049100</v>
+        <v>4002900</v>
       </c>
       <c r="I17" s="3">
-        <v>3707700</v>
+        <v>4067000</v>
       </c>
       <c r="J17" s="3">
+        <v>3724100</v>
+      </c>
+      <c r="K17" s="3">
         <v>3480900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3322600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3663800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2990600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2629800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2695100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2960300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2549500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2343400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2430400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1402900</v>
+        <v>1440100</v>
       </c>
       <c r="E18" s="3">
-        <v>1063800</v>
+        <v>1409100</v>
       </c>
       <c r="F18" s="3">
-        <v>1713500</v>
+        <v>1068500</v>
       </c>
       <c r="G18" s="3">
-        <v>1883100</v>
+        <v>1721000</v>
       </c>
       <c r="H18" s="3">
-        <v>2176000</v>
+        <v>1891400</v>
       </c>
       <c r="I18" s="3">
-        <v>1597800</v>
+        <v>2185600</v>
       </c>
       <c r="J18" s="3">
+        <v>1604900</v>
+      </c>
+      <c r="K18" s="3">
         <v>2591100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1404100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1559900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1577400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1528900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1597200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1662500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1636100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1601900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1941600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1268,114 +1300,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>305000</v>
+        <v>-551900</v>
       </c>
       <c r="E20" s="3">
-        <v>258800</v>
+        <v>306400</v>
       </c>
       <c r="F20" s="3">
-        <v>-376600</v>
+        <v>259900</v>
       </c>
       <c r="G20" s="3">
-        <v>-625500</v>
+        <v>-378300</v>
       </c>
       <c r="H20" s="3">
-        <v>-742200</v>
+        <v>-628200</v>
       </c>
       <c r="I20" s="3">
-        <v>-428400</v>
+        <v>-745500</v>
       </c>
       <c r="J20" s="3">
+        <v>-430300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1935900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-708300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-480300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-495700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1387200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1195400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1077800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-942300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3883200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1711700</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2086800</v>
+        <v>1264200</v>
       </c>
       <c r="E21" s="3">
-        <v>1670500</v>
+        <v>2096000</v>
       </c>
       <c r="F21" s="3">
-        <v>1968900</v>
+        <v>1677900</v>
       </c>
       <c r="G21" s="3">
-        <v>1517500</v>
+        <v>1977700</v>
       </c>
       <c r="H21" s="3">
-        <v>1685900</v>
+        <v>1524200</v>
       </c>
       <c r="I21" s="3">
-        <v>1429400</v>
+        <v>1693400</v>
       </c>
       <c r="J21" s="3">
+        <v>1435700</v>
+      </c>
+      <c r="K21" s="3">
         <v>953600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>954100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1293100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1295200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>385700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>617800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>802600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>920600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2041000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1427,114 +1466,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1708000</v>
+        <v>888200</v>
       </c>
       <c r="E23" s="3">
-        <v>1322500</v>
+        <v>1715500</v>
       </c>
       <c r="F23" s="3">
-        <v>1336900</v>
+        <v>1328400</v>
       </c>
       <c r="G23" s="3">
-        <v>1257600</v>
+        <v>1342800</v>
       </c>
       <c r="H23" s="3">
-        <v>1433800</v>
+        <v>1263100</v>
       </c>
       <c r="I23" s="3">
-        <v>1169500</v>
+        <v>1440100</v>
       </c>
       <c r="J23" s="3">
+        <v>1174600</v>
+      </c>
+      <c r="K23" s="3">
         <v>655200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>695800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1079600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1081700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>141600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>401800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>584600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>693800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2281300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>430600</v>
+        <v>285400</v>
       </c>
       <c r="E24" s="3">
-        <v>-121100</v>
+        <v>432500</v>
       </c>
       <c r="F24" s="3">
-        <v>397500</v>
+        <v>-121700</v>
       </c>
       <c r="G24" s="3">
-        <v>281900</v>
+        <v>399300</v>
       </c>
       <c r="H24" s="3">
-        <v>401900</v>
+        <v>283200</v>
       </c>
       <c r="I24" s="3">
-        <v>344700</v>
+        <v>403700</v>
       </c>
       <c r="J24" s="3">
+        <v>346200</v>
+      </c>
+      <c r="K24" s="3">
         <v>374400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>270700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>408500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>371500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-66300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>153700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>277200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>80800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>428700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,114 +1634,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1277400</v>
+        <v>602800</v>
       </c>
       <c r="E26" s="3">
-        <v>1443700</v>
+        <v>1283000</v>
       </c>
       <c r="F26" s="3">
-        <v>939300</v>
+        <v>1450100</v>
       </c>
       <c r="G26" s="3">
-        <v>975700</v>
+        <v>943500</v>
       </c>
       <c r="H26" s="3">
-        <v>1031800</v>
+        <v>980000</v>
       </c>
       <c r="I26" s="3">
-        <v>824800</v>
+        <v>1036400</v>
       </c>
       <c r="J26" s="3">
+        <v>828400</v>
+      </c>
+      <c r="K26" s="3">
         <v>280800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>425200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>671200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>710200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>207900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>248100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>307400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>613000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2710000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1279600</v>
+        <v>603900</v>
       </c>
       <c r="E27" s="3">
-        <v>1447000</v>
+        <v>1285300</v>
       </c>
       <c r="F27" s="3">
-        <v>938200</v>
+        <v>1453400</v>
       </c>
       <c r="G27" s="3">
-        <v>970200</v>
+        <v>942400</v>
       </c>
       <c r="H27" s="3">
-        <v>1031800</v>
+        <v>974400</v>
       </c>
       <c r="I27" s="3">
-        <v>824800</v>
+        <v>1036400</v>
       </c>
       <c r="J27" s="3">
+        <v>828400</v>
+      </c>
+      <c r="K27" s="3">
         <v>285200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>439700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>664000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>712200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>174800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>245100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>304400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>617200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2712000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1802,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1780,26 +1840,29 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-2310400</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1914,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,114 +1970,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-305000</v>
+        <v>551900</v>
       </c>
       <c r="E32" s="3">
-        <v>-258800</v>
+        <v>-306400</v>
       </c>
       <c r="F32" s="3">
-        <v>376600</v>
+        <v>-259900</v>
       </c>
       <c r="G32" s="3">
-        <v>625500</v>
+        <v>378300</v>
       </c>
       <c r="H32" s="3">
-        <v>742200</v>
+        <v>628200</v>
       </c>
       <c r="I32" s="3">
-        <v>428400</v>
+        <v>745500</v>
       </c>
       <c r="J32" s="3">
+        <v>430300</v>
+      </c>
+      <c r="K32" s="3">
         <v>1935900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>708300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>480300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>495700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1387200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1195400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1077800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>942300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3883200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1711700</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1279600</v>
+        <v>603900</v>
       </c>
       <c r="E33" s="3">
-        <v>1447000</v>
+        <v>1285300</v>
       </c>
       <c r="F33" s="3">
-        <v>938200</v>
+        <v>1453400</v>
       </c>
       <c r="G33" s="3">
-        <v>970200</v>
+        <v>942400</v>
       </c>
       <c r="H33" s="3">
-        <v>1031800</v>
+        <v>974400</v>
       </c>
       <c r="I33" s="3">
-        <v>824800</v>
+        <v>1036400</v>
       </c>
       <c r="J33" s="3">
+        <v>828400</v>
+      </c>
+      <c r="K33" s="3">
         <v>285200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>439700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>664000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>712200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2135600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>245100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>304400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>617200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2712000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2138,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1279600</v>
+        <v>603900</v>
       </c>
       <c r="E35" s="3">
-        <v>1447000</v>
+        <v>1285300</v>
       </c>
       <c r="F35" s="3">
-        <v>938200</v>
+        <v>1453400</v>
       </c>
       <c r="G35" s="3">
-        <v>970200</v>
+        <v>942400</v>
       </c>
       <c r="H35" s="3">
-        <v>1031800</v>
+        <v>974400</v>
       </c>
       <c r="I35" s="3">
-        <v>824800</v>
+        <v>1036400</v>
       </c>
       <c r="J35" s="3">
+        <v>828400</v>
+      </c>
+      <c r="K35" s="3">
         <v>285200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>439700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>664000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>712200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2135600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>245100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>304400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>617200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2712000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2279,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,114 +2301,121 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>145435500</v>
+        <v>152439700</v>
       </c>
       <c r="E41" s="3">
-        <v>131232200</v>
+        <v>146078700</v>
       </c>
       <c r="F41" s="3">
-        <v>112189200</v>
+        <v>131812600</v>
       </c>
       <c r="G41" s="3">
-        <v>105432200</v>
+        <v>112685300</v>
       </c>
       <c r="H41" s="3">
-        <v>101848900</v>
+        <v>105898500</v>
       </c>
       <c r="I41" s="3">
-        <v>104351900</v>
+        <v>102299300</v>
       </c>
       <c r="J41" s="3">
+        <v>104813400</v>
+      </c>
+      <c r="K41" s="3">
         <v>110171800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>98459900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>115468700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>121268200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>110311400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>106257100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>110830700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>105473900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>125464600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>108700600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>303078900</v>
+        <v>296527400</v>
       </c>
       <c r="E42" s="3">
-        <v>302400500</v>
+        <v>304419200</v>
       </c>
       <c r="F42" s="3">
-        <v>298190600</v>
+        <v>303737900</v>
       </c>
       <c r="G42" s="3">
-        <v>308252300</v>
+        <v>299509400</v>
       </c>
       <c r="H42" s="3">
-        <v>295879200</v>
+        <v>309615500</v>
       </c>
       <c r="I42" s="3">
-        <v>297495800</v>
+        <v>297187700</v>
       </c>
       <c r="J42" s="3">
+        <v>298811400</v>
+      </c>
+      <c r="K42" s="3">
         <v>286736000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>264012800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>272227400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>278622000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>285284700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>297761800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>285608100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>324448100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>325650300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>323868200</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2375,8 +2467,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2428,8 +2523,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2481,8 +2579,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2534,52 +2635,55 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1619900</v>
+        <v>1506500</v>
       </c>
       <c r="E47" s="3">
-        <v>1580200</v>
+        <v>1627000</v>
       </c>
       <c r="F47" s="3">
-        <v>1554900</v>
+        <v>1587200</v>
       </c>
       <c r="G47" s="3">
-        <v>2635200</v>
+        <v>1561800</v>
       </c>
       <c r="H47" s="3">
-        <v>2634100</v>
+        <v>2646800</v>
       </c>
       <c r="I47" s="3">
-        <v>2718900</v>
+        <v>2645700</v>
       </c>
       <c r="J47" s="3">
+        <v>2730900</v>
+      </c>
+      <c r="K47" s="3">
         <v>2716700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2579100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3067500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3015200</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2587,114 +2691,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8424200</v>
+        <v>8327600</v>
       </c>
       <c r="E48" s="3">
-        <v>8512300</v>
+        <v>8461400</v>
       </c>
       <c r="F48" s="3">
-        <v>8624600</v>
+        <v>8549900</v>
       </c>
       <c r="G48" s="3">
-        <v>8594900</v>
+        <v>8662700</v>
       </c>
       <c r="H48" s="3">
-        <v>8520000</v>
+        <v>8632900</v>
       </c>
       <c r="I48" s="3">
-        <v>8896600</v>
+        <v>8557700</v>
       </c>
       <c r="J48" s="3">
+        <v>8935900</v>
+      </c>
+      <c r="K48" s="3">
         <v>5327600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5003600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4957900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4799900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4707200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4611800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4545500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4832800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4878300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4804800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5449800</v>
+        <v>5345600</v>
       </c>
       <c r="E49" s="3">
-        <v>5377200</v>
+        <v>5473900</v>
       </c>
       <c r="F49" s="3">
-        <v>5455300</v>
+        <v>5400900</v>
       </c>
       <c r="G49" s="3">
-        <v>5482900</v>
+        <v>5479500</v>
       </c>
       <c r="H49" s="3">
-        <v>5447600</v>
+        <v>5507100</v>
       </c>
       <c r="I49" s="3">
-        <v>5540100</v>
+        <v>5471700</v>
       </c>
       <c r="J49" s="3">
+        <v>5564600</v>
+      </c>
+      <c r="K49" s="3">
         <v>5489500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5133200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5140600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5007200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4987400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4956300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4890000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5211800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5308100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5091700</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2859,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,61 +2915,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16074200</v>
+        <v>15597800</v>
       </c>
       <c r="E52" s="3">
-        <v>18805200</v>
+        <v>16145300</v>
       </c>
       <c r="F52" s="3">
-        <v>18014500</v>
+        <v>18888400</v>
       </c>
       <c r="G52" s="3">
-        <v>18608100</v>
+        <v>18094200</v>
       </c>
       <c r="H52" s="3">
-        <v>16287800</v>
+        <v>18690400</v>
       </c>
       <c r="I52" s="3">
-        <v>16944200</v>
+        <v>16359900</v>
       </c>
       <c r="J52" s="3">
+        <v>17019100</v>
+      </c>
+      <c r="K52" s="3">
         <v>14982900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14439500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16334100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17028900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11088900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16777500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>19371200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>17695000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>16085800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>21881600</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3027,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>912322200</v>
+        <v>908410900</v>
       </c>
       <c r="E54" s="3">
-        <v>916381200</v>
+        <v>916356900</v>
       </c>
       <c r="F54" s="3">
-        <v>866969300</v>
+        <v>920433800</v>
       </c>
       <c r="G54" s="3">
-        <v>876467100</v>
+        <v>870803400</v>
       </c>
       <c r="H54" s="3">
-        <v>863578700</v>
+        <v>880343200</v>
       </c>
       <c r="I54" s="3">
-        <v>873952000</v>
+        <v>867397800</v>
       </c>
       <c r="J54" s="3">
+        <v>877817000</v>
+      </c>
+      <c r="K54" s="3">
         <v>846730300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>796995500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>819125600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>830305800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>799888200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>792254900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>786952000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>840820500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>848982500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>835365400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3107,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,61 +3129,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>40636500</v>
+        <v>37578700</v>
       </c>
       <c r="E57" s="3">
-        <v>54738400</v>
+        <v>40816200</v>
       </c>
       <c r="F57" s="3">
-        <v>33899300</v>
+        <v>54980500</v>
       </c>
       <c r="G57" s="3">
-        <v>42876300</v>
+        <v>34049300</v>
       </c>
       <c r="H57" s="3">
-        <v>44780300</v>
+        <v>43065900</v>
       </c>
       <c r="I57" s="3">
-        <v>47426500</v>
+        <v>44978300</v>
       </c>
       <c r="J57" s="3">
+        <v>47636200</v>
+      </c>
+      <c r="K57" s="3">
         <v>39733500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>46906500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>41249900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>44279400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>49115000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>37807100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>39269700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>48311200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>47521000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>49537200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3106,61 +3239,67 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3836600</v>
+        <v>3771700</v>
       </c>
       <c r="E59" s="3">
-        <v>4012800</v>
+        <v>3853500</v>
       </c>
       <c r="F59" s="3">
-        <v>4284800</v>
+        <v>4030500</v>
       </c>
       <c r="G59" s="3">
-        <v>4207700</v>
+        <v>4303700</v>
       </c>
       <c r="H59" s="3">
-        <v>4705400</v>
+        <v>4226300</v>
       </c>
       <c r="I59" s="3">
-        <v>4838700</v>
+        <v>4726200</v>
       </c>
       <c r="J59" s="3">
+        <v>4860100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1020800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>767400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>683500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>738900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>703200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>604700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>528400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>604700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>658600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>889500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3212,114 +3351,123 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>186571900</v>
+        <v>181833500</v>
       </c>
       <c r="E61" s="3">
-        <v>159589200</v>
+        <v>187397000</v>
       </c>
       <c r="F61" s="3">
-        <v>167387900</v>
+        <v>160295000</v>
       </c>
       <c r="G61" s="3">
-        <v>175217400</v>
+        <v>168128200</v>
       </c>
       <c r="H61" s="3">
-        <v>173940000</v>
+        <v>175992300</v>
       </c>
       <c r="I61" s="3">
-        <v>176479400</v>
+        <v>174709300</v>
       </c>
       <c r="J61" s="3">
+        <v>177259900</v>
+      </c>
+      <c r="K61" s="3">
         <v>169924000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>170161500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>170320800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>170531200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>173814100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>181108900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>177498700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>193974600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>200181500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>202397600</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2655000</v>
+        <v>2730900</v>
       </c>
       <c r="E62" s="3">
-        <v>2946800</v>
+        <v>2666700</v>
       </c>
       <c r="F62" s="3">
-        <v>2375300</v>
+        <v>2959800</v>
       </c>
       <c r="G62" s="3">
-        <v>2118700</v>
+        <v>2385800</v>
       </c>
       <c r="H62" s="3">
-        <v>2229900</v>
+        <v>2128100</v>
       </c>
       <c r="I62" s="3">
-        <v>2202400</v>
+        <v>2239800</v>
       </c>
       <c r="J62" s="3">
+        <v>2212100</v>
+      </c>
+      <c r="K62" s="3">
         <v>2074700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2102000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2181900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2039200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1407300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1256700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1190400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1612300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4355400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1895000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3519,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3424,8 +3575,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3631,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>861077800</v>
+        <v>857819200</v>
       </c>
       <c r="E66" s="3">
-        <v>862780300</v>
+        <v>864885900</v>
       </c>
       <c r="F66" s="3">
-        <v>818908500</v>
+        <v>866595900</v>
       </c>
       <c r="G66" s="3">
-        <v>826747900</v>
+        <v>822530100</v>
       </c>
       <c r="H66" s="3">
-        <v>815486000</v>
+        <v>830404200</v>
       </c>
       <c r="I66" s="3">
-        <v>825691900</v>
+        <v>819092400</v>
       </c>
       <c r="J66" s="3">
+        <v>829343500</v>
+      </c>
+      <c r="K66" s="3">
         <v>798363400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>752679500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>774513700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>786648300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>757796800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>748198600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>743262400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>797637200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>805597300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>789516700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3711,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3765,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,8 +3821,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3710,8 +3877,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,61 +3933,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>36128200</v>
+        <v>36891900</v>
       </c>
       <c r="E72" s="3">
-        <v>35035800</v>
+        <v>36287900</v>
       </c>
       <c r="F72" s="3">
-        <v>33734200</v>
+        <v>35190700</v>
       </c>
       <c r="G72" s="3">
-        <v>32795900</v>
+        <v>33883300</v>
       </c>
       <c r="H72" s="3">
-        <v>31825800</v>
+        <v>32941000</v>
       </c>
       <c r="I72" s="3">
-        <v>30794000</v>
+        <v>31966500</v>
       </c>
       <c r="J72" s="3">
+        <v>30930100</v>
+      </c>
+      <c r="K72" s="3">
         <v>29702700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>27703000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>26980600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>26316600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>25085900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>27221500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>26976400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>27495100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>26875900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>29587900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4045,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4101,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4157,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>51244300</v>
+        <v>50591600</v>
       </c>
       <c r="E76" s="3">
-        <v>53600900</v>
+        <v>51471000</v>
       </c>
       <c r="F76" s="3">
-        <v>48060800</v>
+        <v>53838000</v>
       </c>
       <c r="G76" s="3">
-        <v>49719200</v>
+        <v>48273300</v>
       </c>
       <c r="H76" s="3">
-        <v>48092700</v>
+        <v>49939100</v>
       </c>
       <c r="I76" s="3">
-        <v>48260100</v>
+        <v>48305400</v>
       </c>
       <c r="J76" s="3">
+        <v>48473500</v>
+      </c>
+      <c r="K76" s="3">
         <v>48366900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>44316000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>44612000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>43657500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>42091400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>44056200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>43689600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>43183300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>43385200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>45848700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4269,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1279600</v>
+        <v>603900</v>
       </c>
       <c r="E81" s="3">
-        <v>1447000</v>
+        <v>1285300</v>
       </c>
       <c r="F81" s="3">
-        <v>938200</v>
+        <v>1453400</v>
       </c>
       <c r="G81" s="3">
-        <v>970200</v>
+        <v>942400</v>
       </c>
       <c r="H81" s="3">
-        <v>1031800</v>
+        <v>974400</v>
       </c>
       <c r="I81" s="3">
-        <v>824800</v>
+        <v>1036400</v>
       </c>
       <c r="J81" s="3">
+        <v>828400</v>
+      </c>
+      <c r="K81" s="3">
         <v>285200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>439700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>664000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>712200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2135600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>245100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>304400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>617200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2712000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,61 +4410,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>378800</v>
+        <v>376100</v>
       </c>
       <c r="E83" s="3">
-        <v>348000</v>
+        <v>380500</v>
       </c>
       <c r="F83" s="3">
-        <v>632100</v>
+        <v>349500</v>
       </c>
       <c r="G83" s="3">
-        <v>259900</v>
+        <v>634900</v>
       </c>
       <c r="H83" s="3">
-        <v>252200</v>
+        <v>261000</v>
       </c>
       <c r="I83" s="3">
-        <v>259900</v>
+        <v>253300</v>
       </c>
       <c r="J83" s="3">
+        <v>261000</v>
+      </c>
+      <c r="K83" s="3">
         <v>298400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>258200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>213500</v>
       </c>
       <c r="M83" s="3">
         <v>213500</v>
       </c>
       <c r="N83" s="3">
+        <v>213500</v>
+      </c>
+      <c r="O83" s="3">
         <v>244100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>216000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>218000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>226800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>240200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>242300</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4520,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4576,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4632,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4688,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4744,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7285500</v>
+        <v>2832600</v>
       </c>
       <c r="E89" s="3">
-        <v>-10099100</v>
+        <v>7317800</v>
       </c>
       <c r="F89" s="3">
-        <v>-7320800</v>
+        <v>-10143800</v>
       </c>
       <c r="G89" s="3">
-        <v>-9157600</v>
+        <v>-7353200</v>
       </c>
       <c r="H89" s="3">
-        <v>4669100</v>
+        <v>-9198100</v>
       </c>
       <c r="I89" s="3">
-        <v>-8479200</v>
+        <v>4689700</v>
       </c>
       <c r="J89" s="3">
+        <v>-8516700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-10878800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11184300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9858300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2307100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-13452500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7114000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4884000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7346000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>24547000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-7004300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,61 +4824,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-322700</v>
+        <v>-327400</v>
       </c>
       <c r="E91" s="3">
-        <v>-286300</v>
+        <v>-324100</v>
       </c>
       <c r="F91" s="3">
-        <v>-481200</v>
+        <v>-287600</v>
       </c>
       <c r="G91" s="3">
-        <v>-332600</v>
+        <v>-483400</v>
       </c>
       <c r="H91" s="3">
-        <v>-322700</v>
+        <v>-334000</v>
       </c>
       <c r="I91" s="3">
-        <v>-287400</v>
+        <v>-324100</v>
       </c>
       <c r="J91" s="3">
+        <v>-288700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-233500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-367100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-294500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-248400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-323500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-274200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-257200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-224700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-304400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-298200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +4934,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +4990,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>11198100</v>
+        <v>6625400</v>
       </c>
       <c r="E94" s="3">
-        <v>-12625300</v>
+        <v>11247600</v>
       </c>
       <c r="F94" s="3">
-        <v>3203400</v>
+        <v>-12681100</v>
       </c>
       <c r="G94" s="3">
-        <v>-239000</v>
+        <v>3217600</v>
       </c>
       <c r="H94" s="3">
-        <v>-2123100</v>
+        <v>-240000</v>
       </c>
       <c r="I94" s="3">
-        <v>-2301500</v>
+        <v>-2132500</v>
       </c>
       <c r="J94" s="3">
+        <v>-2311700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-493300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>824400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4866600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12808900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>23224500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8396800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3455500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7649400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-14118300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>6844800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,16 +5070,17 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-394200</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-396000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -4856,43 +5089,46 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-765300</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-1100</v>
+        <v>-768700</v>
       </c>
       <c r="J96" s="3">
         <v>-1100</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-679400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3100</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-1000</v>
       </c>
       <c r="O96" s="3">
         <v>-1000</v>
       </c>
       <c r="P96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-588600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-2100</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5180,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5236,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,163 +5292,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3990700</v>
+        <v>-2278500</v>
       </c>
       <c r="E100" s="3">
-        <v>42406100</v>
+        <v>-4008400</v>
       </c>
       <c r="F100" s="3">
-        <v>11755300</v>
+        <v>42593600</v>
       </c>
       <c r="G100" s="3">
-        <v>12605400</v>
+        <v>11807300</v>
       </c>
       <c r="H100" s="3">
-        <v>-4216500</v>
+        <v>12661200</v>
       </c>
       <c r="I100" s="3">
-        <v>4290300</v>
+        <v>-4235100</v>
       </c>
       <c r="J100" s="3">
+        <v>4309200</v>
+      </c>
+      <c r="K100" s="3">
         <v>16266900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-29249100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-21541400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>19783400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5639400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4152700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1032600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4215600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4487900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-9169500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-289600</v>
+        <v>-818500</v>
       </c>
       <c r="E101" s="3">
-        <v>-638700</v>
+        <v>-290900</v>
       </c>
       <c r="F101" s="3">
-        <v>-881000</v>
+        <v>-641500</v>
       </c>
       <c r="G101" s="3">
-        <v>374400</v>
+        <v>-884900</v>
       </c>
       <c r="H101" s="3">
-        <v>-832500</v>
+        <v>376100</v>
       </c>
       <c r="I101" s="3">
-        <v>670600</v>
+        <v>-836200</v>
       </c>
       <c r="J101" s="3">
+        <v>673600</v>
+      </c>
+      <c r="K101" s="3">
         <v>481200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-937500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1076600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-587000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-78400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>861900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-857900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-779700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1847400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-70400</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>14203300</v>
+        <v>6361000</v>
       </c>
       <c r="E102" s="3">
-        <v>19043100</v>
+        <v>14266100</v>
       </c>
       <c r="F102" s="3">
-        <v>6757000</v>
+        <v>19127300</v>
       </c>
       <c r="G102" s="3">
-        <v>3583300</v>
+        <v>6786800</v>
       </c>
       <c r="H102" s="3">
-        <v>-2503000</v>
+        <v>3599200</v>
       </c>
       <c r="I102" s="3">
-        <v>-5819800</v>
+        <v>-2514100</v>
       </c>
       <c r="J102" s="3">
+        <v>-5845600</v>
+      </c>
+      <c r="K102" s="3">
         <v>5618300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-18218400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5799500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>8568300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4054200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4573600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>8514300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-19990700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>16764000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-9399400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>CS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,133 +665,139 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3589200</v>
+        <v>2968100</v>
       </c>
       <c r="E8" s="3">
-        <v>3969700</v>
+        <v>3452100</v>
       </c>
       <c r="F8" s="3">
-        <v>4750600</v>
+        <v>3818100</v>
       </c>
       <c r="G8" s="3">
-        <v>4849000</v>
+        <v>4569100</v>
       </c>
       <c r="H8" s="3">
-        <v>5894200</v>
+        <v>4663800</v>
       </c>
       <c r="I8" s="3">
-        <v>6252600</v>
+        <v>5669200</v>
       </c>
       <c r="J8" s="3">
+        <v>6013800</v>
+      </c>
+      <c r="K8" s="3">
         <v>5329000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6072000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4726700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5223700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4567900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4158700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4292300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4622800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4185600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3945300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4372000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -846,8 +852,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,8 +936,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -980,8 +993,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1036,8 +1052,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1092,46 +1111,49 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-2200</v>
+        <v>-3200</v>
       </c>
       <c r="E15" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F15" s="3">
         <v>-1100</v>
       </c>
-      <c r="F15" s="3">
-        <v>-2200</v>
-      </c>
       <c r="G15" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H15" s="3">
         <v>-1100</v>
       </c>
-      <c r="H15" s="3">
-        <v>-6600</v>
-      </c>
       <c r="I15" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="J15" s="3">
         <v>-1100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-2200</v>
       </c>
       <c r="K15" s="3">
         <v>-2200</v>
       </c>
       <c r="L15" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="M15" s="3">
         <v>-2100</v>
       </c>
       <c r="N15" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="O15" s="3">
         <v>-3100</v>
-      </c>
-      <c r="O15" s="3">
-        <v>-2000</v>
       </c>
       <c r="P15" s="3">
         <v>-2000</v>
@@ -1140,16 +1162,19 @@
         <v>-2000</v>
       </c>
       <c r="R15" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="S15" s="3">
         <v>-3100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-1000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1167,120 +1192,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2149100</v>
+        <v>1574500</v>
       </c>
       <c r="E17" s="3">
-        <v>2560600</v>
+        <v>2067000</v>
       </c>
       <c r="F17" s="3">
-        <v>3682100</v>
+        <v>2462800</v>
       </c>
       <c r="G17" s="3">
-        <v>3128000</v>
+        <v>3541500</v>
       </c>
       <c r="H17" s="3">
-        <v>4002900</v>
+        <v>3008500</v>
       </c>
       <c r="I17" s="3">
-        <v>4067000</v>
+        <v>3850000</v>
       </c>
       <c r="J17" s="3">
+        <v>3911700</v>
+      </c>
+      <c r="K17" s="3">
         <v>3724100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3480900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3322600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3663800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2990600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2629800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2695100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2960300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2549500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2343400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2430400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1440100</v>
+        <v>1393600</v>
       </c>
       <c r="E18" s="3">
-        <v>1409100</v>
+        <v>1385100</v>
       </c>
       <c r="F18" s="3">
-        <v>1068500</v>
+        <v>1355300</v>
       </c>
       <c r="G18" s="3">
-        <v>1721000</v>
+        <v>1027700</v>
       </c>
       <c r="H18" s="3">
-        <v>1891400</v>
+        <v>1655300</v>
       </c>
       <c r="I18" s="3">
-        <v>2185600</v>
+        <v>1819100</v>
       </c>
       <c r="J18" s="3">
+        <v>2102100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1604900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2591100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1404100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1559900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1577400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1528900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1597200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1662500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1636100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1601900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1941600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1301,120 +1333,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-551900</v>
+        <v>-1487200</v>
       </c>
       <c r="E20" s="3">
-        <v>306400</v>
+        <v>-530900</v>
       </c>
       <c r="F20" s="3">
-        <v>259900</v>
+        <v>294700</v>
       </c>
       <c r="G20" s="3">
-        <v>-378300</v>
+        <v>250000</v>
       </c>
       <c r="H20" s="3">
-        <v>-628200</v>
+        <v>-363800</v>
       </c>
       <c r="I20" s="3">
-        <v>-745500</v>
+        <v>-604300</v>
       </c>
       <c r="J20" s="3">
+        <v>-717000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-430300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1935900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-708300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-480300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-495700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1387200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1195400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1077800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-942300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3883200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1711700</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1264200</v>
+        <v>285100</v>
       </c>
       <c r="E21" s="3">
-        <v>2096000</v>
+        <v>1216000</v>
       </c>
       <c r="F21" s="3">
-        <v>1677900</v>
+        <v>2016000</v>
       </c>
       <c r="G21" s="3">
-        <v>1977700</v>
+        <v>1613800</v>
       </c>
       <c r="H21" s="3">
-        <v>1524200</v>
+        <v>1902100</v>
       </c>
       <c r="I21" s="3">
-        <v>1693400</v>
+        <v>1466000</v>
       </c>
       <c r="J21" s="3">
+        <v>1628700</v>
+      </c>
+      <c r="K21" s="3">
         <v>1435700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>953600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>954100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1293100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1295200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>385700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>617800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>802600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>920600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2041000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1469,120 +1508,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>888200</v>
+        <v>-93600</v>
       </c>
       <c r="E23" s="3">
-        <v>1715500</v>
+        <v>854300</v>
       </c>
       <c r="F23" s="3">
-        <v>1328400</v>
+        <v>1650000</v>
       </c>
       <c r="G23" s="3">
-        <v>1342800</v>
+        <v>1277700</v>
       </c>
       <c r="H23" s="3">
-        <v>1263100</v>
+        <v>1291500</v>
       </c>
       <c r="I23" s="3">
-        <v>1440100</v>
+        <v>1214900</v>
       </c>
       <c r="J23" s="3">
+        <v>1385100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1174600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>655200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>695800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1079600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1081700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>141600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>401800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>584600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>693800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2281300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>285400</v>
+        <v>278700</v>
       </c>
       <c r="E24" s="3">
-        <v>432500</v>
+        <v>274500</v>
       </c>
       <c r="F24" s="3">
-        <v>-121700</v>
+        <v>416000</v>
       </c>
       <c r="G24" s="3">
-        <v>399300</v>
+        <v>-117000</v>
       </c>
       <c r="H24" s="3">
-        <v>283200</v>
+        <v>384000</v>
       </c>
       <c r="I24" s="3">
-        <v>403700</v>
+        <v>272300</v>
       </c>
       <c r="J24" s="3">
+        <v>388300</v>
+      </c>
+      <c r="K24" s="3">
         <v>346200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>374400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>270700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>408500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>371500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-66300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>153700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>277200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>80800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>428700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1637,120 +1685,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>602800</v>
+        <v>-372300</v>
       </c>
       <c r="E26" s="3">
-        <v>1283000</v>
+        <v>579800</v>
       </c>
       <c r="F26" s="3">
-        <v>1450100</v>
+        <v>1234000</v>
       </c>
       <c r="G26" s="3">
-        <v>943500</v>
+        <v>1394700</v>
       </c>
       <c r="H26" s="3">
-        <v>980000</v>
+        <v>907400</v>
       </c>
       <c r="I26" s="3">
-        <v>1036400</v>
+        <v>942600</v>
       </c>
       <c r="J26" s="3">
+        <v>996800</v>
+      </c>
+      <c r="K26" s="3">
         <v>828400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>280800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>425200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>671200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>710200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>207900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>248100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>307400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>613000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2710000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>603900</v>
+        <v>-375500</v>
       </c>
       <c r="E27" s="3">
-        <v>1285300</v>
+        <v>580900</v>
       </c>
       <c r="F27" s="3">
-        <v>1453400</v>
+        <v>1236200</v>
       </c>
       <c r="G27" s="3">
-        <v>942400</v>
+        <v>1397900</v>
       </c>
       <c r="H27" s="3">
-        <v>974400</v>
+        <v>906400</v>
       </c>
       <c r="I27" s="3">
-        <v>1036400</v>
+        <v>937200</v>
       </c>
       <c r="J27" s="3">
+        <v>996800</v>
+      </c>
+      <c r="K27" s="3">
         <v>828400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>285200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>439700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>664000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>712200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>174800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>245100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>304400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>617200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2712000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1805,8 +1862,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1843,26 +1903,29 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-2310400</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1917,8 +1980,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1973,120 +2039,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>551900</v>
+        <v>1487200</v>
       </c>
       <c r="E32" s="3">
-        <v>-306400</v>
+        <v>530900</v>
       </c>
       <c r="F32" s="3">
-        <v>-259900</v>
+        <v>-294700</v>
       </c>
       <c r="G32" s="3">
-        <v>378300</v>
+        <v>-250000</v>
       </c>
       <c r="H32" s="3">
-        <v>628200</v>
+        <v>363800</v>
       </c>
       <c r="I32" s="3">
-        <v>745500</v>
+        <v>604300</v>
       </c>
       <c r="J32" s="3">
+        <v>717000</v>
+      </c>
+      <c r="K32" s="3">
         <v>430300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1935900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>708300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>480300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>495700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1387200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1195400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1077800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>942300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3883200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1711700</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>603900</v>
+        <v>-375500</v>
       </c>
       <c r="E33" s="3">
-        <v>1285300</v>
+        <v>580900</v>
       </c>
       <c r="F33" s="3">
-        <v>1453400</v>
+        <v>1236200</v>
       </c>
       <c r="G33" s="3">
-        <v>942400</v>
+        <v>1397900</v>
       </c>
       <c r="H33" s="3">
-        <v>974400</v>
+        <v>906400</v>
       </c>
       <c r="I33" s="3">
-        <v>1036400</v>
+        <v>937200</v>
       </c>
       <c r="J33" s="3">
+        <v>996800</v>
+      </c>
+      <c r="K33" s="3">
         <v>828400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>285200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>439700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>664000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>712200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2135600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>245100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>304400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>617200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2712000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2141,125 +2216,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>603900</v>
+        <v>-375500</v>
       </c>
       <c r="E35" s="3">
-        <v>1285300</v>
+        <v>580900</v>
       </c>
       <c r="F35" s="3">
-        <v>1453400</v>
+        <v>1236200</v>
       </c>
       <c r="G35" s="3">
-        <v>942400</v>
+        <v>1397900</v>
       </c>
       <c r="H35" s="3">
-        <v>974400</v>
+        <v>906400</v>
       </c>
       <c r="I35" s="3">
-        <v>1036400</v>
+        <v>937200</v>
       </c>
       <c r="J35" s="3">
+        <v>996800</v>
+      </c>
+      <c r="K35" s="3">
         <v>828400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>285200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>439700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>664000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>712200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2135600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>245100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>304400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>617200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2712000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2280,8 +2364,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2302,120 +2387,127 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>152439700</v>
+        <v>147991500</v>
       </c>
       <c r="E41" s="3">
-        <v>146078700</v>
+        <v>146618100</v>
       </c>
       <c r="F41" s="3">
-        <v>131812600</v>
+        <v>140500000</v>
       </c>
       <c r="G41" s="3">
-        <v>112685300</v>
+        <v>126778700</v>
       </c>
       <c r="H41" s="3">
-        <v>105898500</v>
+        <v>108381900</v>
       </c>
       <c r="I41" s="3">
-        <v>102299300</v>
+        <v>101854300</v>
       </c>
       <c r="J41" s="3">
+        <v>98392600</v>
+      </c>
+      <c r="K41" s="3">
         <v>104813400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>110171800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>98459900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>115468700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>121268200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>110311400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>106257100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>110830700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>105473900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>125464600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>108700600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>296527400</v>
+        <v>266283000</v>
       </c>
       <c r="E42" s="3">
-        <v>304419200</v>
+        <v>285203200</v>
       </c>
       <c r="F42" s="3">
-        <v>303737900</v>
+        <v>292793700</v>
       </c>
       <c r="G42" s="3">
-        <v>299509400</v>
+        <v>292138400</v>
       </c>
       <c r="H42" s="3">
-        <v>309615500</v>
+        <v>288071300</v>
       </c>
       <c r="I42" s="3">
-        <v>297187700</v>
+        <v>297791500</v>
       </c>
       <c r="J42" s="3">
+        <v>285838400</v>
+      </c>
+      <c r="K42" s="3">
         <v>298811400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>286736000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>264012800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>272227400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>278622000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>285284700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>297761800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>285608100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>324448100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>325650300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>323868200</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2470,8 +2562,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2526,8 +2621,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2582,8 +2680,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2638,55 +2739,58 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1506500</v>
+        <v>1330900</v>
       </c>
       <c r="E47" s="3">
-        <v>1627000</v>
+        <v>1448900</v>
       </c>
       <c r="F47" s="3">
-        <v>1587200</v>
+        <v>1564900</v>
       </c>
       <c r="G47" s="3">
-        <v>1561800</v>
+        <v>1526600</v>
       </c>
       <c r="H47" s="3">
-        <v>2646800</v>
+        <v>1502100</v>
       </c>
       <c r="I47" s="3">
-        <v>2645700</v>
+        <v>2545700</v>
       </c>
       <c r="J47" s="3">
+        <v>2544700</v>
+      </c>
+      <c r="K47" s="3">
         <v>2730900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2716700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2579100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3067500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3015200</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2694,120 +2798,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8327600</v>
+        <v>7846800</v>
       </c>
       <c r="E48" s="3">
-        <v>8461400</v>
+        <v>8009600</v>
       </c>
       <c r="F48" s="3">
-        <v>8549900</v>
+        <v>8138300</v>
       </c>
       <c r="G48" s="3">
-        <v>8662700</v>
+        <v>8223400</v>
       </c>
       <c r="H48" s="3">
-        <v>8632900</v>
+        <v>8331900</v>
       </c>
       <c r="I48" s="3">
-        <v>8557700</v>
+        <v>8303200</v>
       </c>
       <c r="J48" s="3">
+        <v>8230900</v>
+      </c>
+      <c r="K48" s="3">
         <v>8935900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5327600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5003600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4957900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4799900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4707200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4611800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4545500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4832800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4878300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4804800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5345600</v>
+        <v>4960600</v>
       </c>
       <c r="E49" s="3">
-        <v>5473900</v>
+        <v>5141500</v>
       </c>
       <c r="F49" s="3">
-        <v>5400900</v>
+        <v>5264900</v>
       </c>
       <c r="G49" s="3">
-        <v>5479500</v>
+        <v>5194700</v>
       </c>
       <c r="H49" s="3">
-        <v>5507100</v>
+        <v>5270200</v>
       </c>
       <c r="I49" s="3">
-        <v>5471700</v>
+        <v>5296800</v>
       </c>
       <c r="J49" s="3">
+        <v>5262800</v>
+      </c>
+      <c r="K49" s="3">
         <v>5564600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5489500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5133200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5140600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5007200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4987400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4956300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4890000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5211800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5308100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5091700</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2862,8 +2975,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2918,64 +3034,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15597800</v>
+        <v>14593600</v>
       </c>
       <c r="E52" s="3">
-        <v>16145300</v>
+        <v>15002100</v>
       </c>
       <c r="F52" s="3">
-        <v>18888400</v>
+        <v>15528700</v>
       </c>
       <c r="G52" s="3">
-        <v>18094200</v>
+        <v>18167000</v>
       </c>
       <c r="H52" s="3">
-        <v>18690400</v>
+        <v>17403200</v>
       </c>
       <c r="I52" s="3">
-        <v>16359900</v>
+        <v>17976600</v>
       </c>
       <c r="J52" s="3">
+        <v>15735100</v>
+      </c>
+      <c r="K52" s="3">
         <v>17019100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14982900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14439500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16334100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17028900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11088900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>16777500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>19371200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>17695000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>16085800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>21881600</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3030,64 +3152,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>908410900</v>
+        <v>857257600</v>
       </c>
       <c r="E54" s="3">
-        <v>916356900</v>
+        <v>873719300</v>
       </c>
       <c r="F54" s="3">
-        <v>920433800</v>
+        <v>881361900</v>
       </c>
       <c r="G54" s="3">
-        <v>870803400</v>
+        <v>885283200</v>
       </c>
       <c r="H54" s="3">
-        <v>880343200</v>
+        <v>837548000</v>
       </c>
       <c r="I54" s="3">
-        <v>867397800</v>
+        <v>846723600</v>
       </c>
       <c r="J54" s="3">
+        <v>834272500</v>
+      </c>
+      <c r="K54" s="3">
         <v>877817000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>846730300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>796995500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>819125600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>830305800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>799888200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>792254900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>786952000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>840820500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>848982500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>835365400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3108,8 +3236,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3130,64 +3259,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>37578700</v>
+        <v>27606400</v>
       </c>
       <c r="E57" s="3">
-        <v>40816200</v>
+        <v>36143600</v>
       </c>
       <c r="F57" s="3">
-        <v>54980500</v>
+        <v>39257500</v>
       </c>
       <c r="G57" s="3">
-        <v>34049300</v>
+        <v>52880900</v>
       </c>
       <c r="H57" s="3">
-        <v>43065900</v>
+        <v>32748900</v>
       </c>
       <c r="I57" s="3">
-        <v>44978300</v>
+        <v>41421300</v>
       </c>
       <c r="J57" s="3">
+        <v>43260600</v>
+      </c>
+      <c r="K57" s="3">
         <v>47636200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>39733500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>46906500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>41249900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>44279400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>49115000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>37807100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>39269700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>48311200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>47521000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>49537200</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3242,64 +3375,70 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3771700</v>
+        <v>3525500</v>
       </c>
       <c r="E59" s="3">
-        <v>3853500</v>
+        <v>3627700</v>
       </c>
       <c r="F59" s="3">
-        <v>4030500</v>
+        <v>3706400</v>
       </c>
       <c r="G59" s="3">
-        <v>4303700</v>
+        <v>3876600</v>
       </c>
       <c r="H59" s="3">
-        <v>4226300</v>
+        <v>4139400</v>
       </c>
       <c r="I59" s="3">
-        <v>4726200</v>
+        <v>4064900</v>
       </c>
       <c r="J59" s="3">
+        <v>4545700</v>
+      </c>
+      <c r="K59" s="3">
         <v>4860100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1020800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>767400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>683500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>738900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>703200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>604700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>528400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>604700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>658600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>889500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3354,120 +3493,129 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>181833500</v>
+        <v>171369200</v>
       </c>
       <c r="E61" s="3">
-        <v>187397000</v>
+        <v>174889400</v>
       </c>
       <c r="F61" s="3">
-        <v>160295000</v>
+        <v>180240500</v>
       </c>
       <c r="G61" s="3">
-        <v>168128200</v>
+        <v>154173400</v>
       </c>
       <c r="H61" s="3">
-        <v>175992300</v>
+        <v>161707500</v>
       </c>
       <c r="I61" s="3">
-        <v>174709300</v>
+        <v>169271300</v>
       </c>
       <c r="J61" s="3">
+        <v>168037300</v>
+      </c>
+      <c r="K61" s="3">
         <v>177259900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>169924000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>170161500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>170320800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>170531200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>173814100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>181108900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>177498700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>193974600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>200181500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>202397600</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2730900</v>
+        <v>3212800</v>
       </c>
       <c r="E62" s="3">
-        <v>2666700</v>
+        <v>2626600</v>
       </c>
       <c r="F62" s="3">
-        <v>2959800</v>
+        <v>2564900</v>
       </c>
       <c r="G62" s="3">
-        <v>2385800</v>
+        <v>2846800</v>
       </c>
       <c r="H62" s="3">
-        <v>2128100</v>
+        <v>2294700</v>
       </c>
       <c r="I62" s="3">
-        <v>2239800</v>
+        <v>2046800</v>
       </c>
       <c r="J62" s="3">
+        <v>2154300</v>
+      </c>
+      <c r="K62" s="3">
         <v>2212100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2074700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2102000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2181900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2039200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1407300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1256700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1190400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1612300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4355400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1895000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3522,8 +3670,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3578,8 +3729,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3634,64 +3788,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>857819200</v>
+        <v>811856500</v>
       </c>
       <c r="E66" s="3">
-        <v>864885900</v>
+        <v>825059700</v>
       </c>
       <c r="F66" s="3">
-        <v>866595900</v>
+        <v>831856500</v>
       </c>
       <c r="G66" s="3">
-        <v>822530100</v>
+        <v>833501200</v>
       </c>
       <c r="H66" s="3">
-        <v>830404200</v>
+        <v>791118200</v>
       </c>
       <c r="I66" s="3">
-        <v>819092400</v>
+        <v>798691600</v>
       </c>
       <c r="J66" s="3">
+        <v>787811900</v>
+      </c>
+      <c r="K66" s="3">
         <v>829343500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>798363400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>752679500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>774513700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>786648300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>757796800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>748198600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>743262400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>797637200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>805597300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>789516700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3712,8 +3872,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3768,8 +3929,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3824,8 +3988,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3880,8 +4047,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3936,64 +4106,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>36891900</v>
+        <v>34929800</v>
       </c>
       <c r="E72" s="3">
-        <v>36287900</v>
+        <v>35483000</v>
       </c>
       <c r="F72" s="3">
-        <v>35190700</v>
+        <v>34902100</v>
       </c>
       <c r="G72" s="3">
-        <v>33883300</v>
+        <v>33846800</v>
       </c>
       <c r="H72" s="3">
-        <v>32941000</v>
+        <v>32589400</v>
       </c>
       <c r="I72" s="3">
-        <v>31966500</v>
+        <v>31683000</v>
       </c>
       <c r="J72" s="3">
+        <v>30745800</v>
+      </c>
+      <c r="K72" s="3">
         <v>30930100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>29702700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>27703000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>26980600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>26316600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>25085900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>27221500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>26976400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>27495100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>26875900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>29587900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4048,8 +4224,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4104,8 +4283,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4160,64 +4342,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>50591600</v>
+        <v>45401100</v>
       </c>
       <c r="E76" s="3">
-        <v>51471000</v>
+        <v>48659600</v>
       </c>
       <c r="F76" s="3">
-        <v>53838000</v>
+        <v>49505300</v>
       </c>
       <c r="G76" s="3">
-        <v>48273300</v>
+        <v>51781900</v>
       </c>
       <c r="H76" s="3">
-        <v>49939100</v>
+        <v>46429800</v>
       </c>
       <c r="I76" s="3">
-        <v>48305400</v>
+        <v>48031900</v>
       </c>
       <c r="J76" s="3">
+        <v>46460600</v>
+      </c>
+      <c r="K76" s="3">
         <v>48473500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>48366900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>44316000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>44612000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>43657500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>42091400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>44056200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>43689600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>43183300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>43385200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>45848700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4272,125 +4460,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>603900</v>
+        <v>-375500</v>
       </c>
       <c r="E81" s="3">
-        <v>1285300</v>
+        <v>580900</v>
       </c>
       <c r="F81" s="3">
-        <v>1453400</v>
+        <v>1236200</v>
       </c>
       <c r="G81" s="3">
-        <v>942400</v>
+        <v>1397900</v>
       </c>
       <c r="H81" s="3">
-        <v>974400</v>
+        <v>906400</v>
       </c>
       <c r="I81" s="3">
-        <v>1036400</v>
+        <v>937200</v>
       </c>
       <c r="J81" s="3">
+        <v>996800</v>
+      </c>
+      <c r="K81" s="3">
         <v>828400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>285200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>439700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>664000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>712200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2135600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>245100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>304400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>617200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2712000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4411,64 +4608,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>376100</v>
+        <v>378700</v>
       </c>
       <c r="E83" s="3">
-        <v>380500</v>
+        <v>361700</v>
       </c>
       <c r="F83" s="3">
-        <v>349500</v>
+        <v>366000</v>
       </c>
       <c r="G83" s="3">
-        <v>634900</v>
+        <v>336200</v>
       </c>
       <c r="H83" s="3">
+        <v>610600</v>
+      </c>
+      <c r="I83" s="3">
+        <v>251100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>243600</v>
+      </c>
+      <c r="K83" s="3">
         <v>261000</v>
       </c>
-      <c r="I83" s="3">
-        <v>253300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>261000</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>298400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>258200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>213500</v>
       </c>
       <c r="N83" s="3">
         <v>213500</v>
       </c>
       <c r="O83" s="3">
+        <v>213500</v>
+      </c>
+      <c r="P83" s="3">
         <v>244100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>216000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>218000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>226800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>240200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>242300</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4523,8 +4724,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4579,8 +4783,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4635,8 +4842,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4691,8 +4901,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4747,64 +4960,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2832600</v>
+        <v>-6936200</v>
       </c>
       <c r="E89" s="3">
-        <v>7317800</v>
+        <v>2724500</v>
       </c>
       <c r="F89" s="3">
-        <v>-10143800</v>
+        <v>7038300</v>
       </c>
       <c r="G89" s="3">
-        <v>-7353200</v>
+        <v>-9756400</v>
       </c>
       <c r="H89" s="3">
-        <v>-9198100</v>
+        <v>-7072300</v>
       </c>
       <c r="I89" s="3">
-        <v>4689700</v>
+        <v>-8846800</v>
       </c>
       <c r="J89" s="3">
+        <v>4510600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-8516700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10878800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11184300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9858300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2307100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-13452500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7114000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4884000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-7346000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>24547000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-7004300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4825,64 +5044,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-327400</v>
+        <v>-360600</v>
       </c>
       <c r="E91" s="3">
-        <v>-324100</v>
+        <v>-314900</v>
       </c>
       <c r="F91" s="3">
-        <v>-287600</v>
+        <v>-311700</v>
       </c>
       <c r="G91" s="3">
-        <v>-483400</v>
+        <v>-276600</v>
       </c>
       <c r="H91" s="3">
-        <v>-334000</v>
+        <v>-464900</v>
       </c>
       <c r="I91" s="3">
-        <v>-324100</v>
+        <v>-321300</v>
       </c>
       <c r="J91" s="3">
+        <v>-311700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-288700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-233500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-367100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-294500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-248400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-323500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-274200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-257200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-224700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-304400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-298200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4937,8 +5160,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4993,64 +5219,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>6625400</v>
+        <v>12744700</v>
       </c>
       <c r="E94" s="3">
-        <v>11247600</v>
+        <v>6372300</v>
       </c>
       <c r="F94" s="3">
-        <v>-12681100</v>
+        <v>10818100</v>
       </c>
       <c r="G94" s="3">
-        <v>3217600</v>
+        <v>-12196800</v>
       </c>
       <c r="H94" s="3">
-        <v>-240000</v>
+        <v>3094700</v>
       </c>
       <c r="I94" s="3">
-        <v>-2132500</v>
+        <v>-230900</v>
       </c>
       <c r="J94" s="3">
+        <v>-2051100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2311700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-493300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>824400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>4866600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12808900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>23224500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8396800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>3455500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7649400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-14118300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>6844800</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5071,19 +5303,20 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-380900</v>
       </c>
       <c r="E96" s="3">
-        <v>-396000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-380900</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5092,43 +5325,46 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-768700</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-1100</v>
+        <v>-739400</v>
       </c>
       <c r="K96" s="3">
         <v>-1100</v>
       </c>
       <c r="L96" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-679400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-3100</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-1000</v>
       </c>
       <c r="P96" s="3">
         <v>-1000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-588600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-2100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5183,8 +5419,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5239,8 +5478,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5295,172 +5537,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2278500</v>
+        <v>-3281900</v>
       </c>
       <c r="E100" s="3">
-        <v>-4008400</v>
+        <v>-2191500</v>
       </c>
       <c r="F100" s="3">
-        <v>42593600</v>
+        <v>-3855300</v>
       </c>
       <c r="G100" s="3">
-        <v>11807300</v>
+        <v>40967000</v>
       </c>
       <c r="H100" s="3">
-        <v>12661200</v>
+        <v>11356400</v>
       </c>
       <c r="I100" s="3">
-        <v>-4235100</v>
+        <v>12177700</v>
       </c>
       <c r="J100" s="3">
+        <v>-4073400</v>
+      </c>
+      <c r="K100" s="3">
         <v>4309200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>16266900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-29249100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-21541400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>19783400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5639400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4152700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1032600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4215600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4487900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-9169500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-818500</v>
+        <v>-1153200</v>
       </c>
       <c r="E101" s="3">
-        <v>-290900</v>
+        <v>-787200</v>
       </c>
       <c r="F101" s="3">
-        <v>-641500</v>
+        <v>-279800</v>
       </c>
       <c r="G101" s="3">
-        <v>-884900</v>
+        <v>-617000</v>
       </c>
       <c r="H101" s="3">
-        <v>376100</v>
+        <v>-851100</v>
       </c>
       <c r="I101" s="3">
-        <v>-836200</v>
+        <v>361700</v>
       </c>
       <c r="J101" s="3">
+        <v>-804300</v>
+      </c>
+      <c r="K101" s="3">
         <v>673600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>481200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-937500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1076600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-587000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-78400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>861900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-857900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-779700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1847400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-70400</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6361000</v>
+        <v>1373400</v>
       </c>
       <c r="E102" s="3">
-        <v>14266100</v>
+        <v>6118100</v>
       </c>
       <c r="F102" s="3">
-        <v>19127300</v>
+        <v>13721300</v>
       </c>
       <c r="G102" s="3">
-        <v>6786800</v>
+        <v>18396800</v>
       </c>
       <c r="H102" s="3">
-        <v>3599200</v>
+        <v>6527700</v>
       </c>
       <c r="I102" s="3">
-        <v>-2514100</v>
+        <v>3461700</v>
       </c>
       <c r="J102" s="3">
+        <v>-2418100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-5845600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5618300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-18218400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5799500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8568300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4054200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4573600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>8514300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-19990700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>16764000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-9399400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>CS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,145 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2968100</v>
+        <v>3412300</v>
       </c>
       <c r="E8" s="3">
-        <v>3452100</v>
+        <v>3116300</v>
       </c>
       <c r="F8" s="3">
-        <v>3818100</v>
+        <v>3624500</v>
       </c>
       <c r="G8" s="3">
-        <v>4569100</v>
+        <v>4008700</v>
       </c>
       <c r="H8" s="3">
-        <v>4663800</v>
+        <v>4797300</v>
       </c>
       <c r="I8" s="3">
-        <v>5669200</v>
+        <v>4896700</v>
       </c>
       <c r="J8" s="3">
+        <v>5952200</v>
+      </c>
+      <c r="K8" s="3">
         <v>6013800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5329000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6072000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4726700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5223700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4567900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4158700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4292300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4622800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4185600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3945300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4372000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -855,8 +861,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -996,8 +1009,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,8 +1071,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1114,49 +1133,52 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-3200</v>
+        <v>-2200</v>
       </c>
       <c r="E15" s="3">
-        <v>-2100</v>
+        <v>-3400</v>
       </c>
       <c r="F15" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G15" s="3">
         <v>-1100</v>
       </c>
-      <c r="G15" s="3">
-        <v>-2100</v>
-      </c>
       <c r="H15" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I15" s="3">
         <v>-1100</v>
       </c>
-      <c r="I15" s="3">
-        <v>-6400</v>
-      </c>
       <c r="J15" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K15" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-2200</v>
       </c>
       <c r="L15" s="3">
         <v>-2200</v>
       </c>
       <c r="M15" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="N15" s="3">
         <v>-2100</v>
       </c>
       <c r="O15" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="P15" s="3">
         <v>-3100</v>
-      </c>
-      <c r="P15" s="3">
-        <v>-2000</v>
       </c>
       <c r="Q15" s="3">
         <v>-2000</v>
@@ -1165,16 +1187,19 @@
         <v>-2000</v>
       </c>
       <c r="S15" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="T15" s="3">
         <v>-3100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-1000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1193,126 +1218,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1574500</v>
+        <v>6472700</v>
       </c>
       <c r="E17" s="3">
-        <v>2067000</v>
+        <v>1653100</v>
       </c>
       <c r="F17" s="3">
-        <v>2462800</v>
+        <v>2170200</v>
       </c>
       <c r="G17" s="3">
-        <v>3541500</v>
+        <v>2585700</v>
       </c>
       <c r="H17" s="3">
-        <v>3008500</v>
+        <v>3718300</v>
       </c>
       <c r="I17" s="3">
-        <v>3850000</v>
+        <v>3158700</v>
       </c>
       <c r="J17" s="3">
+        <v>4042200</v>
+      </c>
+      <c r="K17" s="3">
         <v>3911700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3724100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3480900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3322600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3663800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2990600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2629800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2695100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2960300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2549500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2343400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2430400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1393600</v>
+        <v>-3060400</v>
       </c>
       <c r="E18" s="3">
-        <v>1385100</v>
+        <v>1463200</v>
       </c>
       <c r="F18" s="3">
-        <v>1355300</v>
+        <v>1454300</v>
       </c>
       <c r="G18" s="3">
-        <v>1027700</v>
+        <v>1423000</v>
       </c>
       <c r="H18" s="3">
-        <v>1655300</v>
+        <v>1079000</v>
       </c>
       <c r="I18" s="3">
-        <v>1819100</v>
+        <v>1738000</v>
       </c>
       <c r="J18" s="3">
+        <v>1910000</v>
+      </c>
+      <c r="K18" s="3">
         <v>2102100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1604900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2591100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1404100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1559900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1577400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1528900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1597200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1662500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1636100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1601900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1941600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1334,126 +1366,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1487200</v>
+        <v>2214900</v>
       </c>
       <c r="E20" s="3">
-        <v>-530900</v>
+        <v>-1561500</v>
       </c>
       <c r="F20" s="3">
-        <v>294700</v>
+        <v>-557400</v>
       </c>
       <c r="G20" s="3">
-        <v>250000</v>
+        <v>309400</v>
       </c>
       <c r="H20" s="3">
-        <v>-363800</v>
+        <v>262500</v>
       </c>
       <c r="I20" s="3">
-        <v>-604300</v>
+        <v>-382000</v>
       </c>
       <c r="J20" s="3">
+        <v>-634400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-717000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-430300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1935900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-708300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-480300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-495700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1387200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1195400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1077800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-942300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3883200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1711700</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>285100</v>
+        <v>-439000</v>
       </c>
       <c r="E21" s="3">
-        <v>1216000</v>
+        <v>299300</v>
       </c>
       <c r="F21" s="3">
-        <v>2016000</v>
+        <v>1276700</v>
       </c>
       <c r="G21" s="3">
-        <v>1613800</v>
+        <v>2116600</v>
       </c>
       <c r="H21" s="3">
-        <v>1902100</v>
+        <v>1694400</v>
       </c>
       <c r="I21" s="3">
-        <v>1466000</v>
+        <v>1997100</v>
       </c>
       <c r="J21" s="3">
+        <v>1539100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1628700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1435700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>953600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>954100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1293100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1295200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>385700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>617800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>802600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>920600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2041000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1511,126 +1550,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-93600</v>
+        <v>-845500</v>
       </c>
       <c r="E23" s="3">
-        <v>854300</v>
+        <v>-98300</v>
       </c>
       <c r="F23" s="3">
-        <v>1650000</v>
+        <v>896900</v>
       </c>
       <c r="G23" s="3">
-        <v>1277700</v>
+        <v>1732400</v>
       </c>
       <c r="H23" s="3">
-        <v>1291500</v>
+        <v>1341400</v>
       </c>
       <c r="I23" s="3">
-        <v>1214900</v>
+        <v>1356000</v>
       </c>
       <c r="J23" s="3">
+        <v>1275500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1385100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1174600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>655200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>695800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1079600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1081700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>141600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>401800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>584600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>693800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2281300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>278700</v>
+        <v>-587500</v>
       </c>
       <c r="E24" s="3">
-        <v>274500</v>
+        <v>292600</v>
       </c>
       <c r="F24" s="3">
-        <v>416000</v>
+        <v>288200</v>
       </c>
       <c r="G24" s="3">
-        <v>-117000</v>
+        <v>436700</v>
       </c>
       <c r="H24" s="3">
-        <v>384000</v>
+        <v>-122900</v>
       </c>
       <c r="I24" s="3">
-        <v>272300</v>
+        <v>403200</v>
       </c>
       <c r="J24" s="3">
+        <v>285900</v>
+      </c>
+      <c r="K24" s="3">
         <v>388300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>346200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>374400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>270700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>408500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>371500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-66300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>153700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>277200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>80800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>428700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1688,126 +1736,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-372300</v>
+        <v>-258000</v>
       </c>
       <c r="E26" s="3">
-        <v>579800</v>
+        <v>-390900</v>
       </c>
       <c r="F26" s="3">
-        <v>1234000</v>
+        <v>608700</v>
       </c>
       <c r="G26" s="3">
-        <v>1394700</v>
+        <v>1295700</v>
       </c>
       <c r="H26" s="3">
-        <v>907400</v>
+        <v>1464300</v>
       </c>
       <c r="I26" s="3">
-        <v>942600</v>
+        <v>952700</v>
       </c>
       <c r="J26" s="3">
+        <v>989600</v>
+      </c>
+      <c r="K26" s="3">
         <v>996800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>828400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>280800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>425200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>671200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>710200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>207900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>248100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>307400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>613000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2710000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-375500</v>
+        <v>-281500</v>
       </c>
       <c r="E27" s="3">
-        <v>580900</v>
+        <v>-394300</v>
       </c>
       <c r="F27" s="3">
-        <v>1236200</v>
+        <v>609800</v>
       </c>
       <c r="G27" s="3">
-        <v>1397900</v>
+        <v>1297900</v>
       </c>
       <c r="H27" s="3">
-        <v>906400</v>
+        <v>1467700</v>
       </c>
       <c r="I27" s="3">
-        <v>937200</v>
+        <v>951600</v>
       </c>
       <c r="J27" s="3">
+        <v>984000</v>
+      </c>
+      <c r="K27" s="3">
         <v>996800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>828400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>285200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>439700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>664000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>712200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>174800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>245100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>304400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>617200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2712000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1865,31 +1922,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1906,26 +1966,29 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-2310400</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2046,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2042,126 +2108,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1487200</v>
+        <v>-2214900</v>
       </c>
       <c r="E32" s="3">
-        <v>530900</v>
+        <v>1561500</v>
       </c>
       <c r="F32" s="3">
-        <v>-294700</v>
+        <v>557400</v>
       </c>
       <c r="G32" s="3">
-        <v>-250000</v>
+        <v>-309400</v>
       </c>
       <c r="H32" s="3">
-        <v>363800</v>
+        <v>-262500</v>
       </c>
       <c r="I32" s="3">
-        <v>604300</v>
+        <v>382000</v>
       </c>
       <c r="J32" s="3">
+        <v>634400</v>
+      </c>
+      <c r="K32" s="3">
         <v>717000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>430300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1935900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>708300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>480300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>495700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1387200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1195400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1077800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>942300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3883200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1711700</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-375500</v>
+        <v>-281500</v>
       </c>
       <c r="E33" s="3">
-        <v>580900</v>
+        <v>-394300</v>
       </c>
       <c r="F33" s="3">
-        <v>1236200</v>
+        <v>609800</v>
       </c>
       <c r="G33" s="3">
-        <v>1397900</v>
+        <v>1297900</v>
       </c>
       <c r="H33" s="3">
-        <v>906400</v>
+        <v>1467700</v>
       </c>
       <c r="I33" s="3">
-        <v>937200</v>
+        <v>951600</v>
       </c>
       <c r="J33" s="3">
+        <v>984000</v>
+      </c>
+      <c r="K33" s="3">
         <v>996800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>828400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>285200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>439700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>664000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>712200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2135600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>245100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>304400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>617200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2712000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2219,131 +2294,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-375500</v>
+        <v>-281500</v>
       </c>
       <c r="E35" s="3">
-        <v>580900</v>
+        <v>-394300</v>
       </c>
       <c r="F35" s="3">
-        <v>1236200</v>
+        <v>609800</v>
       </c>
       <c r="G35" s="3">
-        <v>1397900</v>
+        <v>1297900</v>
       </c>
       <c r="H35" s="3">
-        <v>906400</v>
+        <v>1467700</v>
       </c>
       <c r="I35" s="3">
-        <v>937200</v>
+        <v>951600</v>
       </c>
       <c r="J35" s="3">
+        <v>984000</v>
+      </c>
+      <c r="K35" s="3">
         <v>996800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>828400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>285200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>439700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>664000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>712200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2135600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>245100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>304400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>617200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2712000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,8 +2449,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2388,126 +2473,133 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>147991500</v>
+        <v>148871300</v>
       </c>
       <c r="E41" s="3">
-        <v>146618100</v>
+        <v>155379800</v>
       </c>
       <c r="F41" s="3">
-        <v>140500000</v>
+        <v>153937800</v>
       </c>
       <c r="G41" s="3">
-        <v>126778700</v>
+        <v>147514300</v>
       </c>
       <c r="H41" s="3">
-        <v>108381900</v>
+        <v>133108000</v>
       </c>
       <c r="I41" s="3">
-        <v>101854300</v>
+        <v>113792700</v>
       </c>
       <c r="J41" s="3">
+        <v>106939200</v>
+      </c>
+      <c r="K41" s="3">
         <v>98392600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>104813400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>110171800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>98459900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>115468700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>121268200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>110311400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>106257100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>110830700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>105473900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>125464600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>108700600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>266283000</v>
+        <v>293912700</v>
       </c>
       <c r="E42" s="3">
-        <v>285203200</v>
+        <v>279576800</v>
       </c>
       <c r="F42" s="3">
-        <v>292793700</v>
+        <v>299441600</v>
       </c>
       <c r="G42" s="3">
-        <v>292138400</v>
+        <v>307410900</v>
       </c>
       <c r="H42" s="3">
-        <v>288071300</v>
+        <v>306722900</v>
       </c>
       <c r="I42" s="3">
-        <v>297791500</v>
+        <v>302452800</v>
       </c>
       <c r="J42" s="3">
+        <v>312658300</v>
+      </c>
+      <c r="K42" s="3">
         <v>285838400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>298811400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>286736000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>264012800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>272227400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>278622000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>285284700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>297761800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>285608100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>324448100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>325650300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>323868200</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2565,8 +2657,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2624,8 +2719,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2683,8 +2781,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2742,58 +2843,61 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1330900</v>
+        <v>1421900</v>
       </c>
       <c r="E47" s="3">
-        <v>1448900</v>
+        <v>1397300</v>
       </c>
       <c r="F47" s="3">
-        <v>1564900</v>
+        <v>1521300</v>
       </c>
       <c r="G47" s="3">
-        <v>1526600</v>
+        <v>1643000</v>
       </c>
       <c r="H47" s="3">
-        <v>1502100</v>
+        <v>1602800</v>
       </c>
       <c r="I47" s="3">
-        <v>2545700</v>
+        <v>1577100</v>
       </c>
       <c r="J47" s="3">
+        <v>2672800</v>
+      </c>
+      <c r="K47" s="3">
         <v>2544700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2730900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2716700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2579100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3067500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3015200</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -2801,126 +2905,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7846800</v>
+        <v>8402700</v>
       </c>
       <c r="E48" s="3">
-        <v>8009600</v>
+        <v>8238500</v>
       </c>
       <c r="F48" s="3">
-        <v>8138300</v>
+        <v>8409400</v>
       </c>
       <c r="G48" s="3">
-        <v>8223400</v>
+        <v>8544600</v>
       </c>
       <c r="H48" s="3">
-        <v>8331900</v>
+        <v>8633900</v>
       </c>
       <c r="I48" s="3">
-        <v>8303200</v>
+        <v>8747900</v>
       </c>
       <c r="J48" s="3">
+        <v>8717700</v>
+      </c>
+      <c r="K48" s="3">
         <v>8230900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8935900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5327600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5003600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4957900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4799900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4707200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4611800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4545500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4832800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4878300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4804800</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4960600</v>
+        <v>5454000</v>
       </c>
       <c r="E49" s="3">
-        <v>5141500</v>
+        <v>5208300</v>
       </c>
       <c r="F49" s="3">
-        <v>5264900</v>
+        <v>5398200</v>
       </c>
       <c r="G49" s="3">
-        <v>5194700</v>
+        <v>5527700</v>
       </c>
       <c r="H49" s="3">
-        <v>5270200</v>
+        <v>5454000</v>
       </c>
       <c r="I49" s="3">
-        <v>5296800</v>
+        <v>5533300</v>
       </c>
       <c r="J49" s="3">
+        <v>5561200</v>
+      </c>
+      <c r="K49" s="3">
         <v>5262800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5564600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5489500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5133200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5140600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5007200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4987400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4956300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4890000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5211800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5308100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5091700</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3091,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3037,67 +3153,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14593600</v>
+        <v>22715200</v>
       </c>
       <c r="E52" s="3">
-        <v>15002100</v>
+        <v>15322200</v>
       </c>
       <c r="F52" s="3">
-        <v>15528700</v>
+        <v>15751100</v>
       </c>
       <c r="G52" s="3">
-        <v>18167000</v>
+        <v>16304000</v>
       </c>
       <c r="H52" s="3">
-        <v>17403200</v>
+        <v>19074000</v>
       </c>
       <c r="I52" s="3">
-        <v>17976600</v>
+        <v>18272000</v>
       </c>
       <c r="J52" s="3">
+        <v>18874100</v>
+      </c>
+      <c r="K52" s="3">
         <v>15735100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17019100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14982900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14439500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16334100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17028900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11088900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>16777500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>19371200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>17695000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>16085800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>21881600</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,67 +3277,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>857257600</v>
+        <v>950957100</v>
       </c>
       <c r="E54" s="3">
-        <v>873719300</v>
+        <v>900054800</v>
       </c>
       <c r="F54" s="3">
-        <v>881361900</v>
+        <v>917338400</v>
       </c>
       <c r="G54" s="3">
-        <v>885283200</v>
+        <v>925362500</v>
       </c>
       <c r="H54" s="3">
-        <v>837548000</v>
+        <v>929479500</v>
       </c>
       <c r="I54" s="3">
-        <v>846723600</v>
+        <v>879361300</v>
       </c>
       <c r="J54" s="3">
+        <v>888994900</v>
+      </c>
+      <c r="K54" s="3">
         <v>834272500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>877817000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>846730300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>796995500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>819125600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>830305800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>799888200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>792254900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>786952000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>840820500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>848982500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>835365400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,8 +3365,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,67 +3389,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>27606400</v>
+        <v>35229400</v>
       </c>
       <c r="E57" s="3">
-        <v>36143600</v>
+        <v>28984600</v>
       </c>
       <c r="F57" s="3">
-        <v>39257500</v>
+        <v>37948000</v>
       </c>
       <c r="G57" s="3">
-        <v>52880900</v>
+        <v>41217300</v>
       </c>
       <c r="H57" s="3">
-        <v>32748900</v>
+        <v>55520900</v>
       </c>
       <c r="I57" s="3">
-        <v>41421300</v>
+        <v>34383900</v>
       </c>
       <c r="J57" s="3">
+        <v>43489200</v>
+      </c>
+      <c r="K57" s="3">
         <v>43260600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>47636200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>39733500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>46906500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>41249900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>44279400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>49115000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>37807100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>39269700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>48311200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>47521000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>49537200</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3378,67 +3511,73 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3525500</v>
+        <v>3696000</v>
       </c>
       <c r="E59" s="3">
-        <v>3627700</v>
+        <v>3701500</v>
       </c>
       <c r="F59" s="3">
-        <v>3706400</v>
+        <v>3808800</v>
       </c>
       <c r="G59" s="3">
-        <v>3876600</v>
+        <v>3891400</v>
       </c>
       <c r="H59" s="3">
-        <v>4139400</v>
+        <v>4070100</v>
       </c>
       <c r="I59" s="3">
-        <v>4064900</v>
+        <v>4346000</v>
       </c>
       <c r="J59" s="3">
+        <v>4267800</v>
+      </c>
+      <c r="K59" s="3">
         <v>4545700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4860100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1020800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>767400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>683500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>738900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>703200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>604700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>528400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>604700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>658600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>889500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3496,126 +3635,135 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>171369200</v>
+        <v>190385800</v>
       </c>
       <c r="E61" s="3">
-        <v>174889400</v>
+        <v>179924500</v>
       </c>
       <c r="F61" s="3">
-        <v>180240500</v>
+        <v>183620500</v>
       </c>
       <c r="G61" s="3">
-        <v>154173400</v>
+        <v>189238700</v>
       </c>
       <c r="H61" s="3">
-        <v>161707500</v>
+        <v>161870300</v>
       </c>
       <c r="I61" s="3">
-        <v>169271300</v>
+        <v>169780500</v>
       </c>
       <c r="J61" s="3">
+        <v>177721900</v>
+      </c>
+      <c r="K61" s="3">
         <v>168037300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>177259900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>169924000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>170161500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>170320800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>170531200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>173814100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>181108900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>177498700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>193974600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>200181500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>202397600</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3212800</v>
+        <v>2943100</v>
       </c>
       <c r="E62" s="3">
-        <v>2626600</v>
+        <v>3373200</v>
       </c>
       <c r="F62" s="3">
-        <v>2564900</v>
+        <v>2757700</v>
       </c>
       <c r="G62" s="3">
-        <v>2846800</v>
+        <v>2692900</v>
       </c>
       <c r="H62" s="3">
-        <v>2294700</v>
+        <v>2988900</v>
       </c>
       <c r="I62" s="3">
-        <v>2046800</v>
+        <v>2409200</v>
       </c>
       <c r="J62" s="3">
+        <v>2149000</v>
+      </c>
+      <c r="K62" s="3">
         <v>2154300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2212100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2074700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2102000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2181900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2039200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1407300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1256700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1190400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1612300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4355400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1895000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,8 +3821,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3732,8 +3883,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3791,67 +3945,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>811856500</v>
+        <v>901152800</v>
       </c>
       <c r="E66" s="3">
-        <v>825059700</v>
+        <v>852387200</v>
       </c>
       <c r="F66" s="3">
-        <v>831856500</v>
+        <v>866249500</v>
       </c>
       <c r="G66" s="3">
-        <v>833501200</v>
+        <v>873385600</v>
       </c>
       <c r="H66" s="3">
-        <v>791118200</v>
+        <v>875112400</v>
       </c>
       <c r="I66" s="3">
-        <v>798691600</v>
+        <v>830613500</v>
       </c>
       <c r="J66" s="3">
+        <v>838565000</v>
+      </c>
+      <c r="K66" s="3">
         <v>787811900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>829343500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>798363400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>752679500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>774513700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>786648300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>757796800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>748198600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>743262400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>797637200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>805597300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>789516700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3873,8 +4033,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4093,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,8 +4155,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4050,8 +4217,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4109,67 +4279,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>34929800</v>
+        <v>36392100</v>
       </c>
       <c r="E72" s="3">
-        <v>35483000</v>
+        <v>36673600</v>
       </c>
       <c r="F72" s="3">
-        <v>34902100</v>
+        <v>37254400</v>
       </c>
       <c r="G72" s="3">
-        <v>33846800</v>
+        <v>36644600</v>
       </c>
       <c r="H72" s="3">
-        <v>32589400</v>
+        <v>35536600</v>
       </c>
       <c r="I72" s="3">
-        <v>31683000</v>
+        <v>34216300</v>
       </c>
       <c r="J72" s="3">
+        <v>33264700</v>
+      </c>
+      <c r="K72" s="3">
         <v>30745800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>30930100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>29702700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>27703000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>26980600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>26316600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>25085900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>27221500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>26976400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>27495100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>26875900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>29587900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +4403,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4286,8 +4465,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4345,67 +4527,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>45401100</v>
+        <v>49804400</v>
       </c>
       <c r="E76" s="3">
-        <v>48659600</v>
+        <v>47667600</v>
       </c>
       <c r="F76" s="3">
-        <v>49505300</v>
+        <v>51088800</v>
       </c>
       <c r="G76" s="3">
-        <v>51781900</v>
+        <v>51976800</v>
       </c>
       <c r="H76" s="3">
-        <v>46429800</v>
+        <v>54367100</v>
       </c>
       <c r="I76" s="3">
-        <v>48031900</v>
+        <v>48747700</v>
       </c>
       <c r="J76" s="3">
+        <v>50429800</v>
+      </c>
+      <c r="K76" s="3">
         <v>46460600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>48473500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>48366900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>44316000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>44612000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>43657500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>42091400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>44056200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>43689600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>43183300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>43385200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>45848700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4463,131 +4651,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-375500</v>
+        <v>-281500</v>
       </c>
       <c r="E81" s="3">
-        <v>580900</v>
+        <v>-394300</v>
       </c>
       <c r="F81" s="3">
-        <v>1236200</v>
+        <v>609800</v>
       </c>
       <c r="G81" s="3">
-        <v>1397900</v>
+        <v>1297900</v>
       </c>
       <c r="H81" s="3">
-        <v>906400</v>
+        <v>1467700</v>
       </c>
       <c r="I81" s="3">
-        <v>937200</v>
+        <v>951600</v>
       </c>
       <c r="J81" s="3">
+        <v>984000</v>
+      </c>
+      <c r="K81" s="3">
         <v>996800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>828400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>285200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>439700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>664000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>712200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2135600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>245100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>304400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>617200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2712000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4609,67 +4806,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>378700</v>
+        <v>406600</v>
       </c>
       <c r="E83" s="3">
-        <v>361700</v>
+        <v>397600</v>
       </c>
       <c r="F83" s="3">
-        <v>366000</v>
+        <v>379800</v>
       </c>
       <c r="G83" s="3">
-        <v>336200</v>
+        <v>384200</v>
       </c>
       <c r="H83" s="3">
-        <v>610600</v>
+        <v>353000</v>
       </c>
       <c r="I83" s="3">
-        <v>251100</v>
+        <v>641100</v>
       </c>
       <c r="J83" s="3">
+        <v>263600</v>
+      </c>
+      <c r="K83" s="3">
         <v>243600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>261000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>298400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>258200</v>
-      </c>
-      <c r="N83" s="3">
-        <v>213500</v>
       </c>
       <c r="O83" s="3">
         <v>213500</v>
       </c>
       <c r="P83" s="3">
+        <v>213500</v>
+      </c>
+      <c r="Q83" s="3">
         <v>244100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>216000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>218000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>226800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>240200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>242300</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4727,8 +4928,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4786,8 +4990,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4845,8 +5052,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4904,8 +5114,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4963,67 +5176,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-6936200</v>
+        <v>-3802100</v>
       </c>
       <c r="E89" s="3">
-        <v>2724500</v>
+        <v>-7282400</v>
       </c>
       <c r="F89" s="3">
-        <v>7038300</v>
+        <v>2860500</v>
       </c>
       <c r="G89" s="3">
-        <v>-9756400</v>
+        <v>7389700</v>
       </c>
       <c r="H89" s="3">
-        <v>-7072300</v>
+        <v>-10243500</v>
       </c>
       <c r="I89" s="3">
-        <v>-8846800</v>
+        <v>-7425400</v>
       </c>
       <c r="J89" s="3">
+        <v>-9288500</v>
+      </c>
+      <c r="K89" s="3">
         <v>4510600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8516700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10878800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11184300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9858300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2307100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-13452500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7114000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4884000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-7346000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>24547000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-7004300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5045,67 +5264,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-360600</v>
+        <v>-316100</v>
       </c>
       <c r="E91" s="3">
-        <v>-314900</v>
+        <v>-378600</v>
       </c>
       <c r="F91" s="3">
+        <v>-330600</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-327300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-290400</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-488100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-337300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-311700</v>
       </c>
-      <c r="G91" s="3">
-        <v>-276600</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-464900</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-321300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-311700</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-288700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-233500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-367100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-294500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-248400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-323500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-274200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-257200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-224700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-304400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-298200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5163,8 +5386,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5222,67 +5448,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>12744700</v>
+        <v>-17284600</v>
       </c>
       <c r="E94" s="3">
-        <v>6372300</v>
+        <v>13380900</v>
       </c>
       <c r="F94" s="3">
-        <v>10818100</v>
+        <v>6690500</v>
       </c>
       <c r="G94" s="3">
-        <v>-12196800</v>
+        <v>11358200</v>
       </c>
       <c r="H94" s="3">
-        <v>3094700</v>
+        <v>-12805700</v>
       </c>
       <c r="I94" s="3">
-        <v>-230900</v>
+        <v>3249200</v>
       </c>
       <c r="J94" s="3">
+        <v>-242400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2051100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2311700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-493300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>824400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>4866600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12808900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>23224500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8396800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>3455500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7649400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-14118300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>6844800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5304,22 +5536,23 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-380900</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-399900</v>
       </c>
       <c r="F96" s="3">
-        <v>-380900</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-399900</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -5328,43 +5561,46 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-739400</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-1100</v>
       </c>
       <c r="L96" s="3">
         <v>-1100</v>
       </c>
       <c r="M96" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-679400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-3100</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q96" s="3">
         <v>-1000</v>
       </c>
       <c r="R96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-588600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-2100</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5422,8 +5658,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5481,8 +5720,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5540,181 +5782,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3281900</v>
+        <v>11431900</v>
       </c>
       <c r="E100" s="3">
-        <v>-2191500</v>
+        <v>-3445800</v>
       </c>
       <c r="F100" s="3">
-        <v>-3855300</v>
+        <v>-2300900</v>
       </c>
       <c r="G100" s="3">
-        <v>40967000</v>
+        <v>-4047800</v>
       </c>
       <c r="H100" s="3">
-        <v>11356400</v>
+        <v>43012200</v>
       </c>
       <c r="I100" s="3">
-        <v>12177700</v>
+        <v>11923300</v>
       </c>
       <c r="J100" s="3">
+        <v>12785600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4073400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4309200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>16266900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-29249100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-21541400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>19783400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5639400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4152700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1032600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4215600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4487900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-9169500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1153200</v>
+        <v>3146400</v>
       </c>
       <c r="E101" s="3">
-        <v>-787200</v>
+        <v>-1210800</v>
       </c>
       <c r="F101" s="3">
-        <v>-279800</v>
+        <v>-826500</v>
       </c>
       <c r="G101" s="3">
-        <v>-617000</v>
+        <v>-293800</v>
       </c>
       <c r="H101" s="3">
-        <v>-851100</v>
+        <v>-647800</v>
       </c>
       <c r="I101" s="3">
-        <v>361700</v>
+        <v>-893600</v>
       </c>
       <c r="J101" s="3">
+        <v>379800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-804300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>673600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>481200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-937500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1076600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-587000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-78400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>861900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-857900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-779700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1847400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-70400</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1373400</v>
+        <v>-6508400</v>
       </c>
       <c r="E102" s="3">
-        <v>6118100</v>
+        <v>1442000</v>
       </c>
       <c r="F102" s="3">
-        <v>13721300</v>
+        <v>6423500</v>
       </c>
       <c r="G102" s="3">
-        <v>18396800</v>
+        <v>14406300</v>
       </c>
       <c r="H102" s="3">
-        <v>6527700</v>
+        <v>19315200</v>
       </c>
       <c r="I102" s="3">
-        <v>3461700</v>
+        <v>6853500</v>
       </c>
       <c r="J102" s="3">
+        <v>3634500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2418100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5845600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5618300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-18218400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5799500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8568300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4054200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4573600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8514300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-19990700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>16764000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-9399400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>CS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,151 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3412300</v>
+        <v>3133800</v>
       </c>
       <c r="E8" s="3">
-        <v>3116300</v>
+        <v>3325300</v>
       </c>
       <c r="F8" s="3">
-        <v>3624500</v>
+        <v>3036900</v>
       </c>
       <c r="G8" s="3">
-        <v>4008700</v>
+        <v>3532200</v>
       </c>
       <c r="H8" s="3">
-        <v>4797300</v>
+        <v>3906600</v>
       </c>
       <c r="I8" s="3">
-        <v>4896700</v>
+        <v>4675100</v>
       </c>
       <c r="J8" s="3">
+        <v>4771900</v>
+      </c>
+      <c r="K8" s="3">
         <v>5952200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6013800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5329000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6072000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4726700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5223700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4567900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4158700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4292300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4622800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4185600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3945300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4372000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -864,8 +870,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +935,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1012,8 +1025,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1074,8 +1090,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,8 +1155,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1145,43 +1167,43 @@
         <v>-2200</v>
       </c>
       <c r="E15" s="3">
-        <v>-3400</v>
+        <v>-2200</v>
       </c>
       <c r="F15" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G15" s="3">
         <v>-2200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-1100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-2200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-1100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-6700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>-2200</v>
       </c>
       <c r="M15" s="3">
         <v>-2200</v>
       </c>
       <c r="N15" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="O15" s="3">
         <v>-2100</v>
       </c>
       <c r="P15" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Q15" s="3">
         <v>-3100</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>-2000</v>
       </c>
       <c r="R15" s="3">
         <v>-2000</v>
@@ -1190,16 +1212,19 @@
         <v>-2000</v>
       </c>
       <c r="T15" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="U15" s="3">
         <v>-3100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-1000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1244,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6472700</v>
+        <v>1565200</v>
       </c>
       <c r="E17" s="3">
-        <v>1653100</v>
+        <v>6307800</v>
       </c>
       <c r="F17" s="3">
-        <v>2170200</v>
+        <v>1611000</v>
       </c>
       <c r="G17" s="3">
-        <v>2585700</v>
+        <v>2114900</v>
       </c>
       <c r="H17" s="3">
-        <v>3718300</v>
+        <v>2519900</v>
       </c>
       <c r="I17" s="3">
-        <v>3158700</v>
+        <v>3623600</v>
       </c>
       <c r="J17" s="3">
+        <v>3078200</v>
+      </c>
+      <c r="K17" s="3">
         <v>4042200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3911700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3724100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3480900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3322600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3663800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2990600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2629800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2695100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2960300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2549500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2343400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2430400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3060400</v>
+        <v>1568500</v>
       </c>
       <c r="E18" s="3">
-        <v>1463200</v>
+        <v>-2982500</v>
       </c>
       <c r="F18" s="3">
-        <v>1454300</v>
+        <v>1425900</v>
       </c>
       <c r="G18" s="3">
-        <v>1423000</v>
+        <v>1417200</v>
       </c>
       <c r="H18" s="3">
-        <v>1079000</v>
+        <v>1386700</v>
       </c>
       <c r="I18" s="3">
-        <v>1738000</v>
+        <v>1051500</v>
       </c>
       <c r="J18" s="3">
+        <v>1693700</v>
+      </c>
+      <c r="K18" s="3">
         <v>1910000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2102100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1604900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2591100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1404100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1559900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1577400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1528900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1597200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1662500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1636100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1601900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1941600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1367,132 +1399,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2214900</v>
+        <v>-683600</v>
       </c>
       <c r="E20" s="3">
-        <v>-1561500</v>
+        <v>2158500</v>
       </c>
       <c r="F20" s="3">
-        <v>-557400</v>
+        <v>-1521700</v>
       </c>
       <c r="G20" s="3">
-        <v>309400</v>
+        <v>-543200</v>
       </c>
       <c r="H20" s="3">
-        <v>262500</v>
+        <v>301500</v>
       </c>
       <c r="I20" s="3">
-        <v>-382000</v>
+        <v>255800</v>
       </c>
       <c r="J20" s="3">
+        <v>-372300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-634400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-717000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-430300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1935900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-708300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-480300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-495700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1387200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1195400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1077800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-942300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3883200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1711700</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-439000</v>
+        <v>1257200</v>
       </c>
       <c r="E21" s="3">
-        <v>299300</v>
+        <v>-427800</v>
       </c>
       <c r="F21" s="3">
-        <v>1276700</v>
+        <v>291700</v>
       </c>
       <c r="G21" s="3">
-        <v>2116600</v>
+        <v>1244100</v>
       </c>
       <c r="H21" s="3">
-        <v>1694400</v>
+        <v>2062700</v>
       </c>
       <c r="I21" s="3">
-        <v>1997100</v>
+        <v>1651200</v>
       </c>
       <c r="J21" s="3">
+        <v>1946200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1539100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1628700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1435700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>953600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>954100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1293100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1295200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>385700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>617800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>802600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>920600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2041000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,132 +1592,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-845500</v>
+        <v>884900</v>
       </c>
       <c r="E23" s="3">
-        <v>-98300</v>
+        <v>-824000</v>
       </c>
       <c r="F23" s="3">
-        <v>896900</v>
+        <v>-95800</v>
       </c>
       <c r="G23" s="3">
-        <v>1732400</v>
+        <v>874100</v>
       </c>
       <c r="H23" s="3">
-        <v>1341400</v>
+        <v>1688200</v>
       </c>
       <c r="I23" s="3">
-        <v>1356000</v>
+        <v>1307300</v>
       </c>
       <c r="J23" s="3">
+        <v>1321400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1275500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1385100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1174600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>655200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>695800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1079600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1081700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>141600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>401800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>584600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>693800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2281300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-587500</v>
+        <v>616100</v>
       </c>
       <c r="E24" s="3">
-        <v>292600</v>
+        <v>-572500</v>
       </c>
       <c r="F24" s="3">
-        <v>288200</v>
+        <v>285200</v>
       </c>
       <c r="G24" s="3">
-        <v>436700</v>
+        <v>280800</v>
       </c>
       <c r="H24" s="3">
-        <v>-122900</v>
+        <v>425600</v>
       </c>
       <c r="I24" s="3">
-        <v>403200</v>
+        <v>-119700</v>
       </c>
       <c r="J24" s="3">
+        <v>392900</v>
+      </c>
+      <c r="K24" s="3">
         <v>285900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>388300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>346200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>374400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>270700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>408500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>371500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-66300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>153700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>277200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>80800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>428700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1739,132 +1787,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-258000</v>
+        <v>268900</v>
       </c>
       <c r="E26" s="3">
-        <v>-390900</v>
+        <v>-251400</v>
       </c>
       <c r="F26" s="3">
-        <v>608700</v>
+        <v>-381000</v>
       </c>
       <c r="G26" s="3">
-        <v>1295700</v>
+        <v>593200</v>
       </c>
       <c r="H26" s="3">
-        <v>1464300</v>
+        <v>1262600</v>
       </c>
       <c r="I26" s="3">
-        <v>952700</v>
+        <v>1427000</v>
       </c>
       <c r="J26" s="3">
+        <v>928500</v>
+      </c>
+      <c r="K26" s="3">
         <v>989600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>996800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>828400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>280800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>425200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>671200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>710200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>207900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>248100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>307400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>613000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2710000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-281500</v>
+        <v>275400</v>
       </c>
       <c r="E27" s="3">
-        <v>-394300</v>
+        <v>-274300</v>
       </c>
       <c r="F27" s="3">
-        <v>609800</v>
+        <v>-384200</v>
       </c>
       <c r="G27" s="3">
-        <v>1297900</v>
+        <v>594300</v>
       </c>
       <c r="H27" s="3">
-        <v>1467700</v>
+        <v>1264800</v>
       </c>
       <c r="I27" s="3">
-        <v>951600</v>
+        <v>1430300</v>
       </c>
       <c r="J27" s="3">
+        <v>927400</v>
+      </c>
+      <c r="K27" s="3">
         <v>984000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>996800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>828400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>285200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>439700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>664000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>712200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>174800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>245100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>304400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>617200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2712000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1925,8 +1982,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1951,8 +2011,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -1969,26 +2029,29 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-2310400</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2112,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,132 +2177,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2214900</v>
+        <v>683600</v>
       </c>
       <c r="E32" s="3">
-        <v>1561500</v>
+        <v>-2158500</v>
       </c>
       <c r="F32" s="3">
-        <v>557400</v>
+        <v>1521700</v>
       </c>
       <c r="G32" s="3">
-        <v>-309400</v>
+        <v>543200</v>
       </c>
       <c r="H32" s="3">
-        <v>-262500</v>
+        <v>-301500</v>
       </c>
       <c r="I32" s="3">
-        <v>382000</v>
+        <v>-255800</v>
       </c>
       <c r="J32" s="3">
+        <v>372300</v>
+      </c>
+      <c r="K32" s="3">
         <v>634400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>717000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>430300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1935900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>708300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>480300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>495700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1387200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1195400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1077800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>942300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3883200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1711700</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-281500</v>
+        <v>275400</v>
       </c>
       <c r="E33" s="3">
-        <v>-394300</v>
+        <v>-274300</v>
       </c>
       <c r="F33" s="3">
-        <v>609800</v>
+        <v>-384200</v>
       </c>
       <c r="G33" s="3">
-        <v>1297900</v>
+        <v>594300</v>
       </c>
       <c r="H33" s="3">
-        <v>1467700</v>
+        <v>1264800</v>
       </c>
       <c r="I33" s="3">
-        <v>951600</v>
+        <v>1430300</v>
       </c>
       <c r="J33" s="3">
+        <v>927400</v>
+      </c>
+      <c r="K33" s="3">
         <v>984000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>996800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>828400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>285200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>439700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>664000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>712200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2135600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>245100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>304400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>617200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2712000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2372,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-281500</v>
+        <v>275400</v>
       </c>
       <c r="E35" s="3">
-        <v>-394300</v>
+        <v>-274300</v>
       </c>
       <c r="F35" s="3">
-        <v>609800</v>
+        <v>-384200</v>
       </c>
       <c r="G35" s="3">
-        <v>1297900</v>
+        <v>594300</v>
       </c>
       <c r="H35" s="3">
-        <v>1467700</v>
+        <v>1264800</v>
       </c>
       <c r="I35" s="3">
-        <v>951600</v>
+        <v>1430300</v>
       </c>
       <c r="J35" s="3">
+        <v>927400</v>
+      </c>
+      <c r="K35" s="3">
         <v>984000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>996800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>828400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>285200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>439700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>664000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>712200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2135600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>245100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>304400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>617200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2712000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2534,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,132 +2559,139 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>148871300</v>
+        <v>159309200</v>
       </c>
       <c r="E41" s="3">
-        <v>155379800</v>
+        <v>145079400</v>
       </c>
       <c r="F41" s="3">
-        <v>153937800</v>
+        <v>151422000</v>
       </c>
       <c r="G41" s="3">
-        <v>147514300</v>
+        <v>150016800</v>
       </c>
       <c r="H41" s="3">
-        <v>133108000</v>
+        <v>143756900</v>
       </c>
       <c r="I41" s="3">
-        <v>113792700</v>
+        <v>129717500</v>
       </c>
       <c r="J41" s="3">
+        <v>110894300</v>
+      </c>
+      <c r="K41" s="3">
         <v>106939200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>98392600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>104813400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>110171800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>98459900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>115468700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>121268200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>110311400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>106257100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>110830700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>105473900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>125464600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>108700600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>293912700</v>
+        <v>258940900</v>
       </c>
       <c r="E42" s="3">
-        <v>279576800</v>
+        <v>286426300</v>
       </c>
       <c r="F42" s="3">
-        <v>299441600</v>
+        <v>272455600</v>
       </c>
       <c r="G42" s="3">
-        <v>307410900</v>
+        <v>291814400</v>
       </c>
       <c r="H42" s="3">
-        <v>306722900</v>
+        <v>299580700</v>
       </c>
       <c r="I42" s="3">
-        <v>302452800</v>
+        <v>298910200</v>
       </c>
       <c r="J42" s="3">
+        <v>294748900</v>
+      </c>
+      <c r="K42" s="3">
         <v>312658300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>285838400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>298811400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>286736000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>264012800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>272227400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>278622000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>285284700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>297761800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>285608100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>324448100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>325650300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>323868200</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2660,8 +2752,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2722,8 +2817,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2784,8 +2882,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2846,61 +2947,64 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1421900</v>
+        <v>1339900</v>
       </c>
       <c r="E47" s="3">
-        <v>1397300</v>
+        <v>1385600</v>
       </c>
       <c r="F47" s="3">
-        <v>1521300</v>
+        <v>1361700</v>
       </c>
       <c r="G47" s="3">
-        <v>1643000</v>
+        <v>1482500</v>
       </c>
       <c r="H47" s="3">
-        <v>1602800</v>
+        <v>1601200</v>
       </c>
       <c r="I47" s="3">
-        <v>1577100</v>
+        <v>1562000</v>
       </c>
       <c r="J47" s="3">
+        <v>1536900</v>
+      </c>
+      <c r="K47" s="3">
         <v>2672800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2544700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2730900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2716700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2579100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3067500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3015200</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -2908,132 +3012,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8402700</v>
+        <v>8085300</v>
       </c>
       <c r="E48" s="3">
-        <v>8238500</v>
+        <v>8188700</v>
       </c>
       <c r="F48" s="3">
-        <v>8409400</v>
+        <v>8028700</v>
       </c>
       <c r="G48" s="3">
-        <v>8544600</v>
+        <v>8195200</v>
       </c>
       <c r="H48" s="3">
-        <v>8633900</v>
+        <v>8326900</v>
       </c>
       <c r="I48" s="3">
-        <v>8747900</v>
+        <v>8414000</v>
       </c>
       <c r="J48" s="3">
+        <v>8525100</v>
+      </c>
+      <c r="K48" s="3">
         <v>8717700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8230900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8935900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5327600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5003600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4957900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4799900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4707200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4611800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4545500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4832800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4878300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4804800</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5454000</v>
+        <v>5260700</v>
       </c>
       <c r="E49" s="3">
-        <v>5208300</v>
+        <v>5315100</v>
       </c>
       <c r="F49" s="3">
-        <v>5398200</v>
+        <v>5075600</v>
       </c>
       <c r="G49" s="3">
-        <v>5527700</v>
+        <v>5260700</v>
       </c>
       <c r="H49" s="3">
-        <v>5454000</v>
+        <v>5386900</v>
       </c>
       <c r="I49" s="3">
-        <v>5533300</v>
+        <v>5315100</v>
       </c>
       <c r="J49" s="3">
+        <v>5392400</v>
+      </c>
+      <c r="K49" s="3">
         <v>5561200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5262800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5564600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5489500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5133200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5140600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5007200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4987400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4956300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4890000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5211800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5308100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5091700</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3207,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,70 +3272,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>22715200</v>
+        <v>16897700</v>
       </c>
       <c r="E52" s="3">
-        <v>15322200</v>
+        <v>22136600</v>
       </c>
       <c r="F52" s="3">
-        <v>15751100</v>
+        <v>14931900</v>
       </c>
       <c r="G52" s="3">
-        <v>16304000</v>
+        <v>15349900</v>
       </c>
       <c r="H52" s="3">
-        <v>19074000</v>
+        <v>15888700</v>
       </c>
       <c r="I52" s="3">
-        <v>18272000</v>
+        <v>18588100</v>
       </c>
       <c r="J52" s="3">
+        <v>17806600</v>
+      </c>
+      <c r="K52" s="3">
         <v>18874100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15735100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17019100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14982900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14439500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16334100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17028900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11088900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>16777500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>19371200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>17695000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>16085800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>21881600</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3402,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>950957100</v>
+        <v>867307700</v>
       </c>
       <c r="E54" s="3">
-        <v>900054800</v>
+        <v>926734900</v>
       </c>
       <c r="F54" s="3">
-        <v>917338400</v>
+        <v>877129200</v>
       </c>
       <c r="G54" s="3">
-        <v>925362500</v>
+        <v>893972500</v>
       </c>
       <c r="H54" s="3">
-        <v>929479500</v>
+        <v>901792200</v>
       </c>
       <c r="I54" s="3">
-        <v>879361300</v>
+        <v>905804400</v>
       </c>
       <c r="J54" s="3">
+        <v>856962700</v>
+      </c>
+      <c r="K54" s="3">
         <v>888994900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>834272500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>877817000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>846730300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>796995500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>819125600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>830305800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>799888200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>792254900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>786952000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>840820500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>848982500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>835365400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3494,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,70 +3519,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>35229400</v>
+        <v>26733300</v>
       </c>
       <c r="E57" s="3">
-        <v>28984600</v>
+        <v>34332100</v>
       </c>
       <c r="F57" s="3">
-        <v>37948000</v>
+        <v>28246300</v>
       </c>
       <c r="G57" s="3">
-        <v>41217300</v>
+        <v>36981400</v>
       </c>
       <c r="H57" s="3">
-        <v>55520900</v>
+        <v>40167500</v>
       </c>
       <c r="I57" s="3">
-        <v>34383900</v>
+        <v>54106700</v>
       </c>
       <c r="J57" s="3">
+        <v>33508100</v>
+      </c>
+      <c r="K57" s="3">
         <v>43489200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>43260600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>47636200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>39733500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>46906500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>41249900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>44279400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>49115000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>37807100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>39269700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>48311200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>47521000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>49537200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3514,70 +3647,76 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3696000</v>
+        <v>3563700</v>
       </c>
       <c r="E59" s="3">
-        <v>3701500</v>
+        <v>3601800</v>
       </c>
       <c r="F59" s="3">
-        <v>3808800</v>
+        <v>3607300</v>
       </c>
       <c r="G59" s="3">
-        <v>3891400</v>
+        <v>3711800</v>
       </c>
       <c r="H59" s="3">
-        <v>4070100</v>
+        <v>3792300</v>
       </c>
       <c r="I59" s="3">
-        <v>4346000</v>
+        <v>3966500</v>
       </c>
       <c r="J59" s="3">
+        <v>4235300</v>
+      </c>
+      <c r="K59" s="3">
         <v>4267800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4545700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4860100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1020800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>767400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>683500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>738900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>703200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>604700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>528400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>604700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>658600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>889500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3638,132 +3777,141 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>190385800</v>
+        <v>185290400</v>
       </c>
       <c r="E61" s="3">
-        <v>179924500</v>
+        <v>185536400</v>
       </c>
       <c r="F61" s="3">
-        <v>183620500</v>
+        <v>175341600</v>
       </c>
       <c r="G61" s="3">
-        <v>189238700</v>
+        <v>178943400</v>
       </c>
       <c r="H61" s="3">
-        <v>161870300</v>
+        <v>184418500</v>
       </c>
       <c r="I61" s="3">
-        <v>169780500</v>
+        <v>157747200</v>
       </c>
       <c r="J61" s="3">
+        <v>165455900</v>
+      </c>
+      <c r="K61" s="3">
         <v>177721900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>168037300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>177259900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>169924000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>170161500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>170320800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>170531200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>173814100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>181108900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>177498700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>193974600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>200181500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>202397600</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2943100</v>
+        <v>2446900</v>
       </c>
       <c r="E62" s="3">
-        <v>3373200</v>
+        <v>2868200</v>
       </c>
       <c r="F62" s="3">
-        <v>2757700</v>
+        <v>3287200</v>
       </c>
       <c r="G62" s="3">
-        <v>2692900</v>
+        <v>2687500</v>
       </c>
       <c r="H62" s="3">
-        <v>2988900</v>
+        <v>2624300</v>
       </c>
       <c r="I62" s="3">
-        <v>2409200</v>
+        <v>2912800</v>
       </c>
       <c r="J62" s="3">
+        <v>2347900</v>
+      </c>
+      <c r="K62" s="3">
         <v>2149000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2154300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2212100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2074700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2102000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2181900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2039200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1407300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1256700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1190400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1612300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4355400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1895000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +3972,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3886,8 +4037,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4102,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>901152800</v>
+        <v>819871300</v>
       </c>
       <c r="E66" s="3">
-        <v>852387200</v>
+        <v>878199200</v>
       </c>
       <c r="F66" s="3">
-        <v>866249500</v>
+        <v>830675700</v>
       </c>
       <c r="G66" s="3">
-        <v>873385600</v>
+        <v>844185000</v>
       </c>
       <c r="H66" s="3">
-        <v>875112400</v>
+        <v>851139300</v>
       </c>
       <c r="I66" s="3">
-        <v>830613500</v>
+        <v>852822100</v>
       </c>
       <c r="J66" s="3">
+        <v>809456700</v>
+      </c>
+      <c r="K66" s="3">
         <v>838565000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>787811900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>829343500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>798363400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>752679500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>774513700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>786648300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>757796800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>748198600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>743262400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>797637200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>805597300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>789516700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4194,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4257,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,8 +4322,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4220,8 +4387,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,70 +4452,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>36392100</v>
+        <v>35610000</v>
       </c>
       <c r="E72" s="3">
-        <v>36673600</v>
+        <v>35465200</v>
       </c>
       <c r="F72" s="3">
-        <v>37254400</v>
+        <v>35739500</v>
       </c>
       <c r="G72" s="3">
-        <v>36644600</v>
+        <v>36305500</v>
       </c>
       <c r="H72" s="3">
-        <v>35536600</v>
+        <v>35711200</v>
       </c>
       <c r="I72" s="3">
-        <v>34216300</v>
+        <v>34631400</v>
       </c>
       <c r="J72" s="3">
+        <v>33344800</v>
+      </c>
+      <c r="K72" s="3">
         <v>33264700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>30745800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>30930100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>29702700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>27703000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>26980600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>26316600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>25085900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>27221500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>26976400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>27495100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>26875900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>29587900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4582,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4647,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4712,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>49804400</v>
+        <v>47436400</v>
       </c>
       <c r="E76" s="3">
-        <v>47667600</v>
+        <v>48535800</v>
       </c>
       <c r="F76" s="3">
-        <v>51088800</v>
+        <v>46453500</v>
       </c>
       <c r="G76" s="3">
-        <v>51976800</v>
+        <v>49787500</v>
       </c>
       <c r="H76" s="3">
-        <v>54367100</v>
+        <v>50652900</v>
       </c>
       <c r="I76" s="3">
-        <v>48747700</v>
+        <v>52982300</v>
       </c>
       <c r="J76" s="3">
+        <v>47506100</v>
+      </c>
+      <c r="K76" s="3">
         <v>50429800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>46460600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>48473500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>48366900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>44316000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>44612000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>43657500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>42091400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>44056200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>43689600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>43183300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>43385200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>45848700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +4842,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-281500</v>
+        <v>275400</v>
       </c>
       <c r="E81" s="3">
-        <v>-394300</v>
+        <v>-274300</v>
       </c>
       <c r="F81" s="3">
-        <v>609800</v>
+        <v>-384200</v>
       </c>
       <c r="G81" s="3">
-        <v>1297900</v>
+        <v>594300</v>
       </c>
       <c r="H81" s="3">
-        <v>1467700</v>
+        <v>1264800</v>
       </c>
       <c r="I81" s="3">
-        <v>951600</v>
+        <v>1430300</v>
       </c>
       <c r="J81" s="3">
+        <v>927400</v>
+      </c>
+      <c r="K81" s="3">
         <v>984000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>996800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>828400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>285200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>439700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>664000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>712200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2135600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>245100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>304400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>617200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2712000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,70 +5004,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>406600</v>
+        <v>372300</v>
       </c>
       <c r="E83" s="3">
-        <v>397600</v>
+        <v>396200</v>
       </c>
       <c r="F83" s="3">
-        <v>379800</v>
+        <v>387500</v>
       </c>
       <c r="G83" s="3">
-        <v>384200</v>
+        <v>370100</v>
       </c>
       <c r="H83" s="3">
-        <v>353000</v>
+        <v>374400</v>
       </c>
       <c r="I83" s="3">
-        <v>641100</v>
+        <v>344000</v>
       </c>
       <c r="J83" s="3">
+        <v>624800</v>
+      </c>
+      <c r="K83" s="3">
         <v>263600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>243600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>261000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>298400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>258200</v>
-      </c>
-      <c r="O83" s="3">
-        <v>213500</v>
       </c>
       <c r="P83" s="3">
         <v>213500</v>
       </c>
       <c r="Q83" s="3">
+        <v>213500</v>
+      </c>
+      <c r="R83" s="3">
         <v>244100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>216000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>218000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>226800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>240200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>242300</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5132,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5197,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5262,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5327,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,70 +5392,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3802100</v>
+        <v>26209800</v>
       </c>
       <c r="E89" s="3">
-        <v>-7282400</v>
+        <v>-3705200</v>
       </c>
       <c r="F89" s="3">
-        <v>2860500</v>
+        <v>-7097000</v>
       </c>
       <c r="G89" s="3">
-        <v>7389700</v>
+        <v>2787600</v>
       </c>
       <c r="H89" s="3">
-        <v>-10243500</v>
+        <v>7201400</v>
       </c>
       <c r="I89" s="3">
-        <v>-7425400</v>
+        <v>-9982500</v>
       </c>
       <c r="J89" s="3">
+        <v>-7236300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-9288500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4510600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8516700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10878800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11184300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9858300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2307100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-13452500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7114000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4884000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-7346000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>24547000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-7004300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,70 +5484,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-316100</v>
+        <v>-369000</v>
       </c>
       <c r="E91" s="3">
-        <v>-378600</v>
+        <v>-308000</v>
       </c>
       <c r="F91" s="3">
-        <v>-330600</v>
+        <v>-369000</v>
       </c>
       <c r="G91" s="3">
-        <v>-327300</v>
+        <v>-322200</v>
       </c>
       <c r="H91" s="3">
-        <v>-290400</v>
+        <v>-318900</v>
       </c>
       <c r="I91" s="3">
-        <v>-488100</v>
+        <v>-283000</v>
       </c>
       <c r="J91" s="3">
+        <v>-475700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-337300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-311700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-288700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-233500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-367100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-294500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-248400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-323500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-274200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-257200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-224700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-304400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-298200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5612,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,70 +5677,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-17284600</v>
+        <v>-1135300</v>
       </c>
       <c r="E94" s="3">
-        <v>13380900</v>
+        <v>-16844400</v>
       </c>
       <c r="F94" s="3">
-        <v>6690500</v>
+        <v>13040100</v>
       </c>
       <c r="G94" s="3">
-        <v>11358200</v>
+        <v>6520100</v>
       </c>
       <c r="H94" s="3">
-        <v>-12805700</v>
+        <v>11068900</v>
       </c>
       <c r="I94" s="3">
-        <v>3249200</v>
+        <v>-12479500</v>
       </c>
       <c r="J94" s="3">
+        <v>3166400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-242400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2051100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2311700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-493300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>824400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>4866600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12808900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>23224500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8396800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>3455500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7649400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-14118300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>6844800</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,8 +5769,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5546,16 +5779,16 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-399900</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-389700</v>
       </c>
       <c r="G96" s="3">
-        <v>-399900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-389700</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -5564,43 +5797,46 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-739400</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-1100</v>
       </c>
       <c r="M96" s="3">
         <v>-1100</v>
       </c>
       <c r="N96" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-679400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-3100</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-1000</v>
       </c>
       <c r="R96" s="3">
         <v>-1000</v>
       </c>
       <c r="S96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-588600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-2100</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +5897,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +5962,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,190 +6027,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>11431900</v>
+        <v>-9799700</v>
       </c>
       <c r="E100" s="3">
-        <v>-3445800</v>
+        <v>11140700</v>
       </c>
       <c r="F100" s="3">
-        <v>-2300900</v>
+        <v>-3358000</v>
       </c>
       <c r="G100" s="3">
-        <v>-4047800</v>
+        <v>-2242300</v>
       </c>
       <c r="H100" s="3">
-        <v>43012200</v>
+        <v>-3944700</v>
       </c>
       <c r="I100" s="3">
-        <v>11923300</v>
+        <v>41916700</v>
       </c>
       <c r="J100" s="3">
+        <v>11619600</v>
+      </c>
+      <c r="K100" s="3">
         <v>12785600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4073400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4309200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>16266900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-29249100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-21541400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>19783400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5639400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4152700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1032600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4215600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4487900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-9169500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3146400</v>
+        <v>-1045000</v>
       </c>
       <c r="E101" s="3">
-        <v>-1210800</v>
+        <v>3066300</v>
       </c>
       <c r="F101" s="3">
-        <v>-826500</v>
+        <v>-1179900</v>
       </c>
       <c r="G101" s="3">
-        <v>-293800</v>
+        <v>-805500</v>
       </c>
       <c r="H101" s="3">
-        <v>-647800</v>
+        <v>-286300</v>
       </c>
       <c r="I101" s="3">
-        <v>-893600</v>
+        <v>-631300</v>
       </c>
       <c r="J101" s="3">
+        <v>-870800</v>
+      </c>
+      <c r="K101" s="3">
         <v>379800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-804300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>673600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>481200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-937500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1076600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-587000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-78400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>861900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-857900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-779700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1847400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-70400</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-6508400</v>
+        <v>14229800</v>
       </c>
       <c r="E102" s="3">
-        <v>1442000</v>
+        <v>-6342600</v>
       </c>
       <c r="F102" s="3">
-        <v>6423500</v>
+        <v>1405200</v>
       </c>
       <c r="G102" s="3">
-        <v>14406300</v>
+        <v>6259900</v>
       </c>
       <c r="H102" s="3">
-        <v>19315200</v>
+        <v>14039300</v>
       </c>
       <c r="I102" s="3">
-        <v>6853500</v>
+        <v>18823300</v>
       </c>
       <c r="J102" s="3">
+        <v>6679000</v>
+      </c>
+      <c r="K102" s="3">
         <v>3634500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2418100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5845600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5618300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-18218400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5799500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>8568300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4054200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4573600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>8514300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-19990700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>16764000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-9399400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>CS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,157 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3133800</v>
+        <v>2591500</v>
       </c>
       <c r="E8" s="3">
-        <v>3325300</v>
+        <v>3119200</v>
       </c>
       <c r="F8" s="3">
-        <v>3036900</v>
+        <v>3309800</v>
       </c>
       <c r="G8" s="3">
-        <v>3532200</v>
+        <v>3022700</v>
       </c>
       <c r="H8" s="3">
-        <v>3906600</v>
+        <v>3515700</v>
       </c>
       <c r="I8" s="3">
-        <v>4675100</v>
+        <v>3888400</v>
       </c>
       <c r="J8" s="3">
+        <v>4653300</v>
+      </c>
+      <c r="K8" s="3">
         <v>4771900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5952200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6013800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5329000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6072000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4726700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5223700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4567900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4158700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4292300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4622800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4185600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3945300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4372000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -873,8 +879,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,8 +947,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +975,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1041,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1093,8 +1109,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1158,8 +1177,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1170,43 +1192,43 @@
         <v>-2200</v>
       </c>
       <c r="F15" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G15" s="3">
         <v>-3300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-2200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-1100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-2200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-1100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-6700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-1100</v>
-      </c>
-      <c r="M15" s="3">
-        <v>-2200</v>
       </c>
       <c r="N15" s="3">
         <v>-2200</v>
       </c>
       <c r="O15" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="P15" s="3">
         <v>-2100</v>
       </c>
       <c r="Q15" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R15" s="3">
         <v>-3100</v>
-      </c>
-      <c r="R15" s="3">
-        <v>-2000</v>
       </c>
       <c r="S15" s="3">
         <v>-2000</v>
@@ -1215,16 +1237,19 @@
         <v>-2000</v>
       </c>
       <c r="U15" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="V15" s="3">
         <v>-3100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-1000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1245,138 +1270,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1565200</v>
+        <v>893800</v>
       </c>
       <c r="E17" s="3">
-        <v>6307800</v>
+        <v>1558000</v>
       </c>
       <c r="F17" s="3">
-        <v>1611000</v>
+        <v>6278400</v>
       </c>
       <c r="G17" s="3">
-        <v>2114900</v>
+        <v>1603500</v>
       </c>
       <c r="H17" s="3">
-        <v>2519900</v>
+        <v>2105100</v>
       </c>
       <c r="I17" s="3">
-        <v>3623600</v>
+        <v>2508100</v>
       </c>
       <c r="J17" s="3">
+        <v>3606700</v>
+      </c>
+      <c r="K17" s="3">
         <v>3078200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4042200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3911700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3724100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3480900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3322600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3663800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2990600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2629800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2695100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2960300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2549500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2343400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2430400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1568500</v>
+        <v>1697700</v>
       </c>
       <c r="E18" s="3">
-        <v>-2982500</v>
+        <v>1561200</v>
       </c>
       <c r="F18" s="3">
-        <v>1425900</v>
+        <v>-2968600</v>
       </c>
       <c r="G18" s="3">
-        <v>1417200</v>
+        <v>1419300</v>
       </c>
       <c r="H18" s="3">
-        <v>1386700</v>
+        <v>1410600</v>
       </c>
       <c r="I18" s="3">
-        <v>1051500</v>
+        <v>1380300</v>
       </c>
       <c r="J18" s="3">
+        <v>1046600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1693700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1910000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2102100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1604900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2591100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1404100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1559900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1577400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1528900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1597200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1662500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1636100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1601900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1941600</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1400,138 +1432,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-683600</v>
+        <v>-605600</v>
       </c>
       <c r="E20" s="3">
-        <v>2158500</v>
+        <v>-680400</v>
       </c>
       <c r="F20" s="3">
-        <v>-1521700</v>
+        <v>2148400</v>
       </c>
       <c r="G20" s="3">
-        <v>-543200</v>
+        <v>-1514600</v>
       </c>
       <c r="H20" s="3">
-        <v>301500</v>
+        <v>-540600</v>
       </c>
       <c r="I20" s="3">
-        <v>255800</v>
+        <v>300100</v>
       </c>
       <c r="J20" s="3">
+        <v>254600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-372300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-634400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-717000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-430300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1935900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-708300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-480300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-495700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1387200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1195400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1077800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-942300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3883200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1711700</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1257200</v>
+        <v>1433400</v>
       </c>
       <c r="E21" s="3">
-        <v>-427800</v>
+        <v>1251400</v>
       </c>
       <c r="F21" s="3">
-        <v>291700</v>
+        <v>-425800</v>
       </c>
       <c r="G21" s="3">
-        <v>1244100</v>
+        <v>290400</v>
       </c>
       <c r="H21" s="3">
-        <v>2062700</v>
+        <v>1238300</v>
       </c>
       <c r="I21" s="3">
-        <v>1651200</v>
+        <v>2053100</v>
       </c>
       <c r="J21" s="3">
+        <v>1643500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1946200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1539100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1628700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1435700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>953600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>954100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1293100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1295200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>385700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>617800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>802600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>920600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2041000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1595,138 +1634,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>884900</v>
+        <v>1092100</v>
       </c>
       <c r="E23" s="3">
-        <v>-824000</v>
+        <v>880800</v>
       </c>
       <c r="F23" s="3">
-        <v>-95800</v>
+        <v>-820100</v>
       </c>
       <c r="G23" s="3">
-        <v>874100</v>
+        <v>-95300</v>
       </c>
       <c r="H23" s="3">
-        <v>1688200</v>
+        <v>870000</v>
       </c>
       <c r="I23" s="3">
-        <v>1307300</v>
+        <v>1680400</v>
       </c>
       <c r="J23" s="3">
+        <v>1301200</v>
+      </c>
+      <c r="K23" s="3">
         <v>1321400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1275500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1385100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1174600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>655200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>695800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1079600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1081700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>141600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>401800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>584600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>693800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2281300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>616100</v>
+        <v>617500</v>
       </c>
       <c r="E24" s="3">
-        <v>-572500</v>
+        <v>613200</v>
       </c>
       <c r="F24" s="3">
-        <v>285200</v>
+        <v>-569900</v>
       </c>
       <c r="G24" s="3">
-        <v>280800</v>
+        <v>283900</v>
       </c>
       <c r="H24" s="3">
-        <v>425600</v>
+        <v>279500</v>
       </c>
       <c r="I24" s="3">
-        <v>-119700</v>
+        <v>423600</v>
       </c>
       <c r="J24" s="3">
+        <v>-119200</v>
+      </c>
+      <c r="K24" s="3">
         <v>392900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>285900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>388300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>346200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>374400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>270700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>408500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>371500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-66300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>153700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>277200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>80800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>428700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1790,138 +1838,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>268900</v>
+        <v>474500</v>
       </c>
       <c r="E26" s="3">
-        <v>-251400</v>
+        <v>267600</v>
       </c>
       <c r="F26" s="3">
-        <v>-381000</v>
+        <v>-250300</v>
       </c>
       <c r="G26" s="3">
-        <v>593200</v>
+        <v>-379200</v>
       </c>
       <c r="H26" s="3">
-        <v>1262600</v>
+        <v>590500</v>
       </c>
       <c r="I26" s="3">
-        <v>1427000</v>
+        <v>1256800</v>
       </c>
       <c r="J26" s="3">
+        <v>1420400</v>
+      </c>
+      <c r="K26" s="3">
         <v>928500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>989600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>996800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>828400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>280800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>425200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>671200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>710200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>207900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>248100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>307400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>613000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2710000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>275400</v>
+        <v>470200</v>
       </c>
       <c r="E27" s="3">
-        <v>-274300</v>
+        <v>274100</v>
       </c>
       <c r="F27" s="3">
-        <v>-384200</v>
+        <v>-273000</v>
       </c>
       <c r="G27" s="3">
-        <v>594300</v>
+        <v>-382400</v>
       </c>
       <c r="H27" s="3">
-        <v>1264800</v>
+        <v>591500</v>
       </c>
       <c r="I27" s="3">
-        <v>1430300</v>
+        <v>1258900</v>
       </c>
       <c r="J27" s="3">
+        <v>1423600</v>
+      </c>
+      <c r="K27" s="3">
         <v>927400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>984000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>996800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>828400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>285200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>439700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>664000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>712200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>174800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>245100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>304400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>617200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2712000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1985,8 +2042,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2014,8 +2074,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -2032,26 +2092,29 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-2310400</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2115,8 +2178,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2180,138 +2246,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>683600</v>
+        <v>605600</v>
       </c>
       <c r="E32" s="3">
-        <v>-2158500</v>
+        <v>680400</v>
       </c>
       <c r="F32" s="3">
-        <v>1521700</v>
+        <v>-2148400</v>
       </c>
       <c r="G32" s="3">
-        <v>543200</v>
+        <v>1514600</v>
       </c>
       <c r="H32" s="3">
-        <v>-301500</v>
+        <v>540600</v>
       </c>
       <c r="I32" s="3">
-        <v>-255800</v>
+        <v>-300100</v>
       </c>
       <c r="J32" s="3">
+        <v>-254600</v>
+      </c>
+      <c r="K32" s="3">
         <v>372300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>634400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>717000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>430300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1935900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>708300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>480300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>495700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1387200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1195400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1077800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>942300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3883200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1711700</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>275400</v>
+        <v>470200</v>
       </c>
       <c r="E33" s="3">
-        <v>-274300</v>
+        <v>274100</v>
       </c>
       <c r="F33" s="3">
-        <v>-384200</v>
+        <v>-273000</v>
       </c>
       <c r="G33" s="3">
-        <v>594300</v>
+        <v>-382400</v>
       </c>
       <c r="H33" s="3">
-        <v>1264800</v>
+        <v>591500</v>
       </c>
       <c r="I33" s="3">
-        <v>1430300</v>
+        <v>1258900</v>
       </c>
       <c r="J33" s="3">
+        <v>1423600</v>
+      </c>
+      <c r="K33" s="3">
         <v>927400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>984000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>996800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>828400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>285200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>439700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>664000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>712200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2135600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>245100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>304400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>617200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2712000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2375,143 +2450,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>275400</v>
+        <v>470200</v>
       </c>
       <c r="E35" s="3">
-        <v>-274300</v>
+        <v>274100</v>
       </c>
       <c r="F35" s="3">
-        <v>-384200</v>
+        <v>-273000</v>
       </c>
       <c r="G35" s="3">
-        <v>594300</v>
+        <v>-382400</v>
       </c>
       <c r="H35" s="3">
-        <v>1264800</v>
+        <v>591500</v>
       </c>
       <c r="I35" s="3">
-        <v>1430300</v>
+        <v>1258900</v>
       </c>
       <c r="J35" s="3">
+        <v>1423600</v>
+      </c>
+      <c r="K35" s="3">
         <v>927400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>984000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>996800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>828400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>285200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>439700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>664000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>712200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2135600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>245100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>304400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>617200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2712000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2535,8 +2619,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2560,138 +2645,145 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>159309200</v>
+        <v>164410100</v>
       </c>
       <c r="E41" s="3">
-        <v>145079400</v>
+        <v>158567200</v>
       </c>
       <c r="F41" s="3">
-        <v>151422000</v>
+        <v>144403600</v>
       </c>
       <c r="G41" s="3">
-        <v>150016800</v>
+        <v>150716700</v>
       </c>
       <c r="H41" s="3">
-        <v>143756900</v>
+        <v>149318000</v>
       </c>
       <c r="I41" s="3">
-        <v>129717500</v>
+        <v>143087300</v>
       </c>
       <c r="J41" s="3">
+        <v>129113300</v>
+      </c>
+      <c r="K41" s="3">
         <v>110894300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>106939200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>98392600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>104813400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>110171800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>98459900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>115468700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>121268200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>110311400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>106257100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>110830700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>105473900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>125464600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>108700600</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>258940900</v>
+        <v>267998000</v>
       </c>
       <c r="E42" s="3">
-        <v>286426300</v>
+        <v>257734800</v>
       </c>
       <c r="F42" s="3">
-        <v>272455600</v>
+        <v>285092200</v>
       </c>
       <c r="G42" s="3">
-        <v>291814400</v>
+        <v>271186500</v>
       </c>
       <c r="H42" s="3">
-        <v>299580700</v>
+        <v>290455200</v>
       </c>
       <c r="I42" s="3">
-        <v>298910200</v>
+        <v>298185400</v>
       </c>
       <c r="J42" s="3">
+        <v>297518000</v>
+      </c>
+      <c r="K42" s="3">
         <v>294748900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>312658300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>285838400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>298811400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>286736000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>264012800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>272227400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>278622000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>285284700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>297761800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>285608100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>324448100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>325650300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>323868200</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2755,8 +2847,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2820,8 +2915,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2885,8 +2983,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2950,64 +3051,67 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1339900</v>
+        <v>1239400</v>
       </c>
       <c r="E47" s="3">
-        <v>1385600</v>
+        <v>1333700</v>
       </c>
       <c r="F47" s="3">
-        <v>1361700</v>
+        <v>1379200</v>
       </c>
       <c r="G47" s="3">
-        <v>1482500</v>
+        <v>1355400</v>
       </c>
       <c r="H47" s="3">
-        <v>1601200</v>
+        <v>1475600</v>
       </c>
       <c r="I47" s="3">
-        <v>1562000</v>
+        <v>1593700</v>
       </c>
       <c r="J47" s="3">
+        <v>1554700</v>
+      </c>
+      <c r="K47" s="3">
         <v>1536900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2672800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2544700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2730900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2716700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2579100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3067500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3015200</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3015,138 +3119,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8085300</v>
+        <v>8134300</v>
       </c>
       <c r="E48" s="3">
-        <v>8188700</v>
+        <v>8047600</v>
       </c>
       <c r="F48" s="3">
-        <v>8028700</v>
+        <v>8150600</v>
       </c>
       <c r="G48" s="3">
-        <v>8195200</v>
+        <v>7991300</v>
       </c>
       <c r="H48" s="3">
-        <v>8326900</v>
+        <v>8157100</v>
       </c>
       <c r="I48" s="3">
-        <v>8414000</v>
+        <v>8288200</v>
       </c>
       <c r="J48" s="3">
+        <v>8374800</v>
+      </c>
+      <c r="K48" s="3">
         <v>8525100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8717700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8230900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8935900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5327600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5003600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4957900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4799900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4707200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4611800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4545500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4832800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4878300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4804800</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5260700</v>
+        <v>5253500</v>
       </c>
       <c r="E49" s="3">
-        <v>5315100</v>
+        <v>5236200</v>
       </c>
       <c r="F49" s="3">
-        <v>5075600</v>
+        <v>5290300</v>
       </c>
       <c r="G49" s="3">
-        <v>5260700</v>
+        <v>5052000</v>
       </c>
       <c r="H49" s="3">
-        <v>5386900</v>
+        <v>5236200</v>
       </c>
       <c r="I49" s="3">
-        <v>5315100</v>
+        <v>5361800</v>
       </c>
       <c r="J49" s="3">
+        <v>5290300</v>
+      </c>
+      <c r="K49" s="3">
         <v>5392400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5561200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5262800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5564600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5489500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5133200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5140600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5007200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4987400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4956300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4890000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5211800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5308100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5091700</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3210,8 +3323,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3275,73 +3391,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16897700</v>
+        <v>21197100</v>
       </c>
       <c r="E52" s="3">
-        <v>22136600</v>
+        <v>16819000</v>
       </c>
       <c r="F52" s="3">
-        <v>14931900</v>
+        <v>22033500</v>
       </c>
       <c r="G52" s="3">
-        <v>15349900</v>
+        <v>14862400</v>
       </c>
       <c r="H52" s="3">
-        <v>15888700</v>
+        <v>15278400</v>
       </c>
       <c r="I52" s="3">
-        <v>18588100</v>
+        <v>15814700</v>
       </c>
       <c r="J52" s="3">
+        <v>18501600</v>
+      </c>
+      <c r="K52" s="3">
         <v>17806600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18874100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15735100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17019100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14982900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>14439500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>16334100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>17028900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11088900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>16777500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>19371200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>17695000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>16085800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>21881600</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3405,73 +3527,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>867307700</v>
+        <v>873116300</v>
       </c>
       <c r="E54" s="3">
-        <v>926734900</v>
+        <v>863268000</v>
       </c>
       <c r="F54" s="3">
-        <v>877129200</v>
+        <v>922418400</v>
       </c>
       <c r="G54" s="3">
-        <v>893972500</v>
+        <v>873043700</v>
       </c>
       <c r="H54" s="3">
-        <v>901792200</v>
+        <v>889808500</v>
       </c>
       <c r="I54" s="3">
-        <v>905804400</v>
+        <v>897591800</v>
       </c>
       <c r="J54" s="3">
+        <v>901585300</v>
+      </c>
+      <c r="K54" s="3">
         <v>856962700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>888994900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>834272500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>877817000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>846730300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>796995500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>819125600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>830305800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>799888200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>792254900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>786952000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>840820500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>848982500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>835365400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3495,8 +3623,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3520,73 +3649,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>26733300</v>
+        <v>27647800</v>
       </c>
       <c r="E57" s="3">
-        <v>34332100</v>
+        <v>26608800</v>
       </c>
       <c r="F57" s="3">
-        <v>28246300</v>
+        <v>34172200</v>
       </c>
       <c r="G57" s="3">
-        <v>36981400</v>
+        <v>28114700</v>
       </c>
       <c r="H57" s="3">
-        <v>40167500</v>
+        <v>36809200</v>
       </c>
       <c r="I57" s="3">
-        <v>54106700</v>
+        <v>39980400</v>
       </c>
       <c r="J57" s="3">
+        <v>53854600</v>
+      </c>
+      <c r="K57" s="3">
         <v>33508100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>43489200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>43260600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>47636200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>39733500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>46906500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>41249900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>44279400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>49115000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>37807100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>39269700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>48311200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>47521000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>49537200</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3650,73 +3783,79 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3563700</v>
+        <v>3562300</v>
       </c>
       <c r="E59" s="3">
-        <v>3601800</v>
+        <v>3547100</v>
       </c>
       <c r="F59" s="3">
-        <v>3607300</v>
+        <v>3585000</v>
       </c>
       <c r="G59" s="3">
-        <v>3711800</v>
+        <v>3590500</v>
       </c>
       <c r="H59" s="3">
-        <v>3792300</v>
+        <v>3694500</v>
       </c>
       <c r="I59" s="3">
-        <v>3966500</v>
+        <v>3774600</v>
       </c>
       <c r="J59" s="3">
+        <v>3948000</v>
+      </c>
+      <c r="K59" s="3">
         <v>4235300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4267800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4545700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4860100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1020800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>767400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>683500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>738900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>703200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>604700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>528400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>604700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>658600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>889500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3780,138 +3919,147 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>185290400</v>
+        <v>189945200</v>
       </c>
       <c r="E61" s="3">
-        <v>185536400</v>
+        <v>184427300</v>
       </c>
       <c r="F61" s="3">
-        <v>175341600</v>
+        <v>184672200</v>
       </c>
       <c r="G61" s="3">
-        <v>178943400</v>
+        <v>174524900</v>
       </c>
       <c r="H61" s="3">
-        <v>184418500</v>
+        <v>178109900</v>
       </c>
       <c r="I61" s="3">
-        <v>157747200</v>
+        <v>183559500</v>
       </c>
       <c r="J61" s="3">
+        <v>157012500</v>
+      </c>
+      <c r="K61" s="3">
         <v>165455900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>177721900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>168037300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>177259900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>169924000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>170161500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>170320800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>170531200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>173814100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>181108900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>177498700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>193974600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>200181500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>202397600</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2446900</v>
+        <v>2998900</v>
       </c>
       <c r="E62" s="3">
-        <v>2868200</v>
+        <v>2435500</v>
       </c>
       <c r="F62" s="3">
-        <v>3287200</v>
+        <v>2854800</v>
       </c>
       <c r="G62" s="3">
-        <v>2687500</v>
+        <v>3271900</v>
       </c>
       <c r="H62" s="3">
-        <v>2624300</v>
+        <v>2675000</v>
       </c>
       <c r="I62" s="3">
-        <v>2912800</v>
+        <v>2612100</v>
       </c>
       <c r="J62" s="3">
+        <v>2899200</v>
+      </c>
+      <c r="K62" s="3">
         <v>2347900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2149000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2154300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2212100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2074700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2102000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2181900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2039200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1407300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1256700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1190400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1612300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4355400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1895000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3975,8 +4123,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4040,8 +4191,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4105,73 +4259,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>819871300</v>
+        <v>824906200</v>
       </c>
       <c r="E66" s="3">
-        <v>878199200</v>
+        <v>816052500</v>
       </c>
       <c r="F66" s="3">
-        <v>830675700</v>
+        <v>874108700</v>
       </c>
       <c r="G66" s="3">
-        <v>844185000</v>
+        <v>826806600</v>
       </c>
       <c r="H66" s="3">
-        <v>851139300</v>
+        <v>840252900</v>
       </c>
       <c r="I66" s="3">
-        <v>852822100</v>
+        <v>847174900</v>
       </c>
       <c r="J66" s="3">
+        <v>848849800</v>
+      </c>
+      <c r="K66" s="3">
         <v>809456700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>838565000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>787811900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>829343500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>798363400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>752679500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>774513700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>786648300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>757796800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>748198600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>743262400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>797637200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>805597300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>789516700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4195,8 +4355,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4260,8 +4421,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4325,8 +4489,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4390,8 +4557,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4455,73 +4625,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>35610000</v>
+        <v>35914300</v>
       </c>
       <c r="E72" s="3">
-        <v>35465200</v>
+        <v>35444100</v>
       </c>
       <c r="F72" s="3">
-        <v>35739500</v>
+        <v>35300000</v>
       </c>
       <c r="G72" s="3">
-        <v>36305500</v>
+        <v>35573000</v>
       </c>
       <c r="H72" s="3">
-        <v>35711200</v>
+        <v>36136400</v>
       </c>
       <c r="I72" s="3">
-        <v>34631400</v>
+        <v>35544800</v>
       </c>
       <c r="J72" s="3">
+        <v>34470100</v>
+      </c>
+      <c r="K72" s="3">
         <v>33344800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>33264700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>30745800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>30930100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>29702700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>27703000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>26980600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>26316600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>25085900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>27221500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>26976400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>27495100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>26875900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>29587900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4585,8 +4761,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4650,8 +4829,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4715,73 +4897,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>47436400</v>
+        <v>48210000</v>
       </c>
       <c r="E76" s="3">
-        <v>48535800</v>
+        <v>47215400</v>
       </c>
       <c r="F76" s="3">
-        <v>46453500</v>
+        <v>48309700</v>
       </c>
       <c r="G76" s="3">
-        <v>49787500</v>
+        <v>46237100</v>
       </c>
       <c r="H76" s="3">
-        <v>50652900</v>
+        <v>49555600</v>
       </c>
       <c r="I76" s="3">
-        <v>52982300</v>
+        <v>50416900</v>
       </c>
       <c r="J76" s="3">
+        <v>52735500</v>
+      </c>
+      <c r="K76" s="3">
         <v>47506100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>50429800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>46460600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>48473500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>48366900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>44316000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>44612000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>43657500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>42091400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>44056200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>43689600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>43183300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>43385200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>45848700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4845,143 +5033,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>275400</v>
+        <v>470200</v>
       </c>
       <c r="E81" s="3">
-        <v>-274300</v>
+        <v>274100</v>
       </c>
       <c r="F81" s="3">
-        <v>-384200</v>
+        <v>-273000</v>
       </c>
       <c r="G81" s="3">
-        <v>594300</v>
+        <v>-382400</v>
       </c>
       <c r="H81" s="3">
-        <v>1264800</v>
+        <v>591500</v>
       </c>
       <c r="I81" s="3">
-        <v>1430300</v>
+        <v>1258900</v>
       </c>
       <c r="J81" s="3">
+        <v>1423600</v>
+      </c>
+      <c r="K81" s="3">
         <v>927400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>984000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>996800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>828400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>285200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>439700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>664000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>712200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2135600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>245100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>304400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>617200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2712000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5005,73 +5202,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>372300</v>
+        <v>341300</v>
       </c>
       <c r="E83" s="3">
-        <v>396200</v>
+        <v>370500</v>
       </c>
       <c r="F83" s="3">
-        <v>387500</v>
+        <v>394400</v>
       </c>
       <c r="G83" s="3">
-        <v>370100</v>
+        <v>385700</v>
       </c>
       <c r="H83" s="3">
-        <v>374400</v>
+        <v>368400</v>
       </c>
       <c r="I83" s="3">
-        <v>344000</v>
+        <v>372700</v>
       </c>
       <c r="J83" s="3">
+        <v>342400</v>
+      </c>
+      <c r="K83" s="3">
         <v>624800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>263600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>243600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>261000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>298400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>258200</v>
-      </c>
-      <c r="P83" s="3">
-        <v>213500</v>
       </c>
       <c r="Q83" s="3">
         <v>213500</v>
       </c>
       <c r="R83" s="3">
+        <v>213500</v>
+      </c>
+      <c r="S83" s="3">
         <v>244100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>216000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>218000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>226800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>240200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>242300</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5135,8 +5336,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5200,8 +5404,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5265,8 +5472,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5330,8 +5540,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5395,73 +5608,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>26209800</v>
+        <v>9034600</v>
       </c>
       <c r="E89" s="3">
-        <v>-3705200</v>
+        <v>26087700</v>
       </c>
       <c r="F89" s="3">
-        <v>-7097000</v>
+        <v>-3688000</v>
       </c>
       <c r="G89" s="3">
-        <v>2787600</v>
+        <v>-8013000</v>
       </c>
       <c r="H89" s="3">
-        <v>7201400</v>
+        <v>3723700</v>
       </c>
       <c r="I89" s="3">
-        <v>-9982500</v>
+        <v>7167900</v>
       </c>
       <c r="J89" s="3">
+        <v>-9936000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-7236300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9288500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4510600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8516700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-10878800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11184300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>9858300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2307100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-13452500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7114000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4884000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-7346000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>24547000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-7004300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5485,73 +5704,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-369000</v>
+        <v>-368400</v>
       </c>
       <c r="E91" s="3">
-        <v>-308000</v>
+        <v>-367300</v>
       </c>
       <c r="F91" s="3">
-        <v>-369000</v>
+        <v>-306600</v>
       </c>
       <c r="G91" s="3">
-        <v>-322200</v>
+        <v>-367300</v>
       </c>
       <c r="H91" s="3">
-        <v>-318900</v>
+        <v>-320700</v>
       </c>
       <c r="I91" s="3">
-        <v>-283000</v>
+        <v>-317400</v>
       </c>
       <c r="J91" s="3">
+        <v>-281700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-475700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-337300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-311700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-288700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-233500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-367100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-294500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-248400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-323500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-274200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-257200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-224700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-304400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-298200</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5615,8 +5838,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5680,73 +5906,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1135300</v>
+        <v>-11681400</v>
       </c>
       <c r="E94" s="3">
-        <v>-16844400</v>
+        <v>-1130000</v>
       </c>
       <c r="F94" s="3">
-        <v>13040100</v>
+        <v>-16765900</v>
       </c>
       <c r="G94" s="3">
-        <v>6520100</v>
+        <v>12979400</v>
       </c>
       <c r="H94" s="3">
-        <v>11068900</v>
+        <v>6489700</v>
       </c>
       <c r="I94" s="3">
-        <v>-12479500</v>
+        <v>11017300</v>
       </c>
       <c r="J94" s="3">
+        <v>-12421400</v>
+      </c>
+      <c r="K94" s="3">
         <v>3166400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-242400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2051100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2311700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-493300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>824400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>4866600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-12808900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>23224500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8396800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>3455500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7649400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-14118300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>6844800</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5770,8 +6002,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5782,16 +6015,16 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-389700</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-387900</v>
       </c>
       <c r="H96" s="3">
-        <v>-389700</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-387900</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -5800,43 +6033,46 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-739400</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-1100</v>
       </c>
       <c r="N96" s="3">
         <v>-1100</v>
       </c>
       <c r="O96" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-679400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-3100</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-1000</v>
       </c>
       <c r="S96" s="3">
         <v>-1000</v>
       </c>
       <c r="T96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-588600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-2100</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5900,8 +6136,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5965,8 +6204,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6030,199 +6272,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9799700</v>
+        <v>8249200</v>
       </c>
       <c r="E100" s="3">
-        <v>11140700</v>
+        <v>-9754000</v>
       </c>
       <c r="F100" s="3">
-        <v>-3358000</v>
+        <v>11088800</v>
       </c>
       <c r="G100" s="3">
-        <v>-2242300</v>
+        <v>-3342400</v>
       </c>
       <c r="H100" s="3">
-        <v>-3944700</v>
+        <v>-2231800</v>
       </c>
       <c r="I100" s="3">
-        <v>41916700</v>
+        <v>-3926300</v>
       </c>
       <c r="J100" s="3">
+        <v>41721400</v>
+      </c>
+      <c r="K100" s="3">
         <v>11619600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>12785600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4073400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4309200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>16266900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-29249100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-21541400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>19783400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5639400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4152700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1032600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4215600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4487900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-9169500</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1045000</v>
+        <v>240500</v>
       </c>
       <c r="E101" s="3">
-        <v>3066300</v>
+        <v>-1040100</v>
       </c>
       <c r="F101" s="3">
-        <v>-1179900</v>
+        <v>3052000</v>
       </c>
       <c r="G101" s="3">
-        <v>-805500</v>
+        <v>-1174400</v>
       </c>
       <c r="H101" s="3">
-        <v>-286300</v>
+        <v>-801700</v>
       </c>
       <c r="I101" s="3">
-        <v>-631300</v>
+        <v>-284900</v>
       </c>
       <c r="J101" s="3">
+        <v>-628400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-870800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>379800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-804300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>673600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>481200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-937500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1076600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-587000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-78400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>861900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-857900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-779700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1847400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-70400</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>14229800</v>
+        <v>5842900</v>
       </c>
       <c r="E102" s="3">
-        <v>-6342600</v>
+        <v>14163500</v>
       </c>
       <c r="F102" s="3">
-        <v>1405200</v>
+        <v>-6313100</v>
       </c>
       <c r="G102" s="3">
-        <v>6259900</v>
+        <v>1398700</v>
       </c>
       <c r="H102" s="3">
-        <v>14039300</v>
+        <v>6230700</v>
       </c>
       <c r="I102" s="3">
-        <v>18823300</v>
+        <v>13974000</v>
       </c>
       <c r="J102" s="3">
+        <v>18735600</v>
+      </c>
+      <c r="K102" s="3">
         <v>6679000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3634500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2418100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5845600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5618300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-18218400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5799500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>8568300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4054200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4573600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>8514300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-19990700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>16764000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-9399400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>CS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,163 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2591500</v>
+        <v>2410700</v>
       </c>
       <c r="E8" s="3">
-        <v>3119200</v>
+        <v>2559400</v>
       </c>
       <c r="F8" s="3">
-        <v>3309800</v>
+        <v>3080500</v>
       </c>
       <c r="G8" s="3">
-        <v>3022700</v>
+        <v>3268800</v>
       </c>
       <c r="H8" s="3">
-        <v>3515700</v>
+        <v>2985200</v>
       </c>
       <c r="I8" s="3">
-        <v>3888400</v>
+        <v>3472100</v>
       </c>
       <c r="J8" s="3">
+        <v>3840200</v>
+      </c>
+      <c r="K8" s="3">
         <v>4653300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4771900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5952200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6013800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5329000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6072000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4726700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5223700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4567900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4158700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4292300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4622800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4185600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3945300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4372000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -882,8 +888,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +959,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +988,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1044,8 +1057,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1112,8 +1128,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1180,58 +1199,61 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K15" s="3">
         <v>-2200</v>
       </c>
-      <c r="E15" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>-1100</v>
       </c>
-      <c r="J15" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="N15" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="M15" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="N15" s="3">
-        <v>-2200</v>
       </c>
       <c r="O15" s="3">
         <v>-2200</v>
       </c>
       <c r="P15" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="Q15" s="3">
         <v>-2100</v>
       </c>
       <c r="R15" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="S15" s="3">
         <v>-3100</v>
-      </c>
-      <c r="S15" s="3">
-        <v>-2000</v>
       </c>
       <c r="T15" s="3">
         <v>-2000</v>
@@ -1240,16 +1262,19 @@
         <v>-2000</v>
       </c>
       <c r="V15" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="W15" s="3">
         <v>-3100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-1000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1271,144 +1296,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>893800</v>
+        <v>979000</v>
       </c>
       <c r="E17" s="3">
-        <v>1558000</v>
+        <v>882700</v>
       </c>
       <c r="F17" s="3">
-        <v>6278400</v>
+        <v>1538600</v>
       </c>
       <c r="G17" s="3">
-        <v>1603500</v>
+        <v>6200500</v>
       </c>
       <c r="H17" s="3">
-        <v>2105100</v>
+        <v>1583600</v>
       </c>
       <c r="I17" s="3">
-        <v>2508100</v>
+        <v>2079000</v>
       </c>
       <c r="J17" s="3">
+        <v>2477000</v>
+      </c>
+      <c r="K17" s="3">
         <v>3606700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3078200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4042200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3911700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3724100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3480900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3322600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3663800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2990600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2629800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2695100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2960300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2549500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2343400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2430400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1697700</v>
+        <v>1431600</v>
       </c>
       <c r="E18" s="3">
-        <v>1561200</v>
+        <v>1676700</v>
       </c>
       <c r="F18" s="3">
-        <v>-2968600</v>
+        <v>1541800</v>
       </c>
       <c r="G18" s="3">
-        <v>1419300</v>
+        <v>-2931700</v>
       </c>
       <c r="H18" s="3">
-        <v>1410600</v>
+        <v>1401700</v>
       </c>
       <c r="I18" s="3">
-        <v>1380300</v>
+        <v>1393100</v>
       </c>
       <c r="J18" s="3">
+        <v>1363200</v>
+      </c>
+      <c r="K18" s="3">
         <v>1046600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1693700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1910000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2102100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1604900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2591100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1404100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1559900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1577400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1528900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1597200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1662500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1636100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1601900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1941600</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1433,144 +1465,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-605600</v>
+        <v>-3212100</v>
       </c>
       <c r="E20" s="3">
-        <v>-680400</v>
+        <v>-598100</v>
       </c>
       <c r="F20" s="3">
-        <v>2148400</v>
+        <v>-671900</v>
       </c>
       <c r="G20" s="3">
-        <v>-1514600</v>
+        <v>2121800</v>
       </c>
       <c r="H20" s="3">
-        <v>-540600</v>
+        <v>-1495800</v>
       </c>
       <c r="I20" s="3">
-        <v>300100</v>
+        <v>-533900</v>
       </c>
       <c r="J20" s="3">
+        <v>296400</v>
+      </c>
+      <c r="K20" s="3">
         <v>254600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-372300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-634400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-717000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-430300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1935900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-708300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-480300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-495700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1387200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1195400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1077800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-942300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3883200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1711700</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1433400</v>
+        <v>380900</v>
       </c>
       <c r="E21" s="3">
-        <v>1251400</v>
+        <v>1415600</v>
       </c>
       <c r="F21" s="3">
-        <v>-425800</v>
+        <v>1235800</v>
       </c>
       <c r="G21" s="3">
-        <v>290400</v>
+        <v>-420500</v>
       </c>
       <c r="H21" s="3">
-        <v>1238300</v>
+        <v>286800</v>
       </c>
       <c r="I21" s="3">
-        <v>2053100</v>
+        <v>1223000</v>
       </c>
       <c r="J21" s="3">
+        <v>2027600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1643500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1946200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1539100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1628700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1435700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>953600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>954100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1293100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1295200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>385700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>617800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>802600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>920600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2041000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1637,144 +1676,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1092100</v>
+        <v>-1780400</v>
       </c>
       <c r="E23" s="3">
-        <v>880800</v>
+        <v>1078500</v>
       </c>
       <c r="F23" s="3">
-        <v>-820100</v>
+        <v>869900</v>
       </c>
       <c r="G23" s="3">
-        <v>-95300</v>
+        <v>-810000</v>
       </c>
       <c r="H23" s="3">
-        <v>870000</v>
+        <v>-94200</v>
       </c>
       <c r="I23" s="3">
-        <v>1680400</v>
+        <v>859200</v>
       </c>
       <c r="J23" s="3">
+        <v>1659500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1301200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1321400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1275500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1385100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1174600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>655200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>695800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1079600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1081700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>141600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>401800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>584600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>693800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2281300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>617500</v>
+        <v>445100</v>
       </c>
       <c r="E24" s="3">
-        <v>613200</v>
+        <v>609900</v>
       </c>
       <c r="F24" s="3">
-        <v>-569900</v>
+        <v>605600</v>
       </c>
       <c r="G24" s="3">
-        <v>283900</v>
+        <v>-562800</v>
       </c>
       <c r="H24" s="3">
-        <v>279500</v>
+        <v>280300</v>
       </c>
       <c r="I24" s="3">
-        <v>423600</v>
+        <v>276100</v>
       </c>
       <c r="J24" s="3">
+        <v>418400</v>
+      </c>
+      <c r="K24" s="3">
         <v>-119200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>392900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>285900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>388300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>346200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>374400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>270700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>408500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>371500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-66300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>153700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>277200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>80800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>428700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1841,144 +1889,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>474500</v>
+        <v>-2225600</v>
       </c>
       <c r="E26" s="3">
-        <v>267600</v>
+        <v>468700</v>
       </c>
       <c r="F26" s="3">
-        <v>-250300</v>
+        <v>264300</v>
       </c>
       <c r="G26" s="3">
-        <v>-379200</v>
+        <v>-247200</v>
       </c>
       <c r="H26" s="3">
-        <v>590500</v>
+        <v>-374500</v>
       </c>
       <c r="I26" s="3">
-        <v>1256800</v>
+        <v>583100</v>
       </c>
       <c r="J26" s="3">
+        <v>1241200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1420400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>928500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>989600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>996800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>828400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>280800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>425200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>671200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>710200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>207900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>248100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>307400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>613000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2710000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>470200</v>
+        <v>-2230900</v>
       </c>
       <c r="E27" s="3">
-        <v>274100</v>
+        <v>464400</v>
       </c>
       <c r="F27" s="3">
-        <v>-273000</v>
+        <v>270700</v>
       </c>
       <c r="G27" s="3">
-        <v>-382400</v>
+        <v>-269600</v>
       </c>
       <c r="H27" s="3">
-        <v>591500</v>
+        <v>-377700</v>
       </c>
       <c r="I27" s="3">
-        <v>1258900</v>
+        <v>584200</v>
       </c>
       <c r="J27" s="3">
+        <v>1243300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1423600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>927400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>984000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>996800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>828400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>285200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>439700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>664000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>712200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>174800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>245100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>304400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>617200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2712000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2045,8 +2102,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2077,8 +2137,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -2095,26 +2155,29 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>-2310400</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2181,8 +2244,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2249,144 +2315,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>605600</v>
+        <v>3212100</v>
       </c>
       <c r="E32" s="3">
-        <v>680400</v>
+        <v>598100</v>
       </c>
       <c r="F32" s="3">
-        <v>-2148400</v>
+        <v>671900</v>
       </c>
       <c r="G32" s="3">
-        <v>1514600</v>
+        <v>-2121800</v>
       </c>
       <c r="H32" s="3">
-        <v>540600</v>
+        <v>1495800</v>
       </c>
       <c r="I32" s="3">
-        <v>-300100</v>
+        <v>533900</v>
       </c>
       <c r="J32" s="3">
+        <v>-296400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-254600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>372300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>634400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>717000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>430300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1935900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>708300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>480300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>495700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1387200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1195400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1077800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>942300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3883200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1711700</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>470200</v>
+        <v>-2230900</v>
       </c>
       <c r="E33" s="3">
-        <v>274100</v>
+        <v>464400</v>
       </c>
       <c r="F33" s="3">
-        <v>-273000</v>
+        <v>270700</v>
       </c>
       <c r="G33" s="3">
-        <v>-382400</v>
+        <v>-269600</v>
       </c>
       <c r="H33" s="3">
-        <v>591500</v>
+        <v>-377700</v>
       </c>
       <c r="I33" s="3">
-        <v>1258900</v>
+        <v>584200</v>
       </c>
       <c r="J33" s="3">
+        <v>1243300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1423600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>927400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>984000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>996800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>828400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>285200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>439700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>664000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>712200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2135600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>245100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>304400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>617200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2712000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2453,149 +2528,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>470200</v>
+        <v>-2230900</v>
       </c>
       <c r="E35" s="3">
-        <v>274100</v>
+        <v>464400</v>
       </c>
       <c r="F35" s="3">
-        <v>-273000</v>
+        <v>270700</v>
       </c>
       <c r="G35" s="3">
-        <v>-382400</v>
+        <v>-269600</v>
       </c>
       <c r="H35" s="3">
-        <v>591500</v>
+        <v>-377700</v>
       </c>
       <c r="I35" s="3">
-        <v>1258900</v>
+        <v>584200</v>
       </c>
       <c r="J35" s="3">
+        <v>1243300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1423600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>927400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>984000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>996800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>828400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>285200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>439700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>664000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>712200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2135600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>245100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>304400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>617200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2712000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2620,8 +2704,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2646,144 +2731,151 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>164410100</v>
+        <v>176352000</v>
       </c>
       <c r="E41" s="3">
-        <v>158567200</v>
+        <v>162370500</v>
       </c>
       <c r="F41" s="3">
-        <v>144403600</v>
+        <v>156600100</v>
       </c>
       <c r="G41" s="3">
-        <v>150716700</v>
+        <v>142612300</v>
       </c>
       <c r="H41" s="3">
-        <v>149318000</v>
+        <v>148847100</v>
       </c>
       <c r="I41" s="3">
-        <v>143087300</v>
+        <v>147465700</v>
       </c>
       <c r="J41" s="3">
+        <v>141312300</v>
+      </c>
+      <c r="K41" s="3">
         <v>129113300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>110894300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>106939200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>98392600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>104813400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>110171800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>98459900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>115468700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>121268200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>110311400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>106257100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>110830700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>105473900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>125464600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>108700600</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>267998000</v>
+        <v>245276900</v>
       </c>
       <c r="E42" s="3">
-        <v>257734800</v>
+        <v>264673500</v>
       </c>
       <c r="F42" s="3">
-        <v>285092200</v>
+        <v>254537500</v>
       </c>
       <c r="G42" s="3">
-        <v>271186500</v>
+        <v>281555600</v>
       </c>
       <c r="H42" s="3">
-        <v>290455200</v>
+        <v>267822400</v>
       </c>
       <c r="I42" s="3">
-        <v>298185400</v>
+        <v>286852000</v>
       </c>
       <c r="J42" s="3">
+        <v>294486300</v>
+      </c>
+      <c r="K42" s="3">
         <v>297518000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>294748900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>312658300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>285838400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>298811400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>286736000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>264012800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>272227400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>278622000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>285284700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>297761800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>285608100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>324448100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>325650300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>323868200</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2850,8 +2942,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2918,8 +3013,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2986,8 +3084,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3054,67 +3155,70 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1239400</v>
+        <v>1086000</v>
       </c>
       <c r="E47" s="3">
-        <v>1333700</v>
+        <v>1224100</v>
       </c>
       <c r="F47" s="3">
-        <v>1379200</v>
+        <v>1317100</v>
       </c>
       <c r="G47" s="3">
-        <v>1355400</v>
+        <v>1362100</v>
       </c>
       <c r="H47" s="3">
-        <v>1475600</v>
+        <v>1338500</v>
       </c>
       <c r="I47" s="3">
-        <v>1593700</v>
+        <v>1457300</v>
       </c>
       <c r="J47" s="3">
+        <v>1573900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1554700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1536900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2672800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2544700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2730900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2716700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2579100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3067500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3015200</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3122,144 +3226,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8134300</v>
+        <v>7816200</v>
       </c>
       <c r="E48" s="3">
-        <v>8047600</v>
+        <v>8033400</v>
       </c>
       <c r="F48" s="3">
-        <v>8150600</v>
+        <v>7947800</v>
       </c>
       <c r="G48" s="3">
-        <v>7991300</v>
+        <v>8049500</v>
       </c>
       <c r="H48" s="3">
-        <v>8157100</v>
+        <v>7892200</v>
       </c>
       <c r="I48" s="3">
-        <v>8288200</v>
+        <v>8055900</v>
       </c>
       <c r="J48" s="3">
+        <v>8185300</v>
+      </c>
+      <c r="K48" s="3">
         <v>8374800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8525100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8717700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8230900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8935900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5327600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5003600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4957900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4799900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4707200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4611800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4545500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4832800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4878300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4804800</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5253500</v>
+        <v>3416400</v>
       </c>
       <c r="E49" s="3">
-        <v>5236200</v>
+        <v>5188300</v>
       </c>
       <c r="F49" s="3">
+        <v>5171200</v>
+      </c>
+      <c r="G49" s="3">
+        <v>5224700</v>
+      </c>
+      <c r="H49" s="3">
+        <v>4989300</v>
+      </c>
+      <c r="I49" s="3">
+        <v>5171200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5295300</v>
+      </c>
+      <c r="K49" s="3">
         <v>5290300</v>
       </c>
-      <c r="G49" s="3">
-        <v>5052000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>5236200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>5361800</v>
-      </c>
-      <c r="J49" s="3">
-        <v>5290300</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5392400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5561200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5262800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5564600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5489500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5133200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5140600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5007200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4987400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4956300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4890000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5211800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5308100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5091700</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3326,8 +3439,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3394,76 +3510,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>21197100</v>
+        <v>17162500</v>
       </c>
       <c r="E52" s="3">
-        <v>16819000</v>
+        <v>20934200</v>
       </c>
       <c r="F52" s="3">
-        <v>22033500</v>
+        <v>16610400</v>
       </c>
       <c r="G52" s="3">
-        <v>14862400</v>
+        <v>21760200</v>
       </c>
       <c r="H52" s="3">
-        <v>15278400</v>
+        <v>14678000</v>
       </c>
       <c r="I52" s="3">
-        <v>15814700</v>
+        <v>15088900</v>
       </c>
       <c r="J52" s="3">
+        <v>15618500</v>
+      </c>
+      <c r="K52" s="3">
         <v>18501600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17806600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>18874100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15735100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17019100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>14982900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>14439500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>16334100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>17028900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11088900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>16777500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>19371200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>17695000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>16085800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>21881600</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3530,76 +3652,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>873116300</v>
+        <v>808726200</v>
       </c>
       <c r="E54" s="3">
-        <v>863268000</v>
+        <v>862285100</v>
       </c>
       <c r="F54" s="3">
-        <v>922418400</v>
+        <v>852559000</v>
       </c>
       <c r="G54" s="3">
-        <v>873043700</v>
+        <v>910975600</v>
       </c>
       <c r="H54" s="3">
-        <v>889808500</v>
+        <v>862213400</v>
       </c>
       <c r="I54" s="3">
-        <v>897591800</v>
+        <v>878770300</v>
       </c>
       <c r="J54" s="3">
+        <v>886457000</v>
+      </c>
+      <c r="K54" s="3">
         <v>901585300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>856962700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>888994900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>834272500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>877817000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>846730300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>796995500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>819125600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>830305800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>799888200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>792254900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>786952000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>840820500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>848982500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>835365400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3624,8 +3752,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3650,76 +3779,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>27647800</v>
+        <v>18220700</v>
       </c>
       <c r="E57" s="3">
-        <v>26608800</v>
+        <v>27304800</v>
       </c>
       <c r="F57" s="3">
-        <v>34172200</v>
+        <v>26278700</v>
       </c>
       <c r="G57" s="3">
-        <v>28114700</v>
+        <v>33748200</v>
       </c>
       <c r="H57" s="3">
-        <v>36809200</v>
+        <v>27766000</v>
       </c>
       <c r="I57" s="3">
-        <v>39980400</v>
+        <v>36352600</v>
       </c>
       <c r="J57" s="3">
+        <v>39484400</v>
+      </c>
+      <c r="K57" s="3">
         <v>53854600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33508100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>43489200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>43260600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>47636200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>39733500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>46906500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>41249900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>44279400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>49115000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>37807100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>39269700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>48311200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>47521000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>49537200</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3786,76 +3919,82 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3562300</v>
+        <v>3505300</v>
       </c>
       <c r="E59" s="3">
-        <v>3547100</v>
+        <v>3518100</v>
       </c>
       <c r="F59" s="3">
-        <v>3585000</v>
+        <v>3503100</v>
       </c>
       <c r="G59" s="3">
-        <v>3590500</v>
+        <v>3540600</v>
       </c>
       <c r="H59" s="3">
-        <v>3694500</v>
+        <v>3545900</v>
       </c>
       <c r="I59" s="3">
-        <v>3774600</v>
+        <v>3648600</v>
       </c>
       <c r="J59" s="3">
+        <v>3727800</v>
+      </c>
+      <c r="K59" s="3">
         <v>3948000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4235300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4267800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4545700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4860100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1020800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>767400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>683500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>738900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>703200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>604700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>528400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>604700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>658600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>889500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3922,144 +4061,153 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>189945200</v>
+        <v>178575400</v>
       </c>
       <c r="E61" s="3">
-        <v>184427300</v>
+        <v>187588900</v>
       </c>
       <c r="F61" s="3">
-        <v>184672200</v>
+        <v>182139500</v>
       </c>
       <c r="G61" s="3">
-        <v>174524900</v>
+        <v>182381300</v>
       </c>
       <c r="H61" s="3">
-        <v>178109900</v>
+        <v>172359900</v>
       </c>
       <c r="I61" s="3">
-        <v>183559500</v>
+        <v>175900400</v>
       </c>
       <c r="J61" s="3">
+        <v>181282400</v>
+      </c>
+      <c r="K61" s="3">
         <v>157012500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>165455900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>177721900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>168037300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>177259900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>169924000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>170161500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>170320800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>170531200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>173814100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>181108900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>177498700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>193974600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>200181500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>202397600</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2998900</v>
+        <v>3244200</v>
       </c>
       <c r="E62" s="3">
-        <v>2435500</v>
+        <v>2961700</v>
       </c>
       <c r="F62" s="3">
-        <v>2854800</v>
+        <v>2405300</v>
       </c>
       <c r="G62" s="3">
-        <v>3271900</v>
+        <v>2819400</v>
       </c>
       <c r="H62" s="3">
-        <v>2675000</v>
+        <v>3231300</v>
       </c>
       <c r="I62" s="3">
-        <v>2612100</v>
+        <v>2641800</v>
       </c>
       <c r="J62" s="3">
+        <v>2579700</v>
+      </c>
+      <c r="K62" s="3">
         <v>2899200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2347900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2149000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2154300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2212100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2074700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2102000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2181900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2039200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1407300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1256700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1190400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1612300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4355400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1895000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4126,8 +4274,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4194,8 +4345,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4262,76 +4416,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>824906200</v>
+        <v>761696300</v>
       </c>
       <c r="E66" s="3">
-        <v>816052500</v>
+        <v>814673100</v>
       </c>
       <c r="F66" s="3">
-        <v>874108700</v>
+        <v>805929300</v>
       </c>
       <c r="G66" s="3">
-        <v>826806600</v>
+        <v>863265200</v>
       </c>
       <c r="H66" s="3">
-        <v>840252900</v>
+        <v>816549900</v>
       </c>
       <c r="I66" s="3">
-        <v>847174900</v>
+        <v>829829400</v>
       </c>
       <c r="J66" s="3">
+        <v>836665500</v>
+      </c>
+      <c r="K66" s="3">
         <v>848849800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>809456700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>838565000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>787811900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>829343500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>798363400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>752679500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>774513700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>786648300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>757796800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>748198600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>743262400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>797637200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>805597300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>789516700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4356,8 +4516,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4424,8 +4585,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4492,8 +4656,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4560,8 +4727,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4628,76 +4798,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>35914300</v>
+        <v>33237900</v>
       </c>
       <c r="E72" s="3">
-        <v>35444100</v>
+        <v>35468800</v>
       </c>
       <c r="F72" s="3">
-        <v>35300000</v>
+        <v>35004400</v>
       </c>
       <c r="G72" s="3">
-        <v>35573000</v>
+        <v>34862100</v>
       </c>
       <c r="H72" s="3">
-        <v>36136400</v>
+        <v>35131700</v>
       </c>
       <c r="I72" s="3">
-        <v>35544800</v>
+        <v>35688100</v>
       </c>
       <c r="J72" s="3">
+        <v>35103900</v>
+      </c>
+      <c r="K72" s="3">
         <v>34470100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>33344800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>33264700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>30745800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>30930100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>29702700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>27703000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>26980600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>26316600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>25085900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>27221500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>26976400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>27495100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>26875900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>29587900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4764,8 +4940,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4832,8 +5011,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4900,76 +5082,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>48210000</v>
+        <v>47029900</v>
       </c>
       <c r="E76" s="3">
-        <v>47215400</v>
+        <v>47612000</v>
       </c>
       <c r="F76" s="3">
-        <v>48309700</v>
+        <v>46629700</v>
       </c>
       <c r="G76" s="3">
-        <v>46237100</v>
+        <v>47710400</v>
       </c>
       <c r="H76" s="3">
-        <v>49555600</v>
+        <v>45663500</v>
       </c>
       <c r="I76" s="3">
-        <v>50416900</v>
+        <v>48940900</v>
       </c>
       <c r="J76" s="3">
+        <v>49791500</v>
+      </c>
+      <c r="K76" s="3">
         <v>52735500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>47506100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>50429800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>46460600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>48473500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>48366900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>44316000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>44612000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>43657500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>42091400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>44056200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>43689600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>43183300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>43385200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>45848700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5036,149 +5224,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>470200</v>
+        <v>-2230900</v>
       </c>
       <c r="E81" s="3">
-        <v>274100</v>
+        <v>464400</v>
       </c>
       <c r="F81" s="3">
-        <v>-273000</v>
+        <v>270700</v>
       </c>
       <c r="G81" s="3">
-        <v>-382400</v>
+        <v>-269600</v>
       </c>
       <c r="H81" s="3">
-        <v>591500</v>
+        <v>-377700</v>
       </c>
       <c r="I81" s="3">
-        <v>1258900</v>
+        <v>584200</v>
       </c>
       <c r="J81" s="3">
+        <v>1243300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1423600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>927400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>984000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>996800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>828400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>285200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>439700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>664000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>712200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2135600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>245100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>304400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>617200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2712000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5203,76 +5400,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>341300</v>
+        <v>2161400</v>
       </c>
       <c r="E83" s="3">
-        <v>370500</v>
+        <v>337000</v>
       </c>
       <c r="F83" s="3">
-        <v>394400</v>
+        <v>365900</v>
       </c>
       <c r="G83" s="3">
-        <v>385700</v>
+        <v>389500</v>
       </c>
       <c r="H83" s="3">
-        <v>368400</v>
+        <v>380900</v>
       </c>
       <c r="I83" s="3">
-        <v>372700</v>
+        <v>363800</v>
       </c>
       <c r="J83" s="3">
+        <v>368100</v>
+      </c>
+      <c r="K83" s="3">
         <v>342400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>624800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>263600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>243600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>261000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>298400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>258200</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>213500</v>
       </c>
       <c r="R83" s="3">
         <v>213500</v>
       </c>
       <c r="S83" s="3">
+        <v>213500</v>
+      </c>
+      <c r="T83" s="3">
         <v>244100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>216000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>218000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>226800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>240200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>242300</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5339,8 +5540,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5407,8 +5611,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5475,8 +5682,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5543,8 +5753,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5611,76 +5824,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9034600</v>
+        <v>8478500</v>
       </c>
       <c r="E89" s="3">
-        <v>26087700</v>
+        <v>8922600</v>
       </c>
       <c r="F89" s="3">
-        <v>-3688000</v>
+        <v>25764000</v>
       </c>
       <c r="G89" s="3">
-        <v>-8013000</v>
+        <v>-3642200</v>
       </c>
       <c r="H89" s="3">
-        <v>3723700</v>
+        <v>-7913600</v>
       </c>
       <c r="I89" s="3">
-        <v>7167900</v>
+        <v>3677500</v>
       </c>
       <c r="J89" s="3">
+        <v>7079000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-9936000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7236300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9288500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4510600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8516700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-10878800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>11184300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>9858300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2307100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-13452500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7114000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4884000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-7346000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>24547000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-7004300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5705,76 +5924,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-368400</v>
+        <v>-489000</v>
       </c>
       <c r="E91" s="3">
-        <v>-367300</v>
+        <v>-363800</v>
       </c>
       <c r="F91" s="3">
-        <v>-306600</v>
+        <v>-362700</v>
       </c>
       <c r="G91" s="3">
-        <v>-367300</v>
+        <v>-302800</v>
       </c>
       <c r="H91" s="3">
-        <v>-320700</v>
+        <v>-362700</v>
       </c>
       <c r="I91" s="3">
-        <v>-317400</v>
+        <v>-316700</v>
       </c>
       <c r="J91" s="3">
+        <v>-313500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-281700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-475700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-337300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-311700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-288700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-233500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-367100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-294500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-248400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-323500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-274200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-257200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-224700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-304400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-298200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5841,8 +6064,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5909,76 +6135,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11681400</v>
+        <v>18422900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1130000</v>
+        <v>-11536500</v>
       </c>
       <c r="F94" s="3">
-        <v>-16765900</v>
+        <v>-1116000</v>
       </c>
       <c r="G94" s="3">
-        <v>12979400</v>
+        <v>-16557900</v>
       </c>
       <c r="H94" s="3">
-        <v>6489700</v>
+        <v>12818400</v>
       </c>
       <c r="I94" s="3">
-        <v>11017300</v>
+        <v>6409200</v>
       </c>
       <c r="J94" s="3">
+        <v>10880600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-12421400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3166400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-242400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2051100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2311700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-493300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>824400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>4866600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-12808900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>23224500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8396800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>3455500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-7649400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-14118300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>6844800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6003,8 +6235,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6018,16 +6251,16 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-387900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-383100</v>
       </c>
       <c r="I96" s="3">
-        <v>-387900</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-383100</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -6036,43 +6269,46 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-739400</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-1100</v>
       </c>
       <c r="O96" s="3">
         <v>-1100</v>
       </c>
       <c r="P96" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-679400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-3100</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-1000</v>
       </c>
       <c r="T96" s="3">
         <v>-1000</v>
       </c>
       <c r="U96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-588600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-2100</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6139,8 +6375,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6207,8 +6446,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6275,208 +6517,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>8249200</v>
+        <v>-9515300</v>
       </c>
       <c r="E100" s="3">
-        <v>-9754000</v>
+        <v>8146800</v>
       </c>
       <c r="F100" s="3">
-        <v>11088800</v>
+        <v>-9633000</v>
       </c>
       <c r="G100" s="3">
-        <v>-3342400</v>
+        <v>10951200</v>
       </c>
       <c r="H100" s="3">
-        <v>-2231800</v>
+        <v>-3300900</v>
       </c>
       <c r="I100" s="3">
-        <v>-3926300</v>
+        <v>-2204200</v>
       </c>
       <c r="J100" s="3">
+        <v>-3877600</v>
+      </c>
+      <c r="K100" s="3">
         <v>41721400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>11619600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>12785600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4073400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4309200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>16266900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-29249100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-21541400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>19783400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5639400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4152700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1032600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4215600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>4487900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-9169500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>240500</v>
+        <v>-3404700</v>
       </c>
       <c r="E101" s="3">
-        <v>-1040100</v>
+        <v>237500</v>
       </c>
       <c r="F101" s="3">
-        <v>3052000</v>
+        <v>-1027200</v>
       </c>
       <c r="G101" s="3">
-        <v>-1174400</v>
+        <v>3014100</v>
       </c>
       <c r="H101" s="3">
-        <v>-801700</v>
+        <v>-1159900</v>
       </c>
       <c r="I101" s="3">
-        <v>-284900</v>
+        <v>-791800</v>
       </c>
       <c r="J101" s="3">
+        <v>-281400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-628400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-870800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>379800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-804300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>673600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>481200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-937500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1076600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-587000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-78400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>861900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-857900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-779700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1847400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-70400</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5842900</v>
+        <v>13981400</v>
       </c>
       <c r="E102" s="3">
-        <v>14163500</v>
+        <v>5770400</v>
       </c>
       <c r="F102" s="3">
-        <v>-6313100</v>
+        <v>13987800</v>
       </c>
       <c r="G102" s="3">
-        <v>1398700</v>
+        <v>-6234800</v>
       </c>
       <c r="H102" s="3">
-        <v>6230700</v>
+        <v>1381300</v>
       </c>
       <c r="I102" s="3">
-        <v>13974000</v>
+        <v>6153500</v>
       </c>
       <c r="J102" s="3">
+        <v>13800600</v>
+      </c>
+      <c r="K102" s="3">
         <v>18735600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6679000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3634500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2418100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5845600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5618300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-18218400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5799500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8568300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4054200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4573600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>8514300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-19990700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>16764000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-9399400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>CS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,163 +665,169 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2410700</v>
+        <v>2227500</v>
       </c>
       <c r="E8" s="3">
-        <v>2559400</v>
+        <v>2246500</v>
       </c>
       <c r="F8" s="3">
-        <v>3080500</v>
+        <v>2385100</v>
       </c>
       <c r="G8" s="3">
-        <v>3268800</v>
+        <v>2870700</v>
       </c>
       <c r="H8" s="3">
-        <v>2985200</v>
+        <v>3046200</v>
       </c>
       <c r="I8" s="3">
-        <v>3472100</v>
+        <v>2781900</v>
       </c>
       <c r="J8" s="3">
+        <v>3235600</v>
+      </c>
+      <c r="K8" s="3">
         <v>3840200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4653300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4771900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5952200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6013800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5329000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6072000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4726700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5223700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4567900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4158700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4292300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4622800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4185600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3945300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4372000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -891,8 +897,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,8 +971,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -989,8 +1001,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1060,8 +1073,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1131,8 +1147,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1202,61 +1221,64 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-2100</v>
+        <v>-1000</v>
       </c>
       <c r="E15" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="F15" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="G15" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="H15" s="3">
-        <v>-3200</v>
+        <v>-2000</v>
       </c>
       <c r="I15" s="3">
-        <v>-2100</v>
+        <v>-3000</v>
       </c>
       <c r="J15" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K15" s="3">
         <v>-1100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-2200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-1100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-6700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O15" s="3">
-        <v>-2200</v>
       </c>
       <c r="P15" s="3">
         <v>-2200</v>
       </c>
       <c r="Q15" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="R15" s="3">
         <v>-2100</v>
       </c>
       <c r="S15" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="T15" s="3">
         <v>-3100</v>
-      </c>
-      <c r="T15" s="3">
-        <v>-2000</v>
       </c>
       <c r="U15" s="3">
         <v>-2000</v>
@@ -1265,16 +1287,19 @@
         <v>-2000</v>
       </c>
       <c r="W15" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="X15" s="3">
         <v>-3100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1297,150 +1322,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>979000</v>
+        <v>663100</v>
       </c>
       <c r="E17" s="3">
-        <v>882700</v>
+        <v>912400</v>
       </c>
       <c r="F17" s="3">
-        <v>1538600</v>
+        <v>822600</v>
       </c>
       <c r="G17" s="3">
-        <v>6200500</v>
+        <v>1433800</v>
       </c>
       <c r="H17" s="3">
-        <v>1583600</v>
+        <v>5778300</v>
       </c>
       <c r="I17" s="3">
-        <v>2079000</v>
+        <v>1475700</v>
       </c>
       <c r="J17" s="3">
+        <v>1937400</v>
+      </c>
+      <c r="K17" s="3">
         <v>2477000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3606700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3078200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4042200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3911700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3724100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3480900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3322600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3663800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2990600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2629800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2695100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2960300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2549500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2343400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2430400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1431600</v>
+        <v>1564500</v>
       </c>
       <c r="E18" s="3">
-        <v>1676700</v>
+        <v>1334100</v>
       </c>
       <c r="F18" s="3">
-        <v>1541800</v>
+        <v>1562500</v>
       </c>
       <c r="G18" s="3">
-        <v>-2931700</v>
+        <v>1436800</v>
       </c>
       <c r="H18" s="3">
-        <v>1401700</v>
+        <v>-2732100</v>
       </c>
       <c r="I18" s="3">
-        <v>1393100</v>
+        <v>1306200</v>
       </c>
       <c r="J18" s="3">
+        <v>1298200</v>
+      </c>
+      <c r="K18" s="3">
         <v>1363200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1046600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1693700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1910000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2102100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1604900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2591100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1404100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1559900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1577400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1528900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1597200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1662500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1636100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1601900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1941600</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1466,150 +1498,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3212100</v>
+        <v>-1991200</v>
       </c>
       <c r="E20" s="3">
-        <v>-598100</v>
+        <v>-2993300</v>
       </c>
       <c r="F20" s="3">
-        <v>-671900</v>
+        <v>-557400</v>
       </c>
       <c r="G20" s="3">
-        <v>2121800</v>
+        <v>-626200</v>
       </c>
       <c r="H20" s="3">
-        <v>-1495800</v>
+        <v>1977300</v>
       </c>
       <c r="I20" s="3">
-        <v>-533900</v>
+        <v>-1394000</v>
       </c>
       <c r="J20" s="3">
+        <v>-497600</v>
+      </c>
+      <c r="K20" s="3">
         <v>296400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>254600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-372300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-634400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-717000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-430300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1935900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-708300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-480300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-495700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1387200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1195400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1077800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-942300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3883200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1711700</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>380900</v>
+        <v>-67800</v>
       </c>
       <c r="E21" s="3">
-        <v>1415600</v>
+        <v>355000</v>
       </c>
       <c r="F21" s="3">
-        <v>1235800</v>
+        <v>1319200</v>
       </c>
       <c r="G21" s="3">
-        <v>-420500</v>
+        <v>1151700</v>
       </c>
       <c r="H21" s="3">
-        <v>286800</v>
+        <v>-391900</v>
       </c>
       <c r="I21" s="3">
-        <v>1223000</v>
+        <v>267200</v>
       </c>
       <c r="J21" s="3">
+        <v>1139700</v>
+      </c>
+      <c r="K21" s="3">
         <v>2027600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1643500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1946200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1539100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1628700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1435700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>953600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>954100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1293100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1295200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>385700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>617800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>802600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>920600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2041000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1679,150 +1718,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1780400</v>
+        <v>-426800</v>
       </c>
       <c r="E23" s="3">
-        <v>1078500</v>
+        <v>-1659200</v>
       </c>
       <c r="F23" s="3">
-        <v>869900</v>
+        <v>1005100</v>
       </c>
       <c r="G23" s="3">
-        <v>-810000</v>
+        <v>810700</v>
       </c>
       <c r="H23" s="3">
-        <v>-94200</v>
+        <v>-754800</v>
       </c>
       <c r="I23" s="3">
-        <v>859200</v>
+        <v>-87700</v>
       </c>
       <c r="J23" s="3">
+        <v>800700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1659500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1301200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1321400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1275500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1385100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1174600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>655200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>695800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1079600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1081700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>141600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>401800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>584600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>693800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2281300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>445100</v>
+        <v>-150600</v>
       </c>
       <c r="E24" s="3">
-        <v>609900</v>
+        <v>414800</v>
       </c>
       <c r="F24" s="3">
-        <v>605600</v>
+        <v>568400</v>
       </c>
       <c r="G24" s="3">
-        <v>-562800</v>
+        <v>564400</v>
       </c>
       <c r="H24" s="3">
-        <v>280300</v>
+        <v>-524500</v>
       </c>
       <c r="I24" s="3">
-        <v>276100</v>
+        <v>261200</v>
       </c>
       <c r="J24" s="3">
+        <v>257300</v>
+      </c>
+      <c r="K24" s="3">
         <v>418400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-119200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>392900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>285900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>388300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>346200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>374400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>270700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>408500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>371500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-66300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>153700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>277200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>80800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>428700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1892,150 +1940,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2225600</v>
+        <v>-276200</v>
       </c>
       <c r="E26" s="3">
-        <v>468700</v>
+        <v>-2074000</v>
       </c>
       <c r="F26" s="3">
-        <v>264300</v>
+        <v>436700</v>
       </c>
       <c r="G26" s="3">
-        <v>-247200</v>
+        <v>246300</v>
       </c>
       <c r="H26" s="3">
-        <v>-374500</v>
+        <v>-230300</v>
       </c>
       <c r="I26" s="3">
-        <v>583100</v>
+        <v>-349000</v>
       </c>
       <c r="J26" s="3">
+        <v>543400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1241200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1420400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>928500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>989600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>996800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>828400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>280800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>425200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>671200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>710200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>207900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>248100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>307400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>613000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2710000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2230900</v>
+        <v>-272200</v>
       </c>
       <c r="E27" s="3">
-        <v>464400</v>
+        <v>-2079000</v>
       </c>
       <c r="F27" s="3">
-        <v>270700</v>
+        <v>432700</v>
       </c>
       <c r="G27" s="3">
-        <v>-269600</v>
+        <v>252300</v>
       </c>
       <c r="H27" s="3">
-        <v>-377700</v>
+        <v>-251300</v>
       </c>
       <c r="I27" s="3">
-        <v>584200</v>
+        <v>-352000</v>
       </c>
       <c r="J27" s="3">
+        <v>544400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1243300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1423600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>927400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>984000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>996800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>828400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>285200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>439700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>664000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>712200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>174800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>245100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>304400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>617200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2712000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2105,8 +2162,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2140,8 +2200,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -2158,26 +2218,29 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>-2310400</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2247,8 +2310,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2318,150 +2384,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3212100</v>
+        <v>1991200</v>
       </c>
       <c r="E32" s="3">
-        <v>598100</v>
+        <v>2993300</v>
       </c>
       <c r="F32" s="3">
-        <v>671900</v>
+        <v>557400</v>
       </c>
       <c r="G32" s="3">
-        <v>-2121800</v>
+        <v>626200</v>
       </c>
       <c r="H32" s="3">
-        <v>1495800</v>
+        <v>-1977300</v>
       </c>
       <c r="I32" s="3">
-        <v>533900</v>
+        <v>1394000</v>
       </c>
       <c r="J32" s="3">
+        <v>497600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-296400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-254600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>372300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>634400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>717000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>430300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1935900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>708300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>480300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>495700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1387200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1195400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1077800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>942300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3883200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1711700</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2230900</v>
+        <v>-272200</v>
       </c>
       <c r="E33" s="3">
-        <v>464400</v>
+        <v>-2079000</v>
       </c>
       <c r="F33" s="3">
-        <v>270700</v>
+        <v>432700</v>
       </c>
       <c r="G33" s="3">
-        <v>-269600</v>
+        <v>252300</v>
       </c>
       <c r="H33" s="3">
-        <v>-377700</v>
+        <v>-251300</v>
       </c>
       <c r="I33" s="3">
-        <v>584200</v>
+        <v>-352000</v>
       </c>
       <c r="J33" s="3">
+        <v>544400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1243300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1423600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>927400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>984000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>996800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>828400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>285200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>439700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>664000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>712200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2135600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>245100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>304400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>617200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2712000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2531,155 +2606,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2230900</v>
+        <v>-272200</v>
       </c>
       <c r="E35" s="3">
-        <v>464400</v>
+        <v>-2079000</v>
       </c>
       <c r="F35" s="3">
-        <v>270700</v>
+        <v>432700</v>
       </c>
       <c r="G35" s="3">
-        <v>-269600</v>
+        <v>252300</v>
       </c>
       <c r="H35" s="3">
-        <v>-377700</v>
+        <v>-251300</v>
       </c>
       <c r="I35" s="3">
-        <v>584200</v>
+        <v>-352000</v>
       </c>
       <c r="J35" s="3">
+        <v>544400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1243300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1423600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>927400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>984000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>996800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>828400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>285200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>439700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>664000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>712200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2135600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>245100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>304400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>617200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2712000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2705,8 +2789,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2732,150 +2817,157 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>176352000</v>
+        <v>167464600</v>
       </c>
       <c r="E41" s="3">
-        <v>162370500</v>
+        <v>164341700</v>
       </c>
       <c r="F41" s="3">
-        <v>156600100</v>
+        <v>151312400</v>
       </c>
       <c r="G41" s="3">
-        <v>142612300</v>
+        <v>145935000</v>
       </c>
       <c r="H41" s="3">
-        <v>148847100</v>
+        <v>132899800</v>
       </c>
       <c r="I41" s="3">
-        <v>147465700</v>
+        <v>138710000</v>
       </c>
       <c r="J41" s="3">
+        <v>137422700</v>
+      </c>
+      <c r="K41" s="3">
         <v>141312300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>129113300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>110894300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>106939200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>98392600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>104813400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>110171800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>98459900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>115468700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>121268200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>110311400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>106257100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>110830700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>105473900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>125464600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>108700600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>245276900</v>
+        <v>217143600</v>
       </c>
       <c r="E42" s="3">
-        <v>264673500</v>
+        <v>228572500</v>
       </c>
       <c r="F42" s="3">
-        <v>254537500</v>
+        <v>246648100</v>
       </c>
       <c r="G42" s="3">
-        <v>281555600</v>
+        <v>237202500</v>
       </c>
       <c r="H42" s="3">
-        <v>267822400</v>
+        <v>262380500</v>
       </c>
       <c r="I42" s="3">
-        <v>286852000</v>
+        <v>249582600</v>
       </c>
       <c r="J42" s="3">
+        <v>267316200</v>
+      </c>
+      <c r="K42" s="3">
         <v>294486300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>297518000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>294748900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>312658300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>285838400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>298811400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>286736000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>264012800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>272227400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>278622000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>285284700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>297761800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>285608100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>324448100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>325650300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>323868200</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2945,8 +3037,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3016,8 +3111,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3087,8 +3185,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3158,70 +3259,73 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1086000</v>
+        <v>943300</v>
       </c>
       <c r="E47" s="3">
-        <v>1224100</v>
+        <v>1012100</v>
       </c>
       <c r="F47" s="3">
-        <v>1317100</v>
+        <v>1140700</v>
       </c>
       <c r="G47" s="3">
-        <v>1362100</v>
+        <v>1227400</v>
       </c>
       <c r="H47" s="3">
-        <v>1338500</v>
+        <v>1269300</v>
       </c>
       <c r="I47" s="3">
-        <v>1457300</v>
+        <v>1247400</v>
       </c>
       <c r="J47" s="3">
+        <v>1358100</v>
+      </c>
+      <c r="K47" s="3">
         <v>1573900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1554700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1536900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2672800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2544700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2730900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2716700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2579100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3067500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3015200</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
@@ -3229,150 +3333,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7816200</v>
+        <v>7368600</v>
       </c>
       <c r="E48" s="3">
-        <v>8033400</v>
+        <v>7283900</v>
       </c>
       <c r="F48" s="3">
-        <v>7947800</v>
+        <v>7486300</v>
       </c>
       <c r="G48" s="3">
-        <v>8049500</v>
+        <v>7406500</v>
       </c>
       <c r="H48" s="3">
-        <v>7892200</v>
+        <v>7501300</v>
       </c>
       <c r="I48" s="3">
-        <v>8055900</v>
+        <v>7354700</v>
       </c>
       <c r="J48" s="3">
+        <v>7507200</v>
+      </c>
+      <c r="K48" s="3">
         <v>8185300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8374800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8525100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8717700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8230900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8935900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5327600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5003600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4957900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4799900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4707200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4611800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4545500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4832800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4878300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4804800</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3416400</v>
+        <v>3228600</v>
       </c>
       <c r="E49" s="3">
-        <v>5188300</v>
+        <v>3183800</v>
       </c>
       <c r="F49" s="3">
-        <v>5171200</v>
+        <v>4835000</v>
       </c>
       <c r="G49" s="3">
-        <v>5224700</v>
+        <v>4819000</v>
       </c>
       <c r="H49" s="3">
-        <v>4989300</v>
+        <v>4868900</v>
       </c>
       <c r="I49" s="3">
-        <v>5171200</v>
+        <v>4649500</v>
       </c>
       <c r="J49" s="3">
+        <v>4819000</v>
+      </c>
+      <c r="K49" s="3">
         <v>5295300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5290300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5392400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5561200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5262800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5564600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5489500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5133200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5140600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5007200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4987400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4956300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4890000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5211800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5308100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5091700</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3442,8 +3555,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3513,79 +3629,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17162500</v>
+        <v>17083500</v>
       </c>
       <c r="E52" s="3">
-        <v>20934200</v>
+        <v>15993600</v>
       </c>
       <c r="F52" s="3">
-        <v>16610400</v>
+        <v>19508500</v>
       </c>
       <c r="G52" s="3">
-        <v>21760200</v>
+        <v>15479100</v>
       </c>
       <c r="H52" s="3">
-        <v>14678000</v>
+        <v>20278200</v>
       </c>
       <c r="I52" s="3">
-        <v>15088900</v>
+        <v>13678400</v>
       </c>
       <c r="J52" s="3">
+        <v>14061200</v>
+      </c>
+      <c r="K52" s="3">
         <v>15618500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18501600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17806600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>18874100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>15735100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17019100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>14982900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>14439500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>16334100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>17028900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11088900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>16777500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>19371200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>17695000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>16085800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>21881600</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3655,79 +3777,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>808726200</v>
+        <v>737416700</v>
       </c>
       <c r="E54" s="3">
-        <v>862285100</v>
+        <v>753648600</v>
       </c>
       <c r="F54" s="3">
-        <v>852559000</v>
+        <v>803560000</v>
       </c>
       <c r="G54" s="3">
-        <v>910975600</v>
+        <v>794496300</v>
       </c>
       <c r="H54" s="3">
-        <v>862213400</v>
+        <v>848934500</v>
       </c>
       <c r="I54" s="3">
-        <v>878770300</v>
+        <v>803493200</v>
       </c>
       <c r="J54" s="3">
+        <v>818922500</v>
+      </c>
+      <c r="K54" s="3">
         <v>886457000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>901585300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>856962700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>888994900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>834272500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>877817000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>846730300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>796995500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>819125600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>830305800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>799888200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>792254900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>786952000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>840820500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>848982500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>835365400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3753,8 +3881,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3780,79 +3909,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18220700</v>
+        <v>17459400</v>
       </c>
       <c r="E57" s="3">
-        <v>27304800</v>
+        <v>16979800</v>
       </c>
       <c r="F57" s="3">
-        <v>26278700</v>
+        <v>25445300</v>
       </c>
       <c r="G57" s="3">
-        <v>33748200</v>
+        <v>24489000</v>
       </c>
       <c r="H57" s="3">
-        <v>27766000</v>
+        <v>31449800</v>
       </c>
       <c r="I57" s="3">
-        <v>36352600</v>
+        <v>25875000</v>
       </c>
       <c r="J57" s="3">
+        <v>33876800</v>
+      </c>
+      <c r="K57" s="3">
         <v>39484400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>53854600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33508100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>43489200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>43260600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>47636200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>39733500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>46906500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>41249900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>44279400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>49115000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>37807100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>39269700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>48311200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>47521000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>49537200</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3922,79 +4055,85 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3505300</v>
+        <v>3249600</v>
       </c>
       <c r="E59" s="3">
-        <v>3518100</v>
+        <v>3266500</v>
       </c>
       <c r="F59" s="3">
-        <v>3503100</v>
+        <v>3278500</v>
       </c>
       <c r="G59" s="3">
-        <v>3540600</v>
+        <v>3264500</v>
       </c>
       <c r="H59" s="3">
-        <v>3545900</v>
+        <v>3299400</v>
       </c>
       <c r="I59" s="3">
-        <v>3648600</v>
+        <v>3304400</v>
       </c>
       <c r="J59" s="3">
+        <v>3400100</v>
+      </c>
+      <c r="K59" s="3">
         <v>3727800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3948000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4235300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4267800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4545700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4860100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1020800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>767400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>683500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>738900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>703200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>604700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>528400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>604700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>658600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>889500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4064,150 +4203,159 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>178575400</v>
+        <v>159856700</v>
       </c>
       <c r="E61" s="3">
-        <v>187588900</v>
+        <v>166413700</v>
       </c>
       <c r="F61" s="3">
-        <v>182139500</v>
+        <v>174813300</v>
       </c>
       <c r="G61" s="3">
-        <v>182381300</v>
+        <v>169735000</v>
       </c>
       <c r="H61" s="3">
-        <v>172359900</v>
+        <v>169960400</v>
       </c>
       <c r="I61" s="3">
-        <v>175900400</v>
+        <v>160621500</v>
       </c>
       <c r="J61" s="3">
+        <v>163920900</v>
+      </c>
+      <c r="K61" s="3">
         <v>181282400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>157012500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>165455900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>177721900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>168037300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>177259900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>169924000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>170161500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>170320800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>170531200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>173814100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>181108900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>177498700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>193974600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>200181500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>202397600</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3244200</v>
+        <v>3321400</v>
       </c>
       <c r="E62" s="3">
-        <v>2961700</v>
+        <v>3023200</v>
       </c>
       <c r="F62" s="3">
-        <v>2405300</v>
+        <v>2760000</v>
       </c>
       <c r="G62" s="3">
-        <v>2819400</v>
+        <v>2241500</v>
       </c>
       <c r="H62" s="3">
-        <v>3231300</v>
+        <v>2627400</v>
       </c>
       <c r="I62" s="3">
-        <v>2641800</v>
+        <v>3011300</v>
       </c>
       <c r="J62" s="3">
+        <v>2461900</v>
+      </c>
+      <c r="K62" s="3">
         <v>2579700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2899200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2347900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2149000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2154300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2212100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2074700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2102000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2181900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2039200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1407300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1256700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1190400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1612300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4355400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1895000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,8 +4425,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4348,8 +4499,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4419,79 +4573,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>761696300</v>
+        <v>693103100</v>
       </c>
       <c r="E66" s="3">
-        <v>814673100</v>
+        <v>709821700</v>
       </c>
       <c r="F66" s="3">
-        <v>805929300</v>
+        <v>759190600</v>
       </c>
       <c r="G66" s="3">
-        <v>863265200</v>
+        <v>751042200</v>
       </c>
       <c r="H66" s="3">
-        <v>816549900</v>
+        <v>804473300</v>
       </c>
       <c r="I66" s="3">
-        <v>829829400</v>
+        <v>760939500</v>
       </c>
       <c r="J66" s="3">
+        <v>773314600</v>
+      </c>
+      <c r="K66" s="3">
         <v>836665500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>848849800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>809456700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>838565000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>787811900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>829343500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>798363400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>752679500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>774513700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>786648300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>757796800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>748198600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>743262400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>797637200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>805597300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>789516700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4517,8 +4677,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4588,8 +4749,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4659,8 +4823,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4730,8 +4897,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4801,79 +4971,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>33237900</v>
+        <v>30702000</v>
       </c>
       <c r="E72" s="3">
-        <v>35468800</v>
+        <v>30974200</v>
       </c>
       <c r="F72" s="3">
-        <v>35004400</v>
+        <v>33053200</v>
       </c>
       <c r="G72" s="3">
-        <v>34862100</v>
+        <v>32620500</v>
       </c>
       <c r="H72" s="3">
-        <v>35131700</v>
+        <v>32487800</v>
       </c>
       <c r="I72" s="3">
-        <v>35688100</v>
+        <v>32739100</v>
       </c>
       <c r="J72" s="3">
+        <v>33257600</v>
+      </c>
+      <c r="K72" s="3">
         <v>35103900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>34470100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>33344800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>33264700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>30745800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>30930100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>29702700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>27703000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>26980600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>26316600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>25085900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>27221500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>26976400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>27495100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>26875900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>29587900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4943,8 +5119,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5014,8 +5193,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5085,79 +5267,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>47029900</v>
+        <v>44313600</v>
       </c>
       <c r="E76" s="3">
-        <v>47612000</v>
+        <v>43827000</v>
       </c>
       <c r="F76" s="3">
-        <v>46629700</v>
+        <v>44369400</v>
       </c>
       <c r="G76" s="3">
-        <v>47710400</v>
+        <v>43454100</v>
       </c>
       <c r="H76" s="3">
-        <v>45663500</v>
+        <v>44461100</v>
       </c>
       <c r="I76" s="3">
-        <v>48940900</v>
+        <v>42553700</v>
       </c>
       <c r="J76" s="3">
+        <v>45607800</v>
+      </c>
+      <c r="K76" s="3">
         <v>49791500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>52735500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>47506100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>50429800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>46460600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>48473500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>48366900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>44316000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>44612000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>43657500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>42091400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>44056200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>43689600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>43183300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>43385200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>45848700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5227,155 +5415,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2230900</v>
+        <v>-272200</v>
       </c>
       <c r="E81" s="3">
-        <v>464400</v>
+        <v>-2079000</v>
       </c>
       <c r="F81" s="3">
-        <v>270700</v>
+        <v>432700</v>
       </c>
       <c r="G81" s="3">
-        <v>-269600</v>
+        <v>252300</v>
       </c>
       <c r="H81" s="3">
-        <v>-377700</v>
+        <v>-251300</v>
       </c>
       <c r="I81" s="3">
-        <v>584200</v>
+        <v>-352000</v>
       </c>
       <c r="J81" s="3">
+        <v>544400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1243300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1423600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>927400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>984000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>996800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>828400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>285200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>439700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>664000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>712200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2135600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>245100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>304400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>617200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2712000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5401,79 +5598,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2161400</v>
+        <v>359000</v>
       </c>
       <c r="E83" s="3">
-        <v>337000</v>
+        <v>2014200</v>
       </c>
       <c r="F83" s="3">
-        <v>365900</v>
+        <v>314100</v>
       </c>
       <c r="G83" s="3">
-        <v>389500</v>
+        <v>341000</v>
       </c>
       <c r="H83" s="3">
-        <v>380900</v>
+        <v>362900</v>
       </c>
       <c r="I83" s="3">
-        <v>363800</v>
+        <v>355000</v>
       </c>
       <c r="J83" s="3">
+        <v>339000</v>
+      </c>
+      <c r="K83" s="3">
         <v>368100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>342400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>624800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>263600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>243600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>261000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>298400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>258200</v>
-      </c>
-      <c r="R83" s="3">
-        <v>213500</v>
       </c>
       <c r="S83" s="3">
         <v>213500</v>
       </c>
       <c r="T83" s="3">
+        <v>213500</v>
+      </c>
+      <c r="U83" s="3">
         <v>244100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>216000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>218000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>226800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>240200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>242300</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5543,8 +5744,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5614,8 +5818,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5685,8 +5892,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5756,8 +5966,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5827,79 +6040,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8478500</v>
+        <v>-4631600</v>
       </c>
       <c r="E89" s="3">
-        <v>8922600</v>
+        <v>7901100</v>
       </c>
       <c r="F89" s="3">
-        <v>25764000</v>
+        <v>8314900</v>
       </c>
       <c r="G89" s="3">
-        <v>-3642200</v>
+        <v>22354200</v>
       </c>
       <c r="H89" s="3">
-        <v>-7913600</v>
+        <v>-1739000</v>
       </c>
       <c r="I89" s="3">
-        <v>3677500</v>
+        <v>-7374600</v>
       </c>
       <c r="J89" s="3">
+        <v>3427100</v>
+      </c>
+      <c r="K89" s="3">
         <v>7079000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9936000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7236300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9288500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4510600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8516700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-10878800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>11184300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>9858300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2307100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-13452500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7114000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4884000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-7346000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>24547000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-7004300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5925,79 +6144,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-489000</v>
+        <v>-350000</v>
       </c>
       <c r="E91" s="3">
-        <v>-363800</v>
+        <v>-455700</v>
       </c>
       <c r="F91" s="3">
-        <v>-362700</v>
+        <v>-339000</v>
       </c>
       <c r="G91" s="3">
-        <v>-302800</v>
+        <v>-338000</v>
       </c>
       <c r="H91" s="3">
-        <v>-362700</v>
+        <v>-282200</v>
       </c>
       <c r="I91" s="3">
-        <v>-316700</v>
+        <v>-338000</v>
       </c>
       <c r="J91" s="3">
+        <v>-295100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-313500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-281700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-475700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-337300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-311700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-288700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-233500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-367100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-294500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-248400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-323500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-274200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-257200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-224700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-304400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-298200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6067,8 +6290,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6138,79 +6364,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>18422900</v>
+        <v>14453100</v>
       </c>
       <c r="E94" s="3">
-        <v>-11536500</v>
+        <v>17168200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1116000</v>
+        <v>-10750800</v>
       </c>
       <c r="G94" s="3">
-        <v>-16557900</v>
+        <v>-3454000</v>
       </c>
       <c r="H94" s="3">
-        <v>12818400</v>
+        <v>-13016300</v>
       </c>
       <c r="I94" s="3">
-        <v>6409200</v>
+        <v>11945400</v>
       </c>
       <c r="J94" s="3">
+        <v>5972700</v>
+      </c>
+      <c r="K94" s="3">
         <v>10880600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12421400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3166400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-242400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2051100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2311700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-493300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>824400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>4866600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-12808900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>23224500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8396800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>3455500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-7649400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-14118300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>6844800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6236,8 +6468,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6254,17 +6487,17 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-357000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-383100</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-383100</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -6272,43 +6505,46 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-739400</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-1100</v>
       </c>
       <c r="P96" s="3">
         <v>-1100</v>
       </c>
       <c r="Q96" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-679400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-3100</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-1000</v>
       </c>
       <c r="U96" s="3">
         <v>-1000</v>
       </c>
       <c r="V96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-588600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-2100</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6378,8 +6614,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6449,8 +6688,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6520,217 +6762,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9515300</v>
+        <v>-6540000</v>
       </c>
       <c r="E100" s="3">
-        <v>8146800</v>
+        <v>-8867300</v>
       </c>
       <c r="F100" s="3">
-        <v>-9633000</v>
+        <v>7592000</v>
       </c>
       <c r="G100" s="3">
-        <v>10951200</v>
+        <v>-8977000</v>
       </c>
       <c r="H100" s="3">
-        <v>-3300900</v>
+        <v>10205400</v>
       </c>
       <c r="I100" s="3">
-        <v>-2204200</v>
+        <v>-3076100</v>
       </c>
       <c r="J100" s="3">
+        <v>-2054000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3877600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>41721400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>11619600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>12785600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4073400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4309200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>16266900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-29249100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-21541400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>19783400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5639400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4152700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1032600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4215600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>4487900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-9169500</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3404700</v>
+        <v>-158500</v>
       </c>
       <c r="E101" s="3">
-        <v>237500</v>
+        <v>-3172800</v>
       </c>
       <c r="F101" s="3">
-        <v>-1027200</v>
+        <v>221400</v>
       </c>
       <c r="G101" s="3">
-        <v>3014100</v>
+        <v>-957200</v>
       </c>
       <c r="H101" s="3">
-        <v>-1159900</v>
+        <v>2808900</v>
       </c>
       <c r="I101" s="3">
-        <v>-791800</v>
+        <v>-1080900</v>
       </c>
       <c r="J101" s="3">
+        <v>-737900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-281400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-628400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-870800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>379800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-804300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>673600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>481200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-937500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1076600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-587000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-78400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>861900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-857900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-779700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1847400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-70400</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>13981400</v>
+        <v>3122900</v>
       </c>
       <c r="E102" s="3">
-        <v>5770400</v>
+        <v>13029200</v>
       </c>
       <c r="F102" s="3">
-        <v>13987800</v>
+        <v>5377400</v>
       </c>
       <c r="G102" s="3">
-        <v>-6234800</v>
+        <v>13035200</v>
       </c>
       <c r="H102" s="3">
-        <v>1381300</v>
+        <v>-5810200</v>
       </c>
       <c r="I102" s="3">
-        <v>6153500</v>
+        <v>1287300</v>
       </c>
       <c r="J102" s="3">
+        <v>5734400</v>
+      </c>
+      <c r="K102" s="3">
         <v>13800600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18735600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6679000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3634500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2418100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5845600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5618300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-18218400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5799500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>8568300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4054200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4573600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>8514300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-19990700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>16764000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-9399400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>CS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,175 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2227500</v>
+        <v>2567200</v>
       </c>
       <c r="E8" s="3">
-        <v>2246500</v>
+        <v>2318200</v>
       </c>
       <c r="F8" s="3">
-        <v>2385100</v>
+        <v>2337900</v>
       </c>
       <c r="G8" s="3">
-        <v>2870700</v>
+        <v>2482100</v>
       </c>
       <c r="H8" s="3">
-        <v>3046200</v>
+        <v>2987500</v>
       </c>
       <c r="I8" s="3">
-        <v>2781900</v>
+        <v>3170100</v>
       </c>
       <c r="J8" s="3">
+        <v>2895100</v>
+      </c>
+      <c r="K8" s="3">
         <v>3235600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3840200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4653300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4771900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5952200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6013800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5329000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6072000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4726700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5223700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4567900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4158700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4292300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4622800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4185600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3945300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4372000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -900,8 +906,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -974,8 +983,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1002,8 +1014,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1150,8 +1166,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1224,8 +1243,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1233,55 +1255,55 @@
         <v>-1000</v>
       </c>
       <c r="E15" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K15" s="3">
         <v>-2000</v>
       </c>
-      <c r="F15" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-1100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-2200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-1100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-6700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P15" s="3">
-        <v>-2200</v>
       </c>
       <c r="Q15" s="3">
         <v>-2200</v>
       </c>
       <c r="R15" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="S15" s="3">
         <v>-2100</v>
       </c>
       <c r="T15" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="U15" s="3">
         <v>-3100</v>
-      </c>
-      <c r="U15" s="3">
-        <v>-2000</v>
       </c>
       <c r="V15" s="3">
         <v>-2000</v>
@@ -1290,16 +1312,19 @@
         <v>-2000</v>
       </c>
       <c r="X15" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Y15" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1323,156 +1348,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>663100</v>
+        <v>1393600</v>
       </c>
       <c r="E17" s="3">
-        <v>912400</v>
+        <v>690100</v>
       </c>
       <c r="F17" s="3">
-        <v>822600</v>
+        <v>949500</v>
       </c>
       <c r="G17" s="3">
-        <v>1433800</v>
+        <v>856100</v>
       </c>
       <c r="H17" s="3">
-        <v>5778300</v>
+        <v>1492200</v>
       </c>
       <c r="I17" s="3">
-        <v>1475700</v>
+        <v>6013300</v>
       </c>
       <c r="J17" s="3">
+        <v>1535800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1937400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2477000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3606700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3078200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4042200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3911700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3724100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3480900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3322600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3663800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2990600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2629800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2695100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2960300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2549500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2343400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2430400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1564500</v>
+        <v>1173600</v>
       </c>
       <c r="E18" s="3">
-        <v>1334100</v>
+        <v>1628100</v>
       </c>
       <c r="F18" s="3">
-        <v>1562500</v>
+        <v>1388400</v>
       </c>
       <c r="G18" s="3">
-        <v>1436800</v>
+        <v>1626000</v>
       </c>
       <c r="H18" s="3">
-        <v>-2732100</v>
+        <v>1495300</v>
       </c>
       <c r="I18" s="3">
-        <v>1306200</v>
+        <v>-2843200</v>
       </c>
       <c r="J18" s="3">
+        <v>1359300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1298200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1363200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1046600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1693700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1910000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2102100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1604900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2591100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1404100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1559900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1577400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1528900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1597200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1662500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1636100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1601900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1941600</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1499,156 +1531,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1991200</v>
+        <v>-2390800</v>
       </c>
       <c r="E20" s="3">
-        <v>-2993300</v>
+        <v>-2072200</v>
       </c>
       <c r="F20" s="3">
-        <v>-557400</v>
+        <v>-3115100</v>
       </c>
       <c r="G20" s="3">
-        <v>-626200</v>
+        <v>-580100</v>
       </c>
       <c r="H20" s="3">
-        <v>1977300</v>
+        <v>-651700</v>
       </c>
       <c r="I20" s="3">
-        <v>-1394000</v>
+        <v>2057700</v>
       </c>
       <c r="J20" s="3">
+        <v>-1450700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-497600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>296400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>254600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-372300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-634400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-717000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-430300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1935900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-708300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-480300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-495700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1387200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1195400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1077800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-942300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3883200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1711700</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-67800</v>
+        <v>-786600</v>
       </c>
       <c r="E21" s="3">
-        <v>355000</v>
+        <v>-70600</v>
       </c>
       <c r="F21" s="3">
-        <v>1319200</v>
+        <v>369400</v>
       </c>
       <c r="G21" s="3">
-        <v>1151700</v>
+        <v>1372800</v>
       </c>
       <c r="H21" s="3">
-        <v>-391900</v>
+        <v>1198500</v>
       </c>
       <c r="I21" s="3">
-        <v>267200</v>
+        <v>-407800</v>
       </c>
       <c r="J21" s="3">
+        <v>278100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1139700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2027600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1643500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1946200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1539100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1628700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1435700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>953600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>954100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1293100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1295200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>385700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>617800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>802600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>920600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-2041000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1721,156 +1760,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-426800</v>
+        <v>-1217200</v>
       </c>
       <c r="E23" s="3">
-        <v>-1659200</v>
+        <v>-444100</v>
       </c>
       <c r="F23" s="3">
-        <v>1005100</v>
+        <v>-1726700</v>
       </c>
       <c r="G23" s="3">
-        <v>810700</v>
+        <v>1046000</v>
       </c>
       <c r="H23" s="3">
-        <v>-754800</v>
+        <v>843600</v>
       </c>
       <c r="I23" s="3">
-        <v>-87700</v>
+        <v>-785500</v>
       </c>
       <c r="J23" s="3">
+        <v>-91300</v>
+      </c>
+      <c r="K23" s="3">
         <v>800700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1659500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1301200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1321400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1275500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1385100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1174600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>655200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>695800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1079600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1081700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>141600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>401800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>584600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>693800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2281300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-150600</v>
+        <v>434800</v>
       </c>
       <c r="E24" s="3">
-        <v>414800</v>
+        <v>-156700</v>
       </c>
       <c r="F24" s="3">
-        <v>568400</v>
+        <v>431700</v>
       </c>
       <c r="G24" s="3">
-        <v>564400</v>
+        <v>591500</v>
       </c>
       <c r="H24" s="3">
-        <v>-524500</v>
+        <v>587300</v>
       </c>
       <c r="I24" s="3">
-        <v>261200</v>
+        <v>-545800</v>
       </c>
       <c r="J24" s="3">
+        <v>271900</v>
+      </c>
+      <c r="K24" s="3">
         <v>257300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>418400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-119200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>392900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>285900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>388300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>346200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>374400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>270700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>408500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>371500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-66300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>153700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>277200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>80800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>428700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1943,156 +1991,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-276200</v>
+        <v>-1652000</v>
       </c>
       <c r="E26" s="3">
-        <v>-2074000</v>
+        <v>-287400</v>
       </c>
       <c r="F26" s="3">
-        <v>436700</v>
+        <v>-2158400</v>
       </c>
       <c r="G26" s="3">
-        <v>246300</v>
+        <v>454500</v>
       </c>
       <c r="H26" s="3">
-        <v>-230300</v>
+        <v>256300</v>
       </c>
       <c r="I26" s="3">
-        <v>-349000</v>
+        <v>-239700</v>
       </c>
       <c r="J26" s="3">
+        <v>-363200</v>
+      </c>
+      <c r="K26" s="3">
         <v>543400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1241200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1420400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>928500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>989600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>996800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>828400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>280800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>425200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>671200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>710200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>207900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>248100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>307400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>613000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2710000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-272200</v>
+        <v>-1653000</v>
       </c>
       <c r="E27" s="3">
-        <v>-2079000</v>
+        <v>-283300</v>
       </c>
       <c r="F27" s="3">
-        <v>432700</v>
+        <v>-2163500</v>
       </c>
       <c r="G27" s="3">
-        <v>252300</v>
+        <v>450300</v>
       </c>
       <c r="H27" s="3">
-        <v>-251300</v>
+        <v>262500</v>
       </c>
       <c r="I27" s="3">
-        <v>-352000</v>
+        <v>-261500</v>
       </c>
       <c r="J27" s="3">
+        <v>-366300</v>
+      </c>
+      <c r="K27" s="3">
         <v>544400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1243300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1423600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>927400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>984000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>996800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>828400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>285200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>439700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>664000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>712200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>174800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>245100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>304400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>617200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2712000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2165,8 +2222,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2203,8 +2263,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2221,26 +2281,29 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>-2310400</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2313,8 +2376,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2387,156 +2453,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1991200</v>
+        <v>2390800</v>
       </c>
       <c r="E32" s="3">
-        <v>2993300</v>
+        <v>2072200</v>
       </c>
       <c r="F32" s="3">
-        <v>557400</v>
+        <v>3115100</v>
       </c>
       <c r="G32" s="3">
-        <v>626200</v>
+        <v>580100</v>
       </c>
       <c r="H32" s="3">
-        <v>-1977300</v>
+        <v>651700</v>
       </c>
       <c r="I32" s="3">
-        <v>1394000</v>
+        <v>-2057700</v>
       </c>
       <c r="J32" s="3">
+        <v>1450700</v>
+      </c>
+      <c r="K32" s="3">
         <v>497600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-296400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-254600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>372300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>634400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>717000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>430300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1935900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>708300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>480300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>495700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1387200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1195400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1077800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>942300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3883200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1711700</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-272200</v>
+        <v>-1653000</v>
       </c>
       <c r="E33" s="3">
-        <v>-2079000</v>
+        <v>-283300</v>
       </c>
       <c r="F33" s="3">
-        <v>432700</v>
+        <v>-2163500</v>
       </c>
       <c r="G33" s="3">
-        <v>252300</v>
+        <v>450300</v>
       </c>
       <c r="H33" s="3">
-        <v>-251300</v>
+        <v>262500</v>
       </c>
       <c r="I33" s="3">
-        <v>-352000</v>
+        <v>-261500</v>
       </c>
       <c r="J33" s="3">
+        <v>-366300</v>
+      </c>
+      <c r="K33" s="3">
         <v>544400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1243300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1423600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>927400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>984000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>996800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>828400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>285200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>439700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>664000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>712200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2135600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>245100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>304400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>617200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2712000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2609,161 +2684,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-272200</v>
+        <v>-1653000</v>
       </c>
       <c r="E35" s="3">
-        <v>-2079000</v>
+        <v>-283300</v>
       </c>
       <c r="F35" s="3">
-        <v>432700</v>
+        <v>-2163500</v>
       </c>
       <c r="G35" s="3">
-        <v>252300</v>
+        <v>450300</v>
       </c>
       <c r="H35" s="3">
-        <v>-251300</v>
+        <v>262500</v>
       </c>
       <c r="I35" s="3">
-        <v>-352000</v>
+        <v>-261500</v>
       </c>
       <c r="J35" s="3">
+        <v>-366300</v>
+      </c>
+      <c r="K35" s="3">
         <v>544400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1243300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1423600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>927400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>984000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>996800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>828400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>285200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>439700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>664000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>712200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2135600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>245100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>304400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>617200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2712000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2790,8 +2874,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2818,156 +2903,163 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>167464600</v>
+        <v>165479300</v>
       </c>
       <c r="E41" s="3">
-        <v>164341700</v>
+        <v>174276700</v>
       </c>
       <c r="F41" s="3">
-        <v>151312400</v>
+        <v>171026700</v>
       </c>
       <c r="G41" s="3">
-        <v>145935000</v>
+        <v>157467500</v>
       </c>
       <c r="H41" s="3">
-        <v>132899800</v>
+        <v>151871300</v>
       </c>
       <c r="I41" s="3">
-        <v>138710000</v>
+        <v>138305800</v>
       </c>
       <c r="J41" s="3">
+        <v>144352300</v>
+      </c>
+      <c r="K41" s="3">
         <v>137422700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>141312300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>129113300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>110894300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>106939200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>98392600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>104813400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>110171800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>98459900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>115468700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>121268200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>110311400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>106257100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>110830700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>105473900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>125464600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>108700600</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>217143600</v>
+        <v>229518100</v>
       </c>
       <c r="E42" s="3">
-        <v>228572500</v>
+        <v>225976500</v>
       </c>
       <c r="F42" s="3">
-        <v>246648100</v>
+        <v>237870300</v>
       </c>
       <c r="G42" s="3">
-        <v>237202500</v>
+        <v>256681200</v>
       </c>
       <c r="H42" s="3">
-        <v>262380500</v>
+        <v>246851300</v>
       </c>
       <c r="I42" s="3">
-        <v>249582600</v>
+        <v>273053500</v>
       </c>
       <c r="J42" s="3">
+        <v>259735000</v>
+      </c>
+      <c r="K42" s="3">
         <v>267316200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>294486300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>297518000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>294748900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>312658300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>285838400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>298811400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>286736000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>264012800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>272227400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>278622000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>285284700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>297761800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>285608100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>324448100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>325650300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>323868200</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3040,8 +3132,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3114,8 +3209,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3188,8 +3286,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3262,73 +3363,76 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>943300</v>
+        <v>928700</v>
       </c>
       <c r="E47" s="3">
-        <v>1012100</v>
+        <v>981600</v>
       </c>
       <c r="F47" s="3">
-        <v>1140700</v>
+        <v>1053200</v>
       </c>
       <c r="G47" s="3">
-        <v>1227400</v>
+        <v>1187100</v>
       </c>
       <c r="H47" s="3">
-        <v>1269300</v>
+        <v>1277400</v>
       </c>
       <c r="I47" s="3">
-        <v>1247400</v>
+        <v>1321000</v>
       </c>
       <c r="J47" s="3">
+        <v>1298100</v>
+      </c>
+      <c r="K47" s="3">
         <v>1358100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1573900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1554700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1536900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2672800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2544700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2730900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2716700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2579100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3067500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3015200</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="X47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
@@ -3336,156 +3440,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7368600</v>
+        <v>7728600</v>
       </c>
       <c r="E48" s="3">
-        <v>7283900</v>
+        <v>7668400</v>
       </c>
       <c r="F48" s="3">
-        <v>7486300</v>
+        <v>7580200</v>
       </c>
       <c r="G48" s="3">
-        <v>7406500</v>
+        <v>7790800</v>
       </c>
       <c r="H48" s="3">
-        <v>7501300</v>
+        <v>7707800</v>
       </c>
       <c r="I48" s="3">
-        <v>7354700</v>
+        <v>7806400</v>
       </c>
       <c r="J48" s="3">
+        <v>7653900</v>
+      </c>
+      <c r="K48" s="3">
         <v>7507200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8185300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8374800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8525100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8717700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8230900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8935900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5327600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5003600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4957900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4799900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4707200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4611800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4545500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4832800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4878300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4804800</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3228600</v>
+        <v>3438800</v>
       </c>
       <c r="E49" s="3">
-        <v>3183800</v>
+        <v>3360000</v>
       </c>
       <c r="F49" s="3">
-        <v>4835000</v>
+        <v>3313300</v>
       </c>
       <c r="G49" s="3">
+        <v>5031700</v>
+      </c>
+      <c r="H49" s="3">
+        <v>5015100</v>
+      </c>
+      <c r="I49" s="3">
+        <v>5066900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4838700</v>
+      </c>
+      <c r="K49" s="3">
         <v>4819000</v>
       </c>
-      <c r="H49" s="3">
-        <v>4868900</v>
-      </c>
-      <c r="I49" s="3">
-        <v>4649500</v>
-      </c>
-      <c r="J49" s="3">
-        <v>4819000</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5295300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5290300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5392400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5561200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5262800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5564600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5489500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5133200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5140600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5007200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4987400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4956300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4890000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5211800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5308100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5091700</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3558,8 +3671,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3632,82 +3748,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17083500</v>
+        <v>16496900</v>
       </c>
       <c r="E52" s="3">
-        <v>15993600</v>
+        <v>17778400</v>
       </c>
       <c r="F52" s="3">
-        <v>19508500</v>
+        <v>16644200</v>
       </c>
       <c r="G52" s="3">
-        <v>15479100</v>
+        <v>20302000</v>
       </c>
       <c r="H52" s="3">
-        <v>20278200</v>
+        <v>16108800</v>
       </c>
       <c r="I52" s="3">
-        <v>13678400</v>
+        <v>21103100</v>
       </c>
       <c r="J52" s="3">
+        <v>14234800</v>
+      </c>
+      <c r="K52" s="3">
         <v>14061200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15618500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>18501600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17806600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>18874100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>15735100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17019100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>14982900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>14439500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>16334100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>17028900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11088900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>16777500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>19371200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>17695000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>16085800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>21881600</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3780,82 +3902,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>737416700</v>
+        <v>754764800</v>
       </c>
       <c r="E54" s="3">
-        <v>753648600</v>
+        <v>767413000</v>
       </c>
       <c r="F54" s="3">
-        <v>803560000</v>
+        <v>784305200</v>
       </c>
       <c r="G54" s="3">
-        <v>794496300</v>
+        <v>836246800</v>
       </c>
       <c r="H54" s="3">
-        <v>848934500</v>
+        <v>826814400</v>
       </c>
       <c r="I54" s="3">
-        <v>803493200</v>
+        <v>883467000</v>
       </c>
       <c r="J54" s="3">
+        <v>836177300</v>
+      </c>
+      <c r="K54" s="3">
         <v>818922500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>886457000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>901585300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>856962700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>888994900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>834272500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>877817000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>846730300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>796995500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>819125600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>830305800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>799888200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>792254900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>786952000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>840820500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>848982500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>835365400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3882,8 +4010,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3910,82 +4039,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17459400</v>
+        <v>12405300</v>
       </c>
       <c r="E57" s="3">
-        <v>16979800</v>
+        <v>18169600</v>
       </c>
       <c r="F57" s="3">
-        <v>25445300</v>
+        <v>17670500</v>
       </c>
       <c r="G57" s="3">
-        <v>24489000</v>
+        <v>26480300</v>
       </c>
       <c r="H57" s="3">
-        <v>31449800</v>
+        <v>25485200</v>
       </c>
       <c r="I57" s="3">
-        <v>25875000</v>
+        <v>32729100</v>
       </c>
       <c r="J57" s="3">
+        <v>26927500</v>
+      </c>
+      <c r="K57" s="3">
         <v>33876800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>39484400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>53854600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33508100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>43489200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>43260600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>47636200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>39733500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>46906500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>41249900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>44279400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>49115000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>37807100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>39269700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>48311200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>47521000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>49537200</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4058,82 +4191,88 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3249600</v>
+        <v>3296700</v>
       </c>
       <c r="E59" s="3">
-        <v>3266500</v>
+        <v>3381800</v>
       </c>
       <c r="F59" s="3">
-        <v>3278500</v>
+        <v>3399400</v>
       </c>
       <c r="G59" s="3">
-        <v>3264500</v>
+        <v>3411900</v>
       </c>
       <c r="H59" s="3">
-        <v>3299400</v>
+        <v>3397300</v>
       </c>
       <c r="I59" s="3">
-        <v>3304400</v>
+        <v>3433700</v>
       </c>
       <c r="J59" s="3">
+        <v>3438800</v>
+      </c>
+      <c r="K59" s="3">
         <v>3400100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3727800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3948000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4235300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4267800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4545700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4860100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1020800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>767400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>683500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>738900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>703200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>604700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>528400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>604700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>658600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>889500</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4206,156 +4345,165 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>159856700</v>
+        <v>163962200</v>
       </c>
       <c r="E61" s="3">
-        <v>166413700</v>
+        <v>166359300</v>
       </c>
       <c r="F61" s="3">
-        <v>174813300</v>
+        <v>173183000</v>
       </c>
       <c r="G61" s="3">
-        <v>169735000</v>
+        <v>181924300</v>
       </c>
       <c r="H61" s="3">
-        <v>169960400</v>
+        <v>176639500</v>
       </c>
       <c r="I61" s="3">
-        <v>160621500</v>
+        <v>176874000</v>
       </c>
       <c r="J61" s="3">
+        <v>167155100</v>
+      </c>
+      <c r="K61" s="3">
         <v>163920900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>181282400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>157012500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>165455900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>177721900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>168037300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>177259900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>169924000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>170161500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>170320800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>170531200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>173814100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>181108900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>177498700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>193974600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>200181500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>202397600</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3321400</v>
+        <v>4154800</v>
       </c>
       <c r="E62" s="3">
-        <v>3023200</v>
+        <v>3456500</v>
       </c>
       <c r="F62" s="3">
-        <v>2760000</v>
+        <v>3146200</v>
       </c>
       <c r="G62" s="3">
-        <v>2241500</v>
+        <v>2872300</v>
       </c>
       <c r="H62" s="3">
-        <v>2627400</v>
+        <v>2332700</v>
       </c>
       <c r="I62" s="3">
-        <v>3011300</v>
+        <v>2734300</v>
       </c>
       <c r="J62" s="3">
+        <v>3133800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2461900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2579700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2899200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2347900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2149000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2154300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2212100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2074700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2102000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2181900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2039200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1407300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1256700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1190400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1612300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4355400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1895000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4428,8 +4576,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4502,8 +4653,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4576,82 +4730,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>693103100</v>
+        <v>707196000</v>
       </c>
       <c r="E66" s="3">
-        <v>709821700</v>
+        <v>721296900</v>
       </c>
       <c r="F66" s="3">
-        <v>759190600</v>
+        <v>738695500</v>
       </c>
       <c r="G66" s="3">
-        <v>751042200</v>
+        <v>790072600</v>
       </c>
       <c r="H66" s="3">
-        <v>804473300</v>
+        <v>781592800</v>
       </c>
       <c r="I66" s="3">
-        <v>760939500</v>
+        <v>837197300</v>
       </c>
       <c r="J66" s="3">
+        <v>791892700</v>
+      </c>
+      <c r="K66" s="3">
         <v>773314600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>836665500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>848849800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>809456700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>838565000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>787811900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>829343500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>798363400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>752679500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>774513700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>786648300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>757796800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>748198600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>743262400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>797637200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>805597300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>789516700</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4678,8 +4838,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4752,8 +4913,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4826,8 +4990,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4900,8 +5067,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4974,82 +5144,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>30702000</v>
+        <v>30153700</v>
       </c>
       <c r="E72" s="3">
-        <v>30974200</v>
+        <v>31950900</v>
       </c>
       <c r="F72" s="3">
-        <v>33053200</v>
+        <v>32234200</v>
       </c>
       <c r="G72" s="3">
-        <v>32620500</v>
+        <v>34397700</v>
       </c>
       <c r="H72" s="3">
-        <v>32487800</v>
+        <v>33947400</v>
       </c>
       <c r="I72" s="3">
-        <v>32739100</v>
+        <v>33809400</v>
       </c>
       <c r="J72" s="3">
+        <v>34070900</v>
+      </c>
+      <c r="K72" s="3">
         <v>33257600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>35103900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>34470100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>33344800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>33264700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>30745800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>30930100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>29702700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>27703000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>26980600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>26316600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>25085900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>27221500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>26976400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>27495100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>26875900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>29587900</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5122,8 +5298,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5196,8 +5375,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5270,82 +5452,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>44313600</v>
+        <v>47568900</v>
       </c>
       <c r="E76" s="3">
-        <v>43827000</v>
+        <v>46116100</v>
       </c>
       <c r="F76" s="3">
-        <v>44369400</v>
+        <v>45609700</v>
       </c>
       <c r="G76" s="3">
-        <v>43454100</v>
+        <v>46174200</v>
       </c>
       <c r="H76" s="3">
-        <v>44461100</v>
+        <v>45221700</v>
       </c>
       <c r="I76" s="3">
-        <v>42553700</v>
+        <v>46269700</v>
       </c>
       <c r="J76" s="3">
+        <v>44284600</v>
+      </c>
+      <c r="K76" s="3">
         <v>45607800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>49791500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>52735500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>47506100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>50429800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>46460600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>48473500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>48366900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>44316000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>44612000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>43657500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>42091400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>44056200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>43689600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>43183300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>43385200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>45848700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5418,161 +5606,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-272200</v>
+        <v>-1653000</v>
       </c>
       <c r="E81" s="3">
-        <v>-2079000</v>
+        <v>-283300</v>
       </c>
       <c r="F81" s="3">
-        <v>432700</v>
+        <v>-2163500</v>
       </c>
       <c r="G81" s="3">
-        <v>252300</v>
+        <v>450300</v>
       </c>
       <c r="H81" s="3">
-        <v>-251300</v>
+        <v>262500</v>
       </c>
       <c r="I81" s="3">
-        <v>-352000</v>
+        <v>-261500</v>
       </c>
       <c r="J81" s="3">
+        <v>-366300</v>
+      </c>
+      <c r="K81" s="3">
         <v>544400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1243300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1423600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>927400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>984000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>996800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>828400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>285200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>439700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>664000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>712200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2135600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>245100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>304400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>617200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2712000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5599,82 +5796,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>359000</v>
+        <v>430600</v>
       </c>
       <c r="E83" s="3">
-        <v>2014200</v>
+        <v>373600</v>
       </c>
       <c r="F83" s="3">
-        <v>314100</v>
+        <v>2096100</v>
       </c>
       <c r="G83" s="3">
-        <v>341000</v>
+        <v>326900</v>
       </c>
       <c r="H83" s="3">
-        <v>362900</v>
+        <v>354900</v>
       </c>
       <c r="I83" s="3">
-        <v>355000</v>
+        <v>377700</v>
       </c>
       <c r="J83" s="3">
+        <v>369400</v>
+      </c>
+      <c r="K83" s="3">
         <v>339000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>368100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>342400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>624800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>263600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>243600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>261000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>298400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>258200</v>
-      </c>
-      <c r="S83" s="3">
-        <v>213500</v>
       </c>
       <c r="T83" s="3">
         <v>213500</v>
       </c>
       <c r="U83" s="3">
+        <v>213500</v>
+      </c>
+      <c r="V83" s="3">
         <v>244100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>216000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>218000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>226800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>240200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>242300</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5747,8 +5948,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5821,8 +6025,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5895,8 +6102,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5969,8 +6179,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6043,82 +6256,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-4631600</v>
+        <v>1461000</v>
       </c>
       <c r="E89" s="3">
-        <v>7901100</v>
+        <v>-4820000</v>
       </c>
       <c r="F89" s="3">
-        <v>8314900</v>
+        <v>8222500</v>
       </c>
       <c r="G89" s="3">
-        <v>22354200</v>
+        <v>7006300</v>
       </c>
       <c r="H89" s="3">
-        <v>-1739000</v>
+        <v>24910300</v>
       </c>
       <c r="I89" s="3">
-        <v>-7374600</v>
+        <v>-1809700</v>
       </c>
       <c r="J89" s="3">
+        <v>-7674600</v>
+      </c>
+      <c r="K89" s="3">
         <v>3427100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7079000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9936000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7236300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9288500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4510600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-8516700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-10878800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>11184300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>9858300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2307100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-13452500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>7114000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4884000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-7346000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>24547000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-7004300</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6145,82 +6364,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-350000</v>
+        <v>-373600</v>
       </c>
       <c r="E91" s="3">
-        <v>-455700</v>
+        <v>-364200</v>
       </c>
       <c r="F91" s="3">
-        <v>-339000</v>
+        <v>-474200</v>
       </c>
       <c r="G91" s="3">
-        <v>-338000</v>
+        <v>-352800</v>
       </c>
       <c r="H91" s="3">
-        <v>-282200</v>
+        <v>-351800</v>
       </c>
       <c r="I91" s="3">
-        <v>-338000</v>
+        <v>-293700</v>
       </c>
       <c r="J91" s="3">
+        <v>-351800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-295100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-313500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-281700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-475700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-337300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-311700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-288700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-233500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-367100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-294500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-248400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-323500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-274200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-257200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-224700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-304400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-298200</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6293,8 +6516,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6367,82 +6593,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>14453100</v>
+        <v>-11219300</v>
       </c>
       <c r="E94" s="3">
-        <v>17168200</v>
+        <v>15041000</v>
       </c>
       <c r="F94" s="3">
-        <v>-10750800</v>
+        <v>17866600</v>
       </c>
       <c r="G94" s="3">
-        <v>-3454000</v>
+        <v>-12964600</v>
       </c>
       <c r="H94" s="3">
-        <v>-13016300</v>
+        <v>-1818000</v>
       </c>
       <c r="I94" s="3">
-        <v>11945400</v>
+        <v>-13545700</v>
       </c>
       <c r="J94" s="3">
+        <v>12431300</v>
+      </c>
+      <c r="K94" s="3">
         <v>5972700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>10880600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12421400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3166400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-242400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2051100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2311700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-493300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>824400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>4866600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-12808900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>23224500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-8396800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>3455500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-7649400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-14118300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>6844800</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6469,8 +6701,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6490,17 +6723,17 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-357000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-371500</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-383100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -6508,43 +6741,46 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-739400</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-1100</v>
       </c>
       <c r="Q96" s="3">
         <v>-1100</v>
       </c>
       <c r="R96" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-679400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-3100</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-1000</v>
       </c>
       <c r="V96" s="3">
         <v>-1000</v>
       </c>
       <c r="W96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-588600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6617,8 +6853,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6691,8 +6930,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6765,226 +7007,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6540000</v>
+        <v>793800</v>
       </c>
       <c r="E100" s="3">
-        <v>-8867300</v>
+        <v>-6806100</v>
       </c>
       <c r="F100" s="3">
-        <v>7592000</v>
+        <v>-9228000</v>
       </c>
       <c r="G100" s="3">
-        <v>-8977000</v>
+        <v>7900800</v>
       </c>
       <c r="H100" s="3">
-        <v>10205400</v>
+        <v>-9342100</v>
       </c>
       <c r="I100" s="3">
-        <v>-3076100</v>
+        <v>10620600</v>
       </c>
       <c r="J100" s="3">
+        <v>-3201200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2054000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3877600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>41721400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>11619600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>12785600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4073400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4309200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>16266900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-29249100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-21541400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>19783400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5639400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4152700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1032600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4215600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>4487900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-9169500</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-158500</v>
+        <v>167100</v>
       </c>
       <c r="E101" s="3">
-        <v>-3172800</v>
+        <v>-165000</v>
       </c>
       <c r="F101" s="3">
-        <v>221400</v>
+        <v>-3301900</v>
       </c>
       <c r="G101" s="3">
-        <v>-957200</v>
+        <v>230400</v>
       </c>
       <c r="H101" s="3">
-        <v>2808900</v>
+        <v>-996200</v>
       </c>
       <c r="I101" s="3">
-        <v>-1080900</v>
+        <v>2923100</v>
       </c>
       <c r="J101" s="3">
+        <v>-1124800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-737900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-281400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-628400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-870800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>379800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-804300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>673600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>481200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-937500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1076600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-587000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-78400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>861900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-857900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-779700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1847400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-70400</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3122900</v>
+        <v>-8797400</v>
       </c>
       <c r="E102" s="3">
-        <v>13029200</v>
+        <v>3250000</v>
       </c>
       <c r="F102" s="3">
-        <v>5377400</v>
+        <v>13559200</v>
       </c>
       <c r="G102" s="3">
-        <v>13035200</v>
+        <v>5596200</v>
       </c>
       <c r="H102" s="3">
-        <v>-5810200</v>
+        <v>13565500</v>
       </c>
       <c r="I102" s="3">
-        <v>1287300</v>
+        <v>-6046500</v>
       </c>
       <c r="J102" s="3">
+        <v>1339600</v>
+      </c>
+      <c r="K102" s="3">
         <v>5734400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13800600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>18735600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6679000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3634500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2418100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5845600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5618300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-18218400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5799500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>8568300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4054200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4573600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>8514300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-19990700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>16764000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-9399400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>CS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,175 +665,181 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2567200</v>
+        <v>3454800</v>
       </c>
       <c r="E8" s="3">
-        <v>2318200</v>
+        <v>2567500</v>
       </c>
       <c r="F8" s="3">
-        <v>2337900</v>
+        <v>2318400</v>
       </c>
       <c r="G8" s="3">
-        <v>2482100</v>
+        <v>2338100</v>
       </c>
       <c r="H8" s="3">
-        <v>2987500</v>
+        <v>2482400</v>
       </c>
       <c r="I8" s="3">
-        <v>3170100</v>
+        <v>2987800</v>
       </c>
       <c r="J8" s="3">
+        <v>3170400</v>
+      </c>
+      <c r="K8" s="3">
         <v>2895100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3235600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3840200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4653300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4771900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5952200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6013800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5329000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6072000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4726700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5223700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4567900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4158700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4292300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4622800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4185600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3945300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4372000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -909,8 +915,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -986,8 +995,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1015,8 +1027,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1105,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1169,8 +1185,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1246,8 +1265,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1258,7 +1280,7 @@
         <v>-1000</v>
       </c>
       <c r="F15" s="3">
-        <v>-2100</v>
+        <v>-1000</v>
       </c>
       <c r="G15" s="3">
         <v>-2100</v>
@@ -1270,43 +1292,43 @@
         <v>-2100</v>
       </c>
       <c r="J15" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K15" s="3">
         <v>-3100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-2000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-1100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-2200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-1100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-6700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>-2200</v>
       </c>
       <c r="R15" s="3">
         <v>-2200</v>
       </c>
       <c r="S15" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="T15" s="3">
         <v>-2100</v>
       </c>
       <c r="U15" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="V15" s="3">
         <v>-3100</v>
-      </c>
-      <c r="V15" s="3">
-        <v>-2000</v>
       </c>
       <c r="W15" s="3">
         <v>-2000</v>
@@ -1315,16 +1337,19 @@
         <v>-2000</v>
       </c>
       <c r="Y15" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Z15" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1349,162 +1374,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1393600</v>
+        <v>2228100</v>
       </c>
       <c r="E17" s="3">
+        <v>1393700</v>
+      </c>
+      <c r="F17" s="3">
         <v>690100</v>
       </c>
-      <c r="F17" s="3">
-        <v>949500</v>
-      </c>
       <c r="G17" s="3">
-        <v>856100</v>
+        <v>949600</v>
       </c>
       <c r="H17" s="3">
-        <v>1492200</v>
+        <v>856200</v>
       </c>
       <c r="I17" s="3">
-        <v>6013300</v>
+        <v>1492300</v>
       </c>
       <c r="J17" s="3">
+        <v>6013900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1535800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1937400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2477000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3606700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3078200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4042200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3911700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3724100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3480900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3322600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3663800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2990600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2629800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2695100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2960300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2549500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2343400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2430400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1173600</v>
+        <v>1226700</v>
       </c>
       <c r="E18" s="3">
-        <v>1628100</v>
+        <v>1173700</v>
       </c>
       <c r="F18" s="3">
-        <v>1388400</v>
+        <v>1628300</v>
       </c>
       <c r="G18" s="3">
-        <v>1626000</v>
+        <v>1388500</v>
       </c>
       <c r="H18" s="3">
-        <v>1495300</v>
+        <v>1626200</v>
       </c>
       <c r="I18" s="3">
-        <v>-2843200</v>
+        <v>1495400</v>
       </c>
       <c r="J18" s="3">
+        <v>-2843500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1359300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1298200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1363200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1046600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1693700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1910000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2102100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1604900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2591100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1404100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1559900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1577400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1528900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1597200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1662500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1636100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1601900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1941600</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1532,162 +1564,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2390800</v>
+        <v>-1581600</v>
       </c>
       <c r="E20" s="3">
-        <v>-2072200</v>
+        <v>-2391000</v>
       </c>
       <c r="F20" s="3">
-        <v>-3115100</v>
+        <v>-2072400</v>
       </c>
       <c r="G20" s="3">
+        <v>-3115400</v>
+      </c>
+      <c r="H20" s="3">
         <v>-580100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-651700</v>
       </c>
-      <c r="I20" s="3">
-        <v>2057700</v>
-      </c>
       <c r="J20" s="3">
+        <v>2057900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1450700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-497600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>296400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>254600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-372300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-634400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-717000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-430300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1935900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-708300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-480300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-495700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1387200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1195400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1077800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-942300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-3883200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1711700</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>188900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-786600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-70600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>369400</v>
       </c>
-      <c r="G21" s="3">
-        <v>1372800</v>
-      </c>
       <c r="H21" s="3">
-        <v>1198500</v>
+        <v>1373000</v>
       </c>
       <c r="I21" s="3">
+        <v>1198600</v>
+      </c>
+      <c r="J21" s="3">
         <v>-407800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>278100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1139700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2027600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1643500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1946200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1539100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1628700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1435700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>953600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>954100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1293100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1295200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>385700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>617800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>802600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>920600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-2041000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1763,162 +1802,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1217200</v>
+        <v>-354900</v>
       </c>
       <c r="E23" s="3">
-        <v>-444100</v>
+        <v>-1217300</v>
       </c>
       <c r="F23" s="3">
-        <v>-1726700</v>
+        <v>-444200</v>
       </c>
       <c r="G23" s="3">
-        <v>1046000</v>
+        <v>-1726900</v>
       </c>
       <c r="H23" s="3">
-        <v>843600</v>
+        <v>1046100</v>
       </c>
       <c r="I23" s="3">
-        <v>-785500</v>
+        <v>843700</v>
       </c>
       <c r="J23" s="3">
+        <v>-785600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-91300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>800700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1659500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1301200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1321400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1275500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1385100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1174600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>655200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>695800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1079600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1081700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>141600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>401800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>584600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>693800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2281300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3837700</v>
+      </c>
+      <c r="E24" s="3">
         <v>434800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-156700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>431700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>591500</v>
       </c>
-      <c r="H24" s="3">
-        <v>587300</v>
-      </c>
       <c r="I24" s="3">
-        <v>-545800</v>
+        <v>587400</v>
       </c>
       <c r="J24" s="3">
+        <v>-545900</v>
+      </c>
+      <c r="K24" s="3">
         <v>271900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>257300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>418400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-119200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>392900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>285900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>388300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>346200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>374400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>270700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>408500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>371500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-66300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>153700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>277200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>80800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>428700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1994,162 +2042,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1652000</v>
+        <v>-4192600</v>
       </c>
       <c r="E26" s="3">
-        <v>-287400</v>
+        <v>-1652100</v>
       </c>
       <c r="F26" s="3">
-        <v>-2158400</v>
+        <v>-287500</v>
       </c>
       <c r="G26" s="3">
+        <v>-2158600</v>
+      </c>
+      <c r="H26" s="3">
         <v>454500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>256300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-239700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-363200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>543400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1241200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1420400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>928500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>989600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>996800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>828400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>280800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>425200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>671200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>710200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>207900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>248100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>307400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>613000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2710000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1653000</v>
+        <v>-4186400</v>
       </c>
       <c r="E27" s="3">
+        <v>-1653200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-283300</v>
       </c>
-      <c r="F27" s="3">
-        <v>-2163500</v>
-      </c>
       <c r="G27" s="3">
-        <v>450300</v>
+        <v>-2163800</v>
       </c>
       <c r="H27" s="3">
-        <v>262500</v>
+        <v>450400</v>
       </c>
       <c r="I27" s="3">
+        <v>262600</v>
+      </c>
+      <c r="J27" s="3">
         <v>-261500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-366300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>544400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1243300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1423600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>927400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>984000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>996800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>828400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>285200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>439700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>664000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>712200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>174800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>245100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>304400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>617200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2712000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2225,8 +2282,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2266,8 +2326,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -2284,26 +2344,29 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>-2310400</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2379,8 +2442,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2456,162 +2522,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2390800</v>
+        <v>1581600</v>
       </c>
       <c r="E32" s="3">
-        <v>2072200</v>
+        <v>2391000</v>
       </c>
       <c r="F32" s="3">
-        <v>3115100</v>
+        <v>2072400</v>
       </c>
       <c r="G32" s="3">
+        <v>3115400</v>
+      </c>
+      <c r="H32" s="3">
         <v>580100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>651700</v>
       </c>
-      <c r="I32" s="3">
-        <v>-2057700</v>
-      </c>
       <c r="J32" s="3">
+        <v>-2057900</v>
+      </c>
+      <c r="K32" s="3">
         <v>1450700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>497600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-296400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-254600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>372300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>634400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>717000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>430300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1935900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>708300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>480300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>495700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1387200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1195400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1077800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>942300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>3883200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1711700</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1653000</v>
+        <v>-4186400</v>
       </c>
       <c r="E33" s="3">
+        <v>-1653200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-283300</v>
       </c>
-      <c r="F33" s="3">
-        <v>-2163500</v>
-      </c>
       <c r="G33" s="3">
-        <v>450300</v>
+        <v>-2163800</v>
       </c>
       <c r="H33" s="3">
-        <v>262500</v>
+        <v>450400</v>
       </c>
       <c r="I33" s="3">
+        <v>262600</v>
+      </c>
+      <c r="J33" s="3">
         <v>-261500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-366300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>544400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1243300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1423600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>927400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>984000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>996800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>828400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>285200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>439700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>664000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>712200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2135600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>245100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>304400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>617200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2712000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2687,167 +2762,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1653000</v>
+        <v>-4186400</v>
       </c>
       <c r="E35" s="3">
+        <v>-1653200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-283300</v>
       </c>
-      <c r="F35" s="3">
-        <v>-2163500</v>
-      </c>
       <c r="G35" s="3">
-        <v>450300</v>
+        <v>-2163800</v>
       </c>
       <c r="H35" s="3">
-        <v>262500</v>
+        <v>450400</v>
       </c>
       <c r="I35" s="3">
+        <v>262600</v>
+      </c>
+      <c r="J35" s="3">
         <v>-261500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-366300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>544400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1243300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1423600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>927400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>984000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>996800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>828400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>285200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>439700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>664000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>712200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2135600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>245100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>304400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>617200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2712000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2875,8 +2959,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2904,162 +2989,169 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>165479300</v>
+        <v>154827400</v>
       </c>
       <c r="E41" s="3">
-        <v>174276700</v>
+        <v>165496900</v>
       </c>
       <c r="F41" s="3">
-        <v>171026700</v>
+        <v>174295200</v>
       </c>
       <c r="G41" s="3">
-        <v>157467500</v>
+        <v>171044800</v>
       </c>
       <c r="H41" s="3">
-        <v>151871300</v>
+        <v>157484200</v>
       </c>
       <c r="I41" s="3">
-        <v>138305800</v>
+        <v>151887400</v>
       </c>
       <c r="J41" s="3">
+        <v>138320500</v>
+      </c>
+      <c r="K41" s="3">
         <v>144352300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>137422700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>141312300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>129113300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>110894300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>106939200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>98392600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>104813400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>110171800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>98459900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>115468700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>121268200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>110311400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>106257100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>110830700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>105473900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>125464600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>108700600</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>229518100</v>
+        <v>221864900</v>
       </c>
       <c r="E42" s="3">
-        <v>225976500</v>
+        <v>229542400</v>
       </c>
       <c r="F42" s="3">
-        <v>237870300</v>
+        <v>226000500</v>
       </c>
       <c r="G42" s="3">
-        <v>256681200</v>
+        <v>237895500</v>
       </c>
       <c r="H42" s="3">
-        <v>246851300</v>
+        <v>256708400</v>
       </c>
       <c r="I42" s="3">
-        <v>273053500</v>
+        <v>246877500</v>
       </c>
       <c r="J42" s="3">
+        <v>273082500</v>
+      </c>
+      <c r="K42" s="3">
         <v>259735000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>267316200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>294486300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>297518000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>294748900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>312658300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>285838400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>298811400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>286736000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>264012800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>272227400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>278622000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>285284700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>297761800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>285608100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>324448100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>325650300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>323868200</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3135,8 +3227,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3212,8 +3307,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3289,8 +3387,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3366,76 +3467,79 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>928700</v>
+        <v>921500</v>
       </c>
       <c r="E47" s="3">
-        <v>981600</v>
+        <v>928800</v>
       </c>
       <c r="F47" s="3">
-        <v>1053200</v>
+        <v>981700</v>
       </c>
       <c r="G47" s="3">
-        <v>1187100</v>
+        <v>1053300</v>
       </c>
       <c r="H47" s="3">
-        <v>1277400</v>
+        <v>1187200</v>
       </c>
       <c r="I47" s="3">
-        <v>1321000</v>
+        <v>1277500</v>
       </c>
       <c r="J47" s="3">
+        <v>1321100</v>
+      </c>
+      <c r="K47" s="3">
         <v>1298100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1358100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1573900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1554700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1536900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2672800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2544700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2730900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2716700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2579100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3067500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3015200</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y47" s="3">
-        <v>0</v>
+      <c r="Y47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z47" s="3">
         <v>0</v>
@@ -3443,162 +3547,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7728600</v>
+        <v>7649500</v>
       </c>
       <c r="E48" s="3">
-        <v>7668400</v>
+        <v>7729400</v>
       </c>
       <c r="F48" s="3">
-        <v>7580200</v>
+        <v>7669200</v>
       </c>
       <c r="G48" s="3">
-        <v>7790800</v>
+        <v>7581000</v>
       </c>
       <c r="H48" s="3">
-        <v>7707800</v>
+        <v>7791700</v>
       </c>
       <c r="I48" s="3">
-        <v>7806400</v>
+        <v>7708600</v>
       </c>
       <c r="J48" s="3">
+        <v>7807200</v>
+      </c>
+      <c r="K48" s="3">
         <v>7653900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7507200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8185300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8374800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8525100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8717700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8230900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8935900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5327600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5003600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4957900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4799900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4707200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4611800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4545500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4832800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4878300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4804800</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3438800</v>
+        <v>3572000</v>
       </c>
       <c r="E49" s="3">
-        <v>3360000</v>
+        <v>3439200</v>
       </c>
       <c r="F49" s="3">
-        <v>3313300</v>
+        <v>3360300</v>
       </c>
       <c r="G49" s="3">
-        <v>5031700</v>
+        <v>3313600</v>
       </c>
       <c r="H49" s="3">
-        <v>5015100</v>
+        <v>5032200</v>
       </c>
       <c r="I49" s="3">
-        <v>5066900</v>
+        <v>5015600</v>
       </c>
       <c r="J49" s="3">
+        <v>5067500</v>
+      </c>
+      <c r="K49" s="3">
         <v>4838700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4819000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5295300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5290300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5392400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5561200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5262800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5564600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5489500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5133200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5140600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5007200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4987400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4956300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4890000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5211800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5308100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5091700</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3674,8 +3787,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3751,85 +3867,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16496900</v>
+        <v>13494300</v>
       </c>
       <c r="E52" s="3">
-        <v>17778400</v>
+        <v>16498600</v>
       </c>
       <c r="F52" s="3">
-        <v>16644200</v>
+        <v>17780300</v>
       </c>
       <c r="G52" s="3">
-        <v>20302000</v>
+        <v>16646000</v>
       </c>
       <c r="H52" s="3">
-        <v>16108800</v>
+        <v>20304200</v>
       </c>
       <c r="I52" s="3">
-        <v>21103100</v>
+        <v>16110500</v>
       </c>
       <c r="J52" s="3">
+        <v>21105300</v>
+      </c>
+      <c r="K52" s="3">
         <v>14234800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14061200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15618500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>18501600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17806600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>18874100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>15735100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>17019100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>14982900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>14439500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>16334100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>17028900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>11088900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>16777500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>19371200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>17695000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>16085800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>21881600</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3905,85 +4027,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>754764800</v>
+        <v>726817500</v>
       </c>
       <c r="E54" s="3">
-        <v>767413000</v>
+        <v>754844800</v>
       </c>
       <c r="F54" s="3">
-        <v>784305200</v>
+        <v>767494400</v>
       </c>
       <c r="G54" s="3">
-        <v>836246800</v>
+        <v>784388400</v>
       </c>
       <c r="H54" s="3">
-        <v>826814400</v>
+        <v>836335500</v>
       </c>
       <c r="I54" s="3">
-        <v>883467000</v>
+        <v>826902100</v>
       </c>
       <c r="J54" s="3">
+        <v>883560700</v>
+      </c>
+      <c r="K54" s="3">
         <v>836177300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>818922500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>886457000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>901585300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>856962700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>888994900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>834272500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>877817000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>846730300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>796995500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>819125600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>830305800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>799888200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>792254900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>786952000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>840820500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>848982500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>835365400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4011,8 +4139,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4040,85 +4169,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12405300</v>
+        <v>12649500</v>
       </c>
       <c r="E57" s="3">
-        <v>18169600</v>
+        <v>12406700</v>
       </c>
       <c r="F57" s="3">
-        <v>17670500</v>
+        <v>18171500</v>
       </c>
       <c r="G57" s="3">
-        <v>26480300</v>
+        <v>17672400</v>
       </c>
       <c r="H57" s="3">
-        <v>25485200</v>
+        <v>26483100</v>
       </c>
       <c r="I57" s="3">
-        <v>32729100</v>
+        <v>25487900</v>
       </c>
       <c r="J57" s="3">
+        <v>32732600</v>
+      </c>
+      <c r="K57" s="3">
         <v>26927500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33876800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>39484400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>53854600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>33508100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>43489200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>43260600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>47636200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>39733500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>46906500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>41249900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>44279400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>49115000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>37807100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>39269700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>48311200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>47521000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>49537200</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4194,85 +4327,91 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3296700</v>
+        <v>3187000</v>
       </c>
       <c r="E59" s="3">
-        <v>3381800</v>
+        <v>3297000</v>
       </c>
       <c r="F59" s="3">
-        <v>3399400</v>
+        <v>3382100</v>
       </c>
       <c r="G59" s="3">
-        <v>3411900</v>
+        <v>3399800</v>
       </c>
       <c r="H59" s="3">
-        <v>3397300</v>
+        <v>3412200</v>
       </c>
       <c r="I59" s="3">
-        <v>3433700</v>
+        <v>3397700</v>
       </c>
       <c r="J59" s="3">
+        <v>3434000</v>
+      </c>
+      <c r="K59" s="3">
         <v>3438800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3400100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3727800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3948000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4235300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4267800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4545700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4860100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1020800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>767400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>683500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>738900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>703200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>604700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>528400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>604700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>658600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>889500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4348,162 +4487,171 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>163962200</v>
+        <v>168748200</v>
       </c>
       <c r="E61" s="3">
-        <v>166359300</v>
+        <v>163979600</v>
       </c>
       <c r="F61" s="3">
-        <v>173183000</v>
+        <v>166376900</v>
       </c>
       <c r="G61" s="3">
-        <v>181924300</v>
+        <v>173201300</v>
       </c>
       <c r="H61" s="3">
-        <v>176639500</v>
+        <v>181943600</v>
       </c>
       <c r="I61" s="3">
-        <v>176874000</v>
+        <v>176658200</v>
       </c>
       <c r="J61" s="3">
+        <v>176892700</v>
+      </c>
+      <c r="K61" s="3">
         <v>167155100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>163920900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>181282400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>157012500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>165455900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>177721900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>168037300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>177259900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>169924000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>170161500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>170320800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>170531200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>173814100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>181108900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>177498700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>193974600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>200181500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>202397600</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4154800</v>
+        <v>4170800</v>
       </c>
       <c r="E62" s="3">
-        <v>3456500</v>
+        <v>4155300</v>
       </c>
       <c r="F62" s="3">
-        <v>3146200</v>
+        <v>3456800</v>
       </c>
       <c r="G62" s="3">
-        <v>2872300</v>
+        <v>3146500</v>
       </c>
       <c r="H62" s="3">
-        <v>2332700</v>
+        <v>2872600</v>
       </c>
       <c r="I62" s="3">
-        <v>2734300</v>
+        <v>2332900</v>
       </c>
       <c r="J62" s="3">
+        <v>2734600</v>
+      </c>
+      <c r="K62" s="3">
         <v>3133800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2461900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2579700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2899200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2347900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2149000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2154300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2212100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2074700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2102000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2181900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2039200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1407300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1256700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1190400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1612300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4355400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1895000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4579,8 +4727,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4656,8 +4807,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4733,85 +4887,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>707196000</v>
+        <v>681915900</v>
       </c>
       <c r="E66" s="3">
-        <v>721296900</v>
+        <v>707270900</v>
       </c>
       <c r="F66" s="3">
-        <v>738695500</v>
+        <v>721373300</v>
       </c>
       <c r="G66" s="3">
-        <v>790072600</v>
+        <v>738773800</v>
       </c>
       <c r="H66" s="3">
-        <v>781592800</v>
+        <v>790156400</v>
       </c>
       <c r="I66" s="3">
-        <v>837197300</v>
+        <v>781675600</v>
       </c>
       <c r="J66" s="3">
+        <v>837286100</v>
+      </c>
+      <c r="K66" s="3">
         <v>791892700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>773314600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>836665500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>848849800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>809456700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>838565000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>787811900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>829343500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>798363400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>752679500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>774513700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>786648300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>757796800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>748198600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>743262400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>797637200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>805597300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>789516700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4839,8 +4999,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4916,8 +5077,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4993,8 +5157,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5070,8 +5237,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5147,85 +5317,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>30153700</v>
+        <v>25970400</v>
       </c>
       <c r="E72" s="3">
-        <v>31950900</v>
+        <v>30156800</v>
       </c>
       <c r="F72" s="3">
-        <v>32234200</v>
+        <v>31954300</v>
       </c>
       <c r="G72" s="3">
-        <v>34397700</v>
+        <v>32237600</v>
       </c>
       <c r="H72" s="3">
-        <v>33947400</v>
+        <v>34401400</v>
       </c>
       <c r="I72" s="3">
-        <v>33809400</v>
+        <v>33951000</v>
       </c>
       <c r="J72" s="3">
+        <v>33812900</v>
+      </c>
+      <c r="K72" s="3">
         <v>34070900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>33257600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>35103900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>34470100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>33344800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>33264700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>30745800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>30930100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>29702700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>27703000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>26980600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>26316600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>25085900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>27221500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>26976400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>27495100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>26875900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>29587900</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5301,8 +5477,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5378,8 +5557,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5455,85 +5637,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>47568900</v>
+        <v>44901600</v>
       </c>
       <c r="E76" s="3">
-        <v>46116100</v>
+        <v>47573900</v>
       </c>
       <c r="F76" s="3">
-        <v>45609700</v>
+        <v>46121000</v>
       </c>
       <c r="G76" s="3">
-        <v>46174200</v>
+        <v>45614600</v>
       </c>
       <c r="H76" s="3">
-        <v>45221700</v>
+        <v>46179100</v>
       </c>
       <c r="I76" s="3">
-        <v>46269700</v>
+        <v>45226500</v>
       </c>
       <c r="J76" s="3">
+        <v>46274600</v>
+      </c>
+      <c r="K76" s="3">
         <v>44284600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>45607800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>49791500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>52735500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>47506100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>50429800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>46460600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>48473500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>48366900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>44316000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>44612000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>43657500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>42091400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>44056200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>43689600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>43183300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>43385200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>45848700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5609,167 +5797,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1653000</v>
+        <v>-4186400</v>
       </c>
       <c r="E81" s="3">
+        <v>-1653200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-283300</v>
       </c>
-      <c r="F81" s="3">
-        <v>-2163500</v>
-      </c>
       <c r="G81" s="3">
-        <v>450300</v>
+        <v>-2163800</v>
       </c>
       <c r="H81" s="3">
-        <v>262500</v>
+        <v>450400</v>
       </c>
       <c r="I81" s="3">
+        <v>262600</v>
+      </c>
+      <c r="J81" s="3">
         <v>-261500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-366300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>544400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1243300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1423600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>927400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>984000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>996800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>828400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>285200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>439700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>664000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>712200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2135600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>245100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>304400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>617200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2712000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5797,85 +5994,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>430600</v>
+        <v>543800</v>
       </c>
       <c r="E83" s="3">
+        <v>430700</v>
+      </c>
+      <c r="F83" s="3">
         <v>373600</v>
       </c>
-      <c r="F83" s="3">
-        <v>2096100</v>
-      </c>
       <c r="G83" s="3">
+        <v>2096300</v>
+      </c>
+      <c r="H83" s="3">
         <v>326900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>354900</v>
       </c>
-      <c r="I83" s="3">
-        <v>377700</v>
-      </c>
       <c r="J83" s="3">
+        <v>377800</v>
+      </c>
+      <c r="K83" s="3">
         <v>369400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>339000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>368100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>342400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>624800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>263600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>243600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>261000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>298400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>258200</v>
-      </c>
-      <c r="T83" s="3">
-        <v>213500</v>
       </c>
       <c r="U83" s="3">
         <v>213500</v>
       </c>
       <c r="V83" s="3">
+        <v>213500</v>
+      </c>
+      <c r="W83" s="3">
         <v>244100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>216000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>218000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>226800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>240200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>242300</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5951,8 +6152,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6028,8 +6232,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6105,8 +6312,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6182,8 +6392,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6259,85 +6472,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1461000</v>
+        <v>8918700</v>
       </c>
       <c r="E89" s="3">
-        <v>-4820000</v>
+        <v>1461200</v>
       </c>
       <c r="F89" s="3">
-        <v>8222500</v>
+        <v>-4820500</v>
       </c>
       <c r="G89" s="3">
-        <v>7006300</v>
+        <v>7652600</v>
       </c>
       <c r="H89" s="3">
-        <v>24910300</v>
+        <v>7577900</v>
       </c>
       <c r="I89" s="3">
-        <v>-1809700</v>
+        <v>24912900</v>
       </c>
       <c r="J89" s="3">
+        <v>-1809900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-7674600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3427100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7079000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9936000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7236300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9288500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4510600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-8516700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-10878800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>11184300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>9858300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2307100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-13452500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>7114000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>4884000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-7346000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>24547000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-7004300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6365,85 +6584,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-398500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-373600</v>
       </c>
-      <c r="E91" s="3">
-        <v>-364200</v>
-      </c>
       <c r="F91" s="3">
-        <v>-474200</v>
+        <v>-364300</v>
       </c>
       <c r="G91" s="3">
+        <v>-474300</v>
+      </c>
+      <c r="H91" s="3">
         <v>-352800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-351800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-293700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-351800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-295100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-313500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-281700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-475700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-337300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-311700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-288700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-233500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-367100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-294500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-248400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-323500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-274200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-257200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-224700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-304400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-298200</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6519,8 +6742,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6596,85 +6822,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11219300</v>
+        <v>1022200</v>
       </c>
       <c r="E94" s="3">
-        <v>15041000</v>
+        <v>-11220500</v>
       </c>
       <c r="F94" s="3">
-        <v>17866600</v>
+        <v>15042600</v>
       </c>
       <c r="G94" s="3">
-        <v>-12964600</v>
+        <v>16330500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1818000</v>
+        <v>-11428000</v>
       </c>
       <c r="I94" s="3">
-        <v>-13545700</v>
+        <v>-1818200</v>
       </c>
       <c r="J94" s="3">
+        <v>-13547200</v>
+      </c>
+      <c r="K94" s="3">
         <v>12431300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>5972700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>10880600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12421400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>3166400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-242400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2051100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2311700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-493300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>824400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>4866600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-12808900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>23224500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-8396800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>3455500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-7649400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-14118300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>6844800</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6702,8 +6934,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6726,17 +6959,17 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-371500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-383100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -6744,43 +6977,46 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-739400</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-1100</v>
       </c>
       <c r="R96" s="3">
         <v>-1100</v>
       </c>
       <c r="S96" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-679400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-3100</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-1000</v>
       </c>
       <c r="W96" s="3">
         <v>-1000</v>
       </c>
       <c r="X96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-588600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6856,8 +7092,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6933,8 +7172,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7010,235 +7252,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>793800</v>
+        <v>-19764500</v>
       </c>
       <c r="E100" s="3">
-        <v>-6806100</v>
+        <v>793900</v>
       </c>
       <c r="F100" s="3">
-        <v>-9228000</v>
+        <v>-6806800</v>
       </c>
       <c r="G100" s="3">
-        <v>7900800</v>
+        <v>-9229000</v>
       </c>
       <c r="H100" s="3">
-        <v>-9342100</v>
+        <v>7901700</v>
       </c>
       <c r="I100" s="3">
-        <v>10620600</v>
+        <v>-9343100</v>
       </c>
       <c r="J100" s="3">
+        <v>10621700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3201200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2054000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3877600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>41721400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>11619600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>12785600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4073400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4309200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>16266900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-29249100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-21541400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>19783400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5639400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4152700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1032600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-4215600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>4487900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-9169500</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-845800</v>
+      </c>
+      <c r="E101" s="3">
         <v>167100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-165000</v>
       </c>
-      <c r="F101" s="3">
-        <v>-3301900</v>
-      </c>
       <c r="G101" s="3">
+        <v>-3302200</v>
+      </c>
+      <c r="H101" s="3">
         <v>230400</v>
       </c>
-      <c r="H101" s="3">
-        <v>-996200</v>
-      </c>
       <c r="I101" s="3">
-        <v>2923100</v>
+        <v>-996300</v>
       </c>
       <c r="J101" s="3">
+        <v>2923400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1124800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-737900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-281400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-628400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-870800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>379800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-804300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>673600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>481200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-937500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1076600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-587000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-78400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>861900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-857900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-779700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1847400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-70400</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8797400</v>
+        <v>-10669400</v>
       </c>
       <c r="E102" s="3">
-        <v>3250000</v>
+        <v>-8798300</v>
       </c>
       <c r="F102" s="3">
-        <v>13559200</v>
+        <v>3250300</v>
       </c>
       <c r="G102" s="3">
-        <v>5596200</v>
+        <v>13560700</v>
       </c>
       <c r="H102" s="3">
-        <v>13565500</v>
+        <v>5596700</v>
       </c>
       <c r="I102" s="3">
-        <v>-6046500</v>
+        <v>13566900</v>
       </c>
       <c r="J102" s="3">
+        <v>-6047100</v>
+      </c>
+      <c r="K102" s="3">
         <v>1339600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5734400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13800600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>18735600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6679000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3634500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2418100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5845600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5618300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-18218400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5799500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>8568300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4054200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-4573600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>8514300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-19990700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>16764000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-9399400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CS_QTR_FIN.xlsx
@@ -764,25 +764,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3454800</v>
+        <v>3569600</v>
       </c>
       <c r="E8" s="3">
-        <v>2567500</v>
+        <v>2652800</v>
       </c>
       <c r="F8" s="3">
-        <v>2318400</v>
+        <v>2395500</v>
       </c>
       <c r="G8" s="3">
-        <v>2338100</v>
+        <v>2415800</v>
       </c>
       <c r="H8" s="3">
-        <v>2482400</v>
+        <v>2564900</v>
       </c>
       <c r="I8" s="3">
-        <v>2987800</v>
+        <v>3087100</v>
       </c>
       <c r="J8" s="3">
-        <v>3170400</v>
+        <v>3275800</v>
       </c>
       <c r="K8" s="3">
         <v>2895100</v>
@@ -1274,13 +1274,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E15" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="F15" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="G15" s="3">
         <v>-2100</v>
@@ -1381,25 +1381,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2228100</v>
+        <v>2302200</v>
       </c>
       <c r="E17" s="3">
-        <v>1393700</v>
+        <v>1440100</v>
       </c>
       <c r="F17" s="3">
-        <v>690100</v>
+        <v>713100</v>
       </c>
       <c r="G17" s="3">
-        <v>949600</v>
+        <v>981100</v>
       </c>
       <c r="H17" s="3">
-        <v>856200</v>
+        <v>884600</v>
       </c>
       <c r="I17" s="3">
-        <v>1492300</v>
+        <v>1541900</v>
       </c>
       <c r="J17" s="3">
-        <v>6013900</v>
+        <v>6213800</v>
       </c>
       <c r="K17" s="3">
         <v>1535800</v>
@@ -1461,25 +1461,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1226700</v>
+        <v>1267400</v>
       </c>
       <c r="E18" s="3">
-        <v>1173700</v>
+        <v>1212700</v>
       </c>
       <c r="F18" s="3">
-        <v>1628300</v>
+        <v>1682400</v>
       </c>
       <c r="G18" s="3">
-        <v>1388500</v>
+        <v>1434700</v>
       </c>
       <c r="H18" s="3">
-        <v>1626200</v>
+        <v>1680200</v>
       </c>
       <c r="I18" s="3">
-        <v>1495400</v>
+        <v>1545100</v>
       </c>
       <c r="J18" s="3">
-        <v>-2843500</v>
+        <v>-2938000</v>
       </c>
       <c r="K18" s="3">
         <v>1359300</v>
@@ -1571,25 +1571,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1581600</v>
+        <v>-1634100</v>
       </c>
       <c r="E20" s="3">
-        <v>-2391000</v>
+        <v>-2470500</v>
       </c>
       <c r="F20" s="3">
-        <v>-2072400</v>
+        <v>-2141300</v>
       </c>
       <c r="G20" s="3">
-        <v>-3115400</v>
+        <v>-3219000</v>
       </c>
       <c r="H20" s="3">
-        <v>-580100</v>
+        <v>-599400</v>
       </c>
       <c r="I20" s="3">
-        <v>-651700</v>
+        <v>-673400</v>
       </c>
       <c r="J20" s="3">
-        <v>2057900</v>
+        <v>2126300</v>
       </c>
       <c r="K20" s="3">
         <v>-1450700</v>
@@ -1651,25 +1651,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>188900</v>
+        <v>195200</v>
       </c>
       <c r="E21" s="3">
-        <v>-786600</v>
+        <v>-812800</v>
       </c>
       <c r="F21" s="3">
-        <v>-70600</v>
+        <v>-72900</v>
       </c>
       <c r="G21" s="3">
-        <v>369400</v>
+        <v>381700</v>
       </c>
       <c r="H21" s="3">
-        <v>1373000</v>
+        <v>1418600</v>
       </c>
       <c r="I21" s="3">
-        <v>1198600</v>
+        <v>1238500</v>
       </c>
       <c r="J21" s="3">
-        <v>-407800</v>
+        <v>-421400</v>
       </c>
       <c r="K21" s="3">
         <v>278100</v>
@@ -1811,25 +1811,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-354900</v>
+        <v>-366700</v>
       </c>
       <c r="E23" s="3">
-        <v>-1217300</v>
+        <v>-1257800</v>
       </c>
       <c r="F23" s="3">
-        <v>-444200</v>
+        <v>-458900</v>
       </c>
       <c r="G23" s="3">
-        <v>-1726900</v>
+        <v>-1784300</v>
       </c>
       <c r="H23" s="3">
-        <v>1046100</v>
+        <v>1080800</v>
       </c>
       <c r="I23" s="3">
-        <v>843700</v>
+        <v>871800</v>
       </c>
       <c r="J23" s="3">
-        <v>-785600</v>
+        <v>-811700</v>
       </c>
       <c r="K23" s="3">
         <v>-91300</v>
@@ -1891,25 +1891,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3837700</v>
+        <v>3965300</v>
       </c>
       <c r="E24" s="3">
-        <v>434800</v>
+        <v>449300</v>
       </c>
       <c r="F24" s="3">
-        <v>-156700</v>
+        <v>-161900</v>
       </c>
       <c r="G24" s="3">
-        <v>431700</v>
+        <v>446100</v>
       </c>
       <c r="H24" s="3">
-        <v>591500</v>
+        <v>611200</v>
       </c>
       <c r="I24" s="3">
-        <v>587400</v>
+        <v>606900</v>
       </c>
       <c r="J24" s="3">
-        <v>-545900</v>
+        <v>-564000</v>
       </c>
       <c r="K24" s="3">
         <v>271900</v>
@@ -2051,25 +2051,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4192600</v>
+        <v>-4332000</v>
       </c>
       <c r="E26" s="3">
-        <v>-1652100</v>
+        <v>-1707100</v>
       </c>
       <c r="F26" s="3">
-        <v>-287500</v>
+        <v>-297000</v>
       </c>
       <c r="G26" s="3">
-        <v>-2158600</v>
+        <v>-2230300</v>
       </c>
       <c r="H26" s="3">
-        <v>454500</v>
+        <v>469700</v>
       </c>
       <c r="I26" s="3">
-        <v>256300</v>
+        <v>264900</v>
       </c>
       <c r="J26" s="3">
-        <v>-239700</v>
+        <v>-247700</v>
       </c>
       <c r="K26" s="3">
         <v>-363200</v>
@@ -2131,25 +2131,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4186400</v>
+        <v>-4325500</v>
       </c>
       <c r="E27" s="3">
-        <v>-1653200</v>
+        <v>-1708100</v>
       </c>
       <c r="F27" s="3">
-        <v>-283300</v>
+        <v>-292700</v>
       </c>
       <c r="G27" s="3">
-        <v>-2163800</v>
+        <v>-2235700</v>
       </c>
       <c r="H27" s="3">
-        <v>450400</v>
+        <v>465400</v>
       </c>
       <c r="I27" s="3">
-        <v>262600</v>
+        <v>271300</v>
       </c>
       <c r="J27" s="3">
-        <v>-261500</v>
+        <v>-270200</v>
       </c>
       <c r="K27" s="3">
         <v>-366300</v>
@@ -2531,25 +2531,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1581600</v>
+        <v>1634100</v>
       </c>
       <c r="E32" s="3">
-        <v>2391000</v>
+        <v>2470500</v>
       </c>
       <c r="F32" s="3">
-        <v>2072400</v>
+        <v>2141300</v>
       </c>
       <c r="G32" s="3">
-        <v>3115400</v>
+        <v>3219000</v>
       </c>
       <c r="H32" s="3">
-        <v>580100</v>
+        <v>599400</v>
       </c>
       <c r="I32" s="3">
-        <v>651700</v>
+        <v>673400</v>
       </c>
       <c r="J32" s="3">
-        <v>-2057900</v>
+        <v>-2126300</v>
       </c>
       <c r="K32" s="3">
         <v>1450700</v>
@@ -2611,25 +2611,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4186400</v>
+        <v>-4325500</v>
       </c>
       <c r="E33" s="3">
-        <v>-1653200</v>
+        <v>-1708100</v>
       </c>
       <c r="F33" s="3">
-        <v>-283300</v>
+        <v>-292700</v>
       </c>
       <c r="G33" s="3">
-        <v>-2163800</v>
+        <v>-2235700</v>
       </c>
       <c r="H33" s="3">
-        <v>450400</v>
+        <v>465400</v>
       </c>
       <c r="I33" s="3">
-        <v>262600</v>
+        <v>271300</v>
       </c>
       <c r="J33" s="3">
-        <v>-261500</v>
+        <v>-270200</v>
       </c>
       <c r="K33" s="3">
         <v>-366300</v>
@@ -2771,25 +2771,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4186400</v>
+        <v>-4325500</v>
       </c>
       <c r="E35" s="3">
-        <v>-1653200</v>
+        <v>-1708100</v>
       </c>
       <c r="F35" s="3">
-        <v>-283300</v>
+        <v>-292700</v>
       </c>
       <c r="G35" s="3">
-        <v>-2163800</v>
+        <v>-2235700</v>
       </c>
       <c r="H35" s="3">
-        <v>450400</v>
+        <v>465400</v>
       </c>
       <c r="I35" s="3">
-        <v>262600</v>
+        <v>271300</v>
       </c>
       <c r="J35" s="3">
-        <v>-261500</v>
+        <v>-270200</v>
       </c>
       <c r="K35" s="3">
         <v>-366300</v>
@@ -2996,25 +2996,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>154827400</v>
+        <v>159973000</v>
       </c>
       <c r="E41" s="3">
-        <v>165496900</v>
+        <v>170997000</v>
       </c>
       <c r="F41" s="3">
-        <v>174295200</v>
+        <v>180087700</v>
       </c>
       <c r="G41" s="3">
-        <v>171044800</v>
+        <v>176729400</v>
       </c>
       <c r="H41" s="3">
-        <v>157484200</v>
+        <v>162718000</v>
       </c>
       <c r="I41" s="3">
-        <v>151887400</v>
+        <v>156935300</v>
       </c>
       <c r="J41" s="3">
-        <v>138320500</v>
+        <v>142917500</v>
       </c>
       <c r="K41" s="3">
         <v>144352300</v>
@@ -3076,25 +3076,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>221864900</v>
+        <v>229238500</v>
       </c>
       <c r="E42" s="3">
-        <v>229542400</v>
+        <v>237171100</v>
       </c>
       <c r="F42" s="3">
-        <v>226000500</v>
+        <v>233511500</v>
       </c>
       <c r="G42" s="3">
-        <v>237895500</v>
+        <v>245801800</v>
       </c>
       <c r="H42" s="3">
-        <v>256708400</v>
+        <v>265239900</v>
       </c>
       <c r="I42" s="3">
-        <v>246877500</v>
+        <v>255082300</v>
       </c>
       <c r="J42" s="3">
-        <v>273082500</v>
+        <v>282158200</v>
       </c>
       <c r="K42" s="3">
         <v>259735000</v>
@@ -3476,25 +3476,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>921500</v>
+        <v>952200</v>
       </c>
       <c r="E47" s="3">
-        <v>928800</v>
+        <v>959700</v>
       </c>
       <c r="F47" s="3">
-        <v>981700</v>
+        <v>1014400</v>
       </c>
       <c r="G47" s="3">
-        <v>1053300</v>
+        <v>1088400</v>
       </c>
       <c r="H47" s="3">
-        <v>1187200</v>
+        <v>1226700</v>
       </c>
       <c r="I47" s="3">
-        <v>1277500</v>
+        <v>1320000</v>
       </c>
       <c r="J47" s="3">
-        <v>1321100</v>
+        <v>1365000</v>
       </c>
       <c r="K47" s="3">
         <v>1298100</v>
@@ -3556,25 +3556,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7649500</v>
+        <v>7903700</v>
       </c>
       <c r="E48" s="3">
-        <v>7729400</v>
+        <v>7986300</v>
       </c>
       <c r="F48" s="3">
-        <v>7669200</v>
+        <v>7924100</v>
       </c>
       <c r="G48" s="3">
-        <v>7581000</v>
+        <v>7832900</v>
       </c>
       <c r="H48" s="3">
-        <v>7791700</v>
+        <v>8050600</v>
       </c>
       <c r="I48" s="3">
-        <v>7708600</v>
+        <v>7964800</v>
       </c>
       <c r="J48" s="3">
-        <v>7807200</v>
+        <v>8066700</v>
       </c>
       <c r="K48" s="3">
         <v>7653900</v>
@@ -3636,25 +3636,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3572000</v>
+        <v>3690800</v>
       </c>
       <c r="E49" s="3">
-        <v>3439200</v>
+        <v>3553500</v>
       </c>
       <c r="F49" s="3">
-        <v>3360300</v>
+        <v>3472000</v>
       </c>
       <c r="G49" s="3">
-        <v>3313600</v>
+        <v>3423800</v>
       </c>
       <c r="H49" s="3">
-        <v>5032200</v>
+        <v>5199400</v>
       </c>
       <c r="I49" s="3">
-        <v>5015600</v>
+        <v>5182300</v>
       </c>
       <c r="J49" s="3">
-        <v>5067500</v>
+        <v>5235900</v>
       </c>
       <c r="K49" s="3">
         <v>4838700</v>
@@ -3876,25 +3876,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13494300</v>
+        <v>13942700</v>
       </c>
       <c r="E52" s="3">
-        <v>16498600</v>
+        <v>17046900</v>
       </c>
       <c r="F52" s="3">
-        <v>17780300</v>
+        <v>18371200</v>
       </c>
       <c r="G52" s="3">
-        <v>16646000</v>
+        <v>17199200</v>
       </c>
       <c r="H52" s="3">
-        <v>20304200</v>
+        <v>20979000</v>
       </c>
       <c r="I52" s="3">
-        <v>16110500</v>
+        <v>16645900</v>
       </c>
       <c r="J52" s="3">
-        <v>21105300</v>
+        <v>21806800</v>
       </c>
       <c r="K52" s="3">
         <v>14234800</v>
@@ -4036,25 +4036,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>726817500</v>
+        <v>750972900</v>
       </c>
       <c r="E54" s="3">
-        <v>754844800</v>
+        <v>779931700</v>
       </c>
       <c r="F54" s="3">
-        <v>767494400</v>
+        <v>793001600</v>
       </c>
       <c r="G54" s="3">
-        <v>784388400</v>
+        <v>810457100</v>
       </c>
       <c r="H54" s="3">
-        <v>836335500</v>
+        <v>864130600</v>
       </c>
       <c r="I54" s="3">
-        <v>826902100</v>
+        <v>854383700</v>
       </c>
       <c r="J54" s="3">
-        <v>883560700</v>
+        <v>912925300</v>
       </c>
       <c r="K54" s="3">
         <v>836177300</v>
@@ -4176,25 +4176,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12649500</v>
+        <v>13069900</v>
       </c>
       <c r="E57" s="3">
-        <v>12406700</v>
+        <v>12819000</v>
       </c>
       <c r="F57" s="3">
-        <v>18171500</v>
+        <v>18775400</v>
       </c>
       <c r="G57" s="3">
-        <v>17672400</v>
+        <v>18259700</v>
       </c>
       <c r="H57" s="3">
-        <v>26483100</v>
+        <v>27363300</v>
       </c>
       <c r="I57" s="3">
-        <v>25487900</v>
+        <v>26335000</v>
       </c>
       <c r="J57" s="3">
-        <v>32732600</v>
+        <v>33820500</v>
       </c>
       <c r="K57" s="3">
         <v>26927500</v>
@@ -4336,25 +4336,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3187000</v>
+        <v>3292900</v>
       </c>
       <c r="E59" s="3">
-        <v>3297000</v>
+        <v>3406600</v>
       </c>
       <c r="F59" s="3">
-        <v>3382100</v>
+        <v>3494500</v>
       </c>
       <c r="G59" s="3">
-        <v>3399800</v>
+        <v>3512800</v>
       </c>
       <c r="H59" s="3">
-        <v>3412200</v>
+        <v>3525600</v>
       </c>
       <c r="I59" s="3">
-        <v>3397700</v>
+        <v>3510600</v>
       </c>
       <c r="J59" s="3">
-        <v>3434000</v>
+        <v>3548100</v>
       </c>
       <c r="K59" s="3">
         <v>3438800</v>
@@ -4496,25 +4496,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>168748200</v>
+        <v>174356500</v>
       </c>
       <c r="E61" s="3">
-        <v>163979600</v>
+        <v>169429400</v>
       </c>
       <c r="F61" s="3">
-        <v>166376900</v>
+        <v>171906300</v>
       </c>
       <c r="G61" s="3">
-        <v>173201300</v>
+        <v>178957600</v>
       </c>
       <c r="H61" s="3">
-        <v>181943600</v>
+        <v>187990400</v>
       </c>
       <c r="I61" s="3">
-        <v>176658200</v>
+        <v>182529300</v>
       </c>
       <c r="J61" s="3">
-        <v>176892700</v>
+        <v>182771600</v>
       </c>
       <c r="K61" s="3">
         <v>167155100</v>
@@ -4576,25 +4576,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4170800</v>
+        <v>4309500</v>
       </c>
       <c r="E62" s="3">
-        <v>4155300</v>
+        <v>4293400</v>
       </c>
       <c r="F62" s="3">
-        <v>3456800</v>
+        <v>3571700</v>
       </c>
       <c r="G62" s="3">
-        <v>3146500</v>
+        <v>3251100</v>
       </c>
       <c r="H62" s="3">
-        <v>2872600</v>
+        <v>2968000</v>
       </c>
       <c r="I62" s="3">
-        <v>2332900</v>
+        <v>2410500</v>
       </c>
       <c r="J62" s="3">
-        <v>2734600</v>
+        <v>2825400</v>
       </c>
       <c r="K62" s="3">
         <v>3133800</v>
@@ -4896,25 +4896,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>681915900</v>
+        <v>704579000</v>
       </c>
       <c r="E66" s="3">
-        <v>707270900</v>
+        <v>730776700</v>
       </c>
       <c r="F66" s="3">
-        <v>721373300</v>
+        <v>745347700</v>
       </c>
       <c r="G66" s="3">
-        <v>738773800</v>
+        <v>763326500</v>
       </c>
       <c r="H66" s="3">
-        <v>790156400</v>
+        <v>816416700</v>
       </c>
       <c r="I66" s="3">
-        <v>781675600</v>
+        <v>807654100</v>
       </c>
       <c r="J66" s="3">
-        <v>837286100</v>
+        <v>865112800</v>
       </c>
       <c r="K66" s="3">
         <v>791892700</v>
@@ -5326,25 +5326,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25970400</v>
+        <v>26833600</v>
       </c>
       <c r="E72" s="3">
-        <v>30156800</v>
+        <v>31159100</v>
       </c>
       <c r="F72" s="3">
-        <v>31954300</v>
+        <v>33016300</v>
       </c>
       <c r="G72" s="3">
-        <v>32237600</v>
+        <v>33309000</v>
       </c>
       <c r="H72" s="3">
-        <v>34401400</v>
+        <v>35544700</v>
       </c>
       <c r="I72" s="3">
-        <v>33951000</v>
+        <v>35079300</v>
       </c>
       <c r="J72" s="3">
-        <v>33812900</v>
+        <v>34936700</v>
       </c>
       <c r="K72" s="3">
         <v>34070900</v>
@@ -5646,25 +5646,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>44901600</v>
+        <v>46393900</v>
       </c>
       <c r="E76" s="3">
-        <v>47573900</v>
+        <v>49155000</v>
       </c>
       <c r="F76" s="3">
-        <v>46121000</v>
+        <v>47653800</v>
       </c>
       <c r="G76" s="3">
-        <v>45614600</v>
+        <v>47130600</v>
       </c>
       <c r="H76" s="3">
-        <v>46179100</v>
+        <v>47713900</v>
       </c>
       <c r="I76" s="3">
-        <v>45226500</v>
+        <v>46729500</v>
       </c>
       <c r="J76" s="3">
-        <v>46274600</v>
+        <v>47812500</v>
       </c>
       <c r="K76" s="3">
         <v>44284600</v>
@@ -5891,25 +5891,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4186400</v>
+        <v>-4325500</v>
       </c>
       <c r="E81" s="3">
-        <v>-1653200</v>
+        <v>-1708100</v>
       </c>
       <c r="F81" s="3">
-        <v>-283300</v>
+        <v>-292700</v>
       </c>
       <c r="G81" s="3">
-        <v>-2163800</v>
+        <v>-2235700</v>
       </c>
       <c r="H81" s="3">
-        <v>450400</v>
+        <v>465400</v>
       </c>
       <c r="I81" s="3">
-        <v>262600</v>
+        <v>271300</v>
       </c>
       <c r="J81" s="3">
-        <v>-261500</v>
+        <v>-270200</v>
       </c>
       <c r="K81" s="3">
         <v>-366300</v>
@@ -6001,25 +6001,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>543800</v>
+        <v>561900</v>
       </c>
       <c r="E83" s="3">
-        <v>430700</v>
+        <v>445000</v>
       </c>
       <c r="F83" s="3">
-        <v>373600</v>
+        <v>386000</v>
       </c>
       <c r="G83" s="3">
-        <v>2096300</v>
+        <v>2166000</v>
       </c>
       <c r="H83" s="3">
-        <v>326900</v>
+        <v>337800</v>
       </c>
       <c r="I83" s="3">
-        <v>354900</v>
+        <v>366700</v>
       </c>
       <c r="J83" s="3">
-        <v>377800</v>
+        <v>390300</v>
       </c>
       <c r="K83" s="3">
         <v>369400</v>
@@ -6481,25 +6481,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8918700</v>
+        <v>9215100</v>
       </c>
       <c r="E89" s="3">
-        <v>1461200</v>
+        <v>1509800</v>
       </c>
       <c r="F89" s="3">
-        <v>-4820500</v>
+        <v>-4980700</v>
       </c>
       <c r="G89" s="3">
-        <v>7652600</v>
+        <v>7906900</v>
       </c>
       <c r="H89" s="3">
-        <v>7577900</v>
+        <v>7829700</v>
       </c>
       <c r="I89" s="3">
-        <v>24912900</v>
+        <v>25740900</v>
       </c>
       <c r="J89" s="3">
-        <v>-1809900</v>
+        <v>-1870000</v>
       </c>
       <c r="K89" s="3">
         <v>-7674600</v>
@@ -6591,25 +6591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-398500</v>
+        <v>-411800</v>
       </c>
       <c r="E91" s="3">
-        <v>-373600</v>
+        <v>-386000</v>
       </c>
       <c r="F91" s="3">
-        <v>-364300</v>
+        <v>-376400</v>
       </c>
       <c r="G91" s="3">
-        <v>-474300</v>
+        <v>-490000</v>
       </c>
       <c r="H91" s="3">
-        <v>-352800</v>
+        <v>-364600</v>
       </c>
       <c r="I91" s="3">
-        <v>-351800</v>
+        <v>-363500</v>
       </c>
       <c r="J91" s="3">
-        <v>-293700</v>
+        <v>-303500</v>
       </c>
       <c r="K91" s="3">
         <v>-351800</v>
@@ -6831,25 +6831,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1022200</v>
+        <v>1056200</v>
       </c>
       <c r="E94" s="3">
-        <v>-11220500</v>
+        <v>-11593400</v>
       </c>
       <c r="F94" s="3">
-        <v>15042600</v>
+        <v>15542600</v>
       </c>
       <c r="G94" s="3">
-        <v>16330500</v>
+        <v>16873200</v>
       </c>
       <c r="H94" s="3">
-        <v>-11428000</v>
+        <v>-11807800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1818200</v>
+        <v>-1878600</v>
       </c>
       <c r="J94" s="3">
-        <v>-13547200</v>
+        <v>-13997400</v>
       </c>
       <c r="K94" s="3">
         <v>12431300</v>
@@ -7261,25 +7261,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-19764500</v>
+        <v>-20421400</v>
       </c>
       <c r="E100" s="3">
-        <v>793900</v>
+        <v>820300</v>
       </c>
       <c r="F100" s="3">
-        <v>-6806800</v>
+        <v>-7033000</v>
       </c>
       <c r="G100" s="3">
-        <v>-9229000</v>
+        <v>-9535700</v>
       </c>
       <c r="H100" s="3">
-        <v>7901700</v>
+        <v>8164300</v>
       </c>
       <c r="I100" s="3">
-        <v>-9343100</v>
+        <v>-9653600</v>
       </c>
       <c r="J100" s="3">
-        <v>10621700</v>
+        <v>10974700</v>
       </c>
       <c r="K100" s="3">
         <v>-3201200</v>
@@ -7341,25 +7341,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-845800</v>
+        <v>-873900</v>
       </c>
       <c r="E101" s="3">
-        <v>167100</v>
+        <v>172600</v>
       </c>
       <c r="F101" s="3">
-        <v>-165000</v>
+        <v>-170500</v>
       </c>
       <c r="G101" s="3">
-        <v>-3302200</v>
+        <v>-3412000</v>
       </c>
       <c r="H101" s="3">
-        <v>230400</v>
+        <v>238000</v>
       </c>
       <c r="I101" s="3">
-        <v>-996300</v>
+        <v>-1029400</v>
       </c>
       <c r="J101" s="3">
-        <v>2923400</v>
+        <v>3020600</v>
       </c>
       <c r="K101" s="3">
         <v>-1124800</v>
@@ -7421,25 +7421,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-10669400</v>
+        <v>-11024000</v>
       </c>
       <c r="E102" s="3">
-        <v>-8798300</v>
+        <v>-9090700</v>
       </c>
       <c r="F102" s="3">
-        <v>3250300</v>
+        <v>3358300</v>
       </c>
       <c r="G102" s="3">
-        <v>13560700</v>
+        <v>14011400</v>
       </c>
       <c r="H102" s="3">
-        <v>5596700</v>
+        <v>5782800</v>
       </c>
       <c r="I102" s="3">
-        <v>13566900</v>
+        <v>14017800</v>
       </c>
       <c r="J102" s="3">
-        <v>-6047100</v>
+        <v>-6248100</v>
       </c>
       <c r="K102" s="3">
         <v>1339600</v>

--- a/AAII_Financials/Quarterly/CS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>CS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,188 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3569600</v>
+        <v>4654300</v>
       </c>
       <c r="E8" s="3">
-        <v>2652800</v>
+        <v>3676800</v>
       </c>
       <c r="F8" s="3">
-        <v>2395500</v>
+        <v>2732500</v>
       </c>
       <c r="G8" s="3">
-        <v>2415800</v>
+        <v>2467400</v>
       </c>
       <c r="H8" s="3">
-        <v>2564900</v>
+        <v>2488400</v>
       </c>
       <c r="I8" s="3">
-        <v>3087100</v>
+        <v>2641900</v>
       </c>
       <c r="J8" s="3">
+        <v>3179800</v>
+      </c>
+      <c r="K8" s="3">
         <v>3275800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2895100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3235600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3840200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4653300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4771900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5952200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6013800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5329000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6072000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4726700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5223700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4567900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4158700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4292300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4622800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4185600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3945300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4372000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -918,8 +925,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -998,8 +1008,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1028,8 +1041,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1108,8 +1122,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,8 +1205,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1268,8 +1288,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1283,55 +1306,55 @@
         <v>-1100</v>
       </c>
       <c r="G15" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K15" s="3">
         <v>-2100</v>
       </c>
-      <c r="H15" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-3100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-2000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-1100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-2200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-1100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R15" s="3">
-        <v>-2200</v>
       </c>
       <c r="S15" s="3">
         <v>-2200</v>
       </c>
       <c r="T15" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="U15" s="3">
         <v>-2100</v>
       </c>
       <c r="V15" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="W15" s="3">
         <v>-3100</v>
-      </c>
-      <c r="W15" s="3">
-        <v>-2000</v>
       </c>
       <c r="X15" s="3">
         <v>-2000</v>
@@ -1340,16 +1363,19 @@
         <v>-2000</v>
       </c>
       <c r="Z15" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="AA15" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1375,168 +1401,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2302200</v>
+        <v>3060500</v>
       </c>
       <c r="E17" s="3">
-        <v>1440100</v>
+        <v>2371300</v>
       </c>
       <c r="F17" s="3">
-        <v>713100</v>
+        <v>1483300</v>
       </c>
       <c r="G17" s="3">
-        <v>981100</v>
+        <v>734500</v>
       </c>
       <c r="H17" s="3">
-        <v>884600</v>
+        <v>1010600</v>
       </c>
       <c r="I17" s="3">
-        <v>1541900</v>
+        <v>911200</v>
       </c>
       <c r="J17" s="3">
+        <v>1588200</v>
+      </c>
+      <c r="K17" s="3">
         <v>6213800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1535800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1937400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2477000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3606700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3078200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4042200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3911700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3724100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3480900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3322600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3663800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2990600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2629800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2695100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2960300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2549500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2343400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2430400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1267400</v>
+        <v>1593800</v>
       </c>
       <c r="E18" s="3">
-        <v>1212700</v>
+        <v>1305500</v>
       </c>
       <c r="F18" s="3">
-        <v>1682400</v>
+        <v>1249200</v>
       </c>
       <c r="G18" s="3">
-        <v>1434700</v>
+        <v>1732900</v>
       </c>
       <c r="H18" s="3">
-        <v>1680200</v>
+        <v>1477800</v>
       </c>
       <c r="I18" s="3">
-        <v>1545100</v>
+        <v>1730700</v>
       </c>
       <c r="J18" s="3">
+        <v>1591600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2938000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1359300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1298200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1363200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1046600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1693700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1910000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2102100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1604900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2591100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1404100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1559900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1577400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1528900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1597200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1662500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1636100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1601900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1941600</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1565,168 +1598,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1634100</v>
+        <v>-3046200</v>
       </c>
       <c r="E20" s="3">
-        <v>-2470500</v>
+        <v>-1683200</v>
       </c>
       <c r="F20" s="3">
-        <v>-2141300</v>
+        <v>-2544700</v>
       </c>
       <c r="G20" s="3">
-        <v>-3219000</v>
+        <v>-2205600</v>
       </c>
       <c r="H20" s="3">
-        <v>-599400</v>
+        <v>-3315600</v>
       </c>
       <c r="I20" s="3">
-        <v>-673400</v>
+        <v>-617400</v>
       </c>
       <c r="J20" s="3">
+        <v>-693600</v>
+      </c>
+      <c r="K20" s="3">
         <v>2126300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1450700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-497600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>296400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>254600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-372300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-634400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-717000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-430300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1935900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-708300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-480300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-495700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1387200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1195400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1077800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-942300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-3883200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-1711700</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>195200</v>
+        <v>-968600</v>
       </c>
       <c r="E21" s="3">
-        <v>-812800</v>
+        <v>201000</v>
       </c>
       <c r="F21" s="3">
-        <v>-72900</v>
+        <v>-837200</v>
       </c>
       <c r="G21" s="3">
-        <v>381700</v>
+        <v>-75100</v>
       </c>
       <c r="H21" s="3">
-        <v>1418600</v>
+        <v>393200</v>
       </c>
       <c r="I21" s="3">
-        <v>1238500</v>
+        <v>1461200</v>
       </c>
       <c r="J21" s="3">
+        <v>1275700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-421400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>278100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1139700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2027600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1643500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1946200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1539100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1628700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1435700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>953600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>954100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1293100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1295200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>385700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>617800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>802600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>920600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-2041000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1805,168 +1845,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-366700</v>
+        <v>-1452400</v>
       </c>
       <c r="E23" s="3">
-        <v>-1257800</v>
+        <v>-377700</v>
       </c>
       <c r="F23" s="3">
-        <v>-458900</v>
+        <v>-1295600</v>
       </c>
       <c r="G23" s="3">
-        <v>-1784300</v>
+        <v>-472700</v>
       </c>
       <c r="H23" s="3">
-        <v>1080800</v>
+        <v>-1837900</v>
       </c>
       <c r="I23" s="3">
-        <v>871800</v>
+        <v>1113300</v>
       </c>
       <c r="J23" s="3">
+        <v>897900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-811700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-91300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>800700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1659500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1301200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1321400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1275500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1385100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1174600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>655200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>695800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1079600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1081700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>141600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>401800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>584600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>693800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-2281300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>229900</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3965300</v>
+        <v>90600</v>
       </c>
       <c r="E24" s="3">
-        <v>449300</v>
+        <v>4084400</v>
       </c>
       <c r="F24" s="3">
-        <v>-161900</v>
+        <v>462800</v>
       </c>
       <c r="G24" s="3">
-        <v>446100</v>
+        <v>-166800</v>
       </c>
       <c r="H24" s="3">
-        <v>611200</v>
+        <v>459500</v>
       </c>
       <c r="I24" s="3">
-        <v>606900</v>
+        <v>629600</v>
       </c>
       <c r="J24" s="3">
+        <v>625100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-564000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>271900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>257300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>418400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-119200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>392900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>285900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>388300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>346200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>374400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>270700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>408500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>371500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-66300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>153700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>277200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>80800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>428700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>191600</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2045,168 +2094,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4332000</v>
+        <v>-1543000</v>
       </c>
       <c r="E26" s="3">
-        <v>-1707100</v>
+        <v>-4462100</v>
       </c>
       <c r="F26" s="3">
-        <v>-297000</v>
+        <v>-1758300</v>
       </c>
       <c r="G26" s="3">
-        <v>-2230300</v>
+        <v>-305900</v>
       </c>
       <c r="H26" s="3">
-        <v>469700</v>
+        <v>-2297300</v>
       </c>
       <c r="I26" s="3">
-        <v>264900</v>
+        <v>483800</v>
       </c>
       <c r="J26" s="3">
+        <v>272800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-247700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-363200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>543400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1241200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1420400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>928500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>989600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>996800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>828400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>280800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>425200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>671200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>710200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>207900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>248100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>307400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>613000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2710000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4325500</v>
+        <v>-1538500</v>
       </c>
       <c r="E27" s="3">
-        <v>-1708100</v>
+        <v>-4455500</v>
       </c>
       <c r="F27" s="3">
-        <v>-292700</v>
+        <v>-1759400</v>
       </c>
       <c r="G27" s="3">
-        <v>-2235700</v>
+        <v>-301500</v>
       </c>
       <c r="H27" s="3">
-        <v>465400</v>
+        <v>-2302800</v>
       </c>
       <c r="I27" s="3">
-        <v>271300</v>
+        <v>479300</v>
       </c>
       <c r="J27" s="3">
+        <v>279400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-270200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-366300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>544400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1243300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1423600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>927400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>984000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>996800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>828400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>285200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>439700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>664000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>712200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>174800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>245100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>304400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>617200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2712000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2285,8 +2343,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2329,8 +2390,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
@@ -2347,26 +2408,29 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>-2310400</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2445,8 +2509,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2525,168 +2592,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1634100</v>
+        <v>3046200</v>
       </c>
       <c r="E32" s="3">
-        <v>2470500</v>
+        <v>1683200</v>
       </c>
       <c r="F32" s="3">
-        <v>2141300</v>
+        <v>2544700</v>
       </c>
       <c r="G32" s="3">
-        <v>3219000</v>
+        <v>2205600</v>
       </c>
       <c r="H32" s="3">
-        <v>599400</v>
+        <v>3315600</v>
       </c>
       <c r="I32" s="3">
-        <v>673400</v>
+        <v>617400</v>
       </c>
       <c r="J32" s="3">
+        <v>693600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2126300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1450700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>497600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-296400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-254600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>372300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>634400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>717000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>430300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1935900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>708300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>480300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>495700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1387200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1195400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1077800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>942300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>3883200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>1711700</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4325500</v>
+        <v>-1538500</v>
       </c>
       <c r="E33" s="3">
-        <v>-1708100</v>
+        <v>-4455500</v>
       </c>
       <c r="F33" s="3">
-        <v>-292700</v>
+        <v>-1759400</v>
       </c>
       <c r="G33" s="3">
-        <v>-2235700</v>
+        <v>-301500</v>
       </c>
       <c r="H33" s="3">
-        <v>465400</v>
+        <v>-2302800</v>
       </c>
       <c r="I33" s="3">
-        <v>271300</v>
+        <v>479300</v>
       </c>
       <c r="J33" s="3">
+        <v>279400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-270200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-366300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>544400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1243300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1423600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>927400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>984000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>996800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>828400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>285200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>439700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>664000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>712200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2135600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>245100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>304400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>617200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2712000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2765,173 +2841,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4325500</v>
+        <v>-1538500</v>
       </c>
       <c r="E35" s="3">
-        <v>-1708100</v>
+        <v>-4455500</v>
       </c>
       <c r="F35" s="3">
-        <v>-292700</v>
+        <v>-1759400</v>
       </c>
       <c r="G35" s="3">
-        <v>-2235700</v>
+        <v>-301500</v>
       </c>
       <c r="H35" s="3">
-        <v>465400</v>
+        <v>-2302800</v>
       </c>
       <c r="I35" s="3">
-        <v>271300</v>
+        <v>479300</v>
       </c>
       <c r="J35" s="3">
+        <v>279400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-270200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-366300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>544400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1243300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1423600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>927400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>984000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>996800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>828400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>285200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>439700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>664000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>712200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2135600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>245100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>304400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>617200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2712000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2960,8 +3045,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2990,168 +3076,175 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>159973000</v>
+        <v>75632600</v>
       </c>
       <c r="E41" s="3">
-        <v>170997000</v>
+        <v>164778500</v>
       </c>
       <c r="F41" s="3">
-        <v>180087700</v>
+        <v>176133600</v>
       </c>
       <c r="G41" s="3">
-        <v>176729400</v>
+        <v>185497400</v>
       </c>
       <c r="H41" s="3">
-        <v>162718000</v>
+        <v>182038200</v>
       </c>
       <c r="I41" s="3">
-        <v>156935300</v>
+        <v>167605900</v>
       </c>
       <c r="J41" s="3">
+        <v>161649500</v>
+      </c>
+      <c r="K41" s="3">
         <v>142917500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>144352300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>137422700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>141312300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>129113300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>110894300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>106939200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>98392600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>104813400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>110171800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>98459900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>115468700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>121268200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>110311400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>106257100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>110830700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>105473900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>125464600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>108700600</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>229238500</v>
+        <v>152220500</v>
       </c>
       <c r="E42" s="3">
-        <v>237171100</v>
+        <v>236124600</v>
       </c>
       <c r="F42" s="3">
-        <v>233511500</v>
+        <v>244295500</v>
       </c>
       <c r="G42" s="3">
-        <v>245801800</v>
+        <v>240525900</v>
       </c>
       <c r="H42" s="3">
-        <v>265239900</v>
+        <v>253185500</v>
       </c>
       <c r="I42" s="3">
-        <v>255082300</v>
+        <v>273207500</v>
       </c>
       <c r="J42" s="3">
+        <v>262744700</v>
+      </c>
+      <c r="K42" s="3">
         <v>282158200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>259735000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>267316200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>294486300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>297518000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>294748900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>312658300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>285838400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>298811400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>286736000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>264012800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>272227400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>278622000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>285284700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>297761800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>285608100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>324448100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>325650300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>323868200</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3230,8 +3323,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3310,8 +3406,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3390,8 +3489,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3470,79 +3572,82 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>952200</v>
+        <v>862600</v>
       </c>
       <c r="E47" s="3">
-        <v>959700</v>
+        <v>980800</v>
       </c>
       <c r="F47" s="3">
-        <v>1014400</v>
+        <v>988500</v>
       </c>
       <c r="G47" s="3">
-        <v>1088400</v>
+        <v>1044800</v>
       </c>
       <c r="H47" s="3">
-        <v>1226700</v>
+        <v>1121000</v>
       </c>
       <c r="I47" s="3">
-        <v>1320000</v>
+        <v>1263500</v>
       </c>
       <c r="J47" s="3">
+        <v>1359600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1365000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1298100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1358100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1573900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1554700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1536900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2672800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2544700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2730900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2716700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2579100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3067500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3015200</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z47" s="3">
-        <v>0</v>
+      <c r="Z47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA47" s="3">
         <v>0</v>
@@ -3550,168 +3655,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7903700</v>
+        <v>7652900</v>
       </c>
       <c r="E48" s="3">
-        <v>7986300</v>
+        <v>8141100</v>
       </c>
       <c r="F48" s="3">
-        <v>7924100</v>
+        <v>8226200</v>
       </c>
       <c r="G48" s="3">
-        <v>7832900</v>
+        <v>8162100</v>
       </c>
       <c r="H48" s="3">
-        <v>8050600</v>
+        <v>8068200</v>
       </c>
       <c r="I48" s="3">
-        <v>7964800</v>
+        <v>8292400</v>
       </c>
       <c r="J48" s="3">
+        <v>8204100</v>
+      </c>
+      <c r="K48" s="3">
         <v>8066700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7653900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7507200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8185300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8374800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8525100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8717700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8230900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8935900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5327600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5003600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4957900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4799900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4707200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4611800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4545500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4832800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4878300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4804800</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3690800</v>
+        <v>3712200</v>
       </c>
       <c r="E49" s="3">
-        <v>3553500</v>
+        <v>3801600</v>
       </c>
       <c r="F49" s="3">
-        <v>3472000</v>
+        <v>3660200</v>
       </c>
       <c r="G49" s="3">
-        <v>3423800</v>
+        <v>3576300</v>
       </c>
       <c r="H49" s="3">
-        <v>5199400</v>
+        <v>3526600</v>
       </c>
       <c r="I49" s="3">
-        <v>5182300</v>
+        <v>5355600</v>
       </c>
       <c r="J49" s="3">
+        <v>5338000</v>
+      </c>
+      <c r="K49" s="3">
         <v>5235900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4838700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4819000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5295300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5290300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5392400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5561200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5262800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5564600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5489500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5133200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5140600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5007200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4987400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4956300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4890000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5211800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5308100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5091700</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3790,8 +3904,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3870,88 +3987,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13942700</v>
+        <v>22750100</v>
       </c>
       <c r="E52" s="3">
-        <v>17046900</v>
+        <v>14361600</v>
       </c>
       <c r="F52" s="3">
-        <v>18371200</v>
+        <v>17559000</v>
       </c>
       <c r="G52" s="3">
-        <v>17199200</v>
+        <v>18923100</v>
       </c>
       <c r="H52" s="3">
-        <v>20979000</v>
+        <v>17715900</v>
       </c>
       <c r="I52" s="3">
-        <v>16645900</v>
+        <v>21609200</v>
       </c>
       <c r="J52" s="3">
+        <v>17145900</v>
+      </c>
+      <c r="K52" s="3">
         <v>21806800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14234800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14061200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15618500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>18501600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17806600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>18874100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>15735100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>17019100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>14982900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>14439500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>16334100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>17028900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>11088900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>16777500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>19371200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>17695000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>16085800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>21881600</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4030,88 +4153,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>750972900</v>
+        <v>586874300</v>
       </c>
       <c r="E54" s="3">
-        <v>779931700</v>
+        <v>773531400</v>
       </c>
       <c r="F54" s="3">
-        <v>793001600</v>
+        <v>803360100</v>
       </c>
       <c r="G54" s="3">
-        <v>810457100</v>
+        <v>816822600</v>
       </c>
       <c r="H54" s="3">
-        <v>864130600</v>
+        <v>834802400</v>
       </c>
       <c r="I54" s="3">
-        <v>854383700</v>
+        <v>890088300</v>
       </c>
       <c r="J54" s="3">
+        <v>880048600</v>
+      </c>
+      <c r="K54" s="3">
         <v>912925300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>836177300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>818922500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>886457000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>901585300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>856962700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>888994900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>834272500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>877817000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>846730300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>796995500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>819125600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>830305800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>799888200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>792254900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>786952000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>840820500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>848982500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>835365400</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4140,8 +4269,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4170,88 +4300,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13069900</v>
+        <v>16877600</v>
       </c>
       <c r="E57" s="3">
-        <v>12819000</v>
+        <v>13462500</v>
       </c>
       <c r="F57" s="3">
-        <v>18775400</v>
+        <v>13204100</v>
       </c>
       <c r="G57" s="3">
-        <v>18259700</v>
+        <v>19339400</v>
       </c>
       <c r="H57" s="3">
-        <v>27363300</v>
+        <v>18808200</v>
       </c>
       <c r="I57" s="3">
-        <v>26335000</v>
+        <v>28185200</v>
       </c>
       <c r="J57" s="3">
+        <v>27126000</v>
+      </c>
+      <c r="K57" s="3">
         <v>33820500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>26927500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33876800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>39484400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>53854600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>33508100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>43489200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>43260600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>47636200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>39733500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>46906500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>41249900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>44279400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>49115000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>37807100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>39269700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>48311200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>47521000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>49537200</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4330,88 +4464,94 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3292900</v>
+        <v>3264800</v>
       </c>
       <c r="E59" s="3">
-        <v>3406600</v>
+        <v>3391900</v>
       </c>
       <c r="F59" s="3">
-        <v>3494500</v>
+        <v>3508900</v>
       </c>
       <c r="G59" s="3">
-        <v>3512800</v>
+        <v>3599500</v>
       </c>
       <c r="H59" s="3">
-        <v>3525600</v>
+        <v>3618300</v>
       </c>
       <c r="I59" s="3">
-        <v>3510600</v>
+        <v>3631500</v>
       </c>
       <c r="J59" s="3">
+        <v>3616100</v>
+      </c>
+      <c r="K59" s="3">
         <v>3548100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3438800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3400100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3727800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3948000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4235300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4267800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4545700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4860100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1020800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>767400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>683500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>738900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>703200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>604700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>528400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>604700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>658600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>889500</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4490,168 +4630,177 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>174356500</v>
+        <v>173662900</v>
       </c>
       <c r="E61" s="3">
-        <v>169429400</v>
+        <v>179594000</v>
       </c>
       <c r="F61" s="3">
-        <v>171906300</v>
+        <v>174518900</v>
       </c>
       <c r="G61" s="3">
-        <v>178957600</v>
+        <v>177070200</v>
       </c>
       <c r="H61" s="3">
-        <v>187990400</v>
+        <v>184333300</v>
       </c>
       <c r="I61" s="3">
-        <v>182529300</v>
+        <v>193637400</v>
       </c>
       <c r="J61" s="3">
+        <v>188012300</v>
+      </c>
+      <c r="K61" s="3">
         <v>182771600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>167155100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>163920900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>181282400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>157012500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>165455900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>177721900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>168037300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>177259900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>169924000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>170161500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>170320800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>170531200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>173814100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>181108900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>177498700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>193974600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>200181500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>202397600</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4309500</v>
+        <v>4860800</v>
       </c>
       <c r="E62" s="3">
-        <v>4293400</v>
+        <v>4438900</v>
       </c>
       <c r="F62" s="3">
-        <v>3571700</v>
+        <v>4422300</v>
       </c>
       <c r="G62" s="3">
-        <v>3251100</v>
+        <v>3679000</v>
       </c>
       <c r="H62" s="3">
-        <v>2968000</v>
+        <v>3348800</v>
       </c>
       <c r="I62" s="3">
-        <v>2410500</v>
+        <v>3057200</v>
       </c>
       <c r="J62" s="3">
+        <v>2482900</v>
+      </c>
+      <c r="K62" s="3">
         <v>2825400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3133800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2461900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2579700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2899200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2347900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2149000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2154300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2212100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2074700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2102000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2181900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2039200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1407300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1256700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1190400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1612300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>4355400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1895000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4730,8 +4879,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4810,8 +4962,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4890,88 +5045,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>704579000</v>
+        <v>537030200</v>
       </c>
       <c r="E66" s="3">
-        <v>730776700</v>
+        <v>725743900</v>
       </c>
       <c r="F66" s="3">
-        <v>745347700</v>
+        <v>752728500</v>
       </c>
       <c r="G66" s="3">
-        <v>763326500</v>
+        <v>767737300</v>
       </c>
       <c r="H66" s="3">
-        <v>816416700</v>
+        <v>786256100</v>
       </c>
       <c r="I66" s="3">
-        <v>807654100</v>
+        <v>840941100</v>
       </c>
       <c r="J66" s="3">
+        <v>831915300</v>
+      </c>
+      <c r="K66" s="3">
         <v>865112800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>791892700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>773314600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>836665500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>848849800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>809456700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>838565000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>787811900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>829343500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>798363400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>752679500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>774513700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>786648300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>757796800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>748198600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>743262400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>797637200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>805597300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>789516700</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5000,8 +5161,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5080,8 +5242,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5160,8 +5325,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5240,8 +5408,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5320,88 +5491,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>26833600</v>
+        <v>26101100</v>
       </c>
       <c r="E72" s="3">
-        <v>31159100</v>
+        <v>27639600</v>
       </c>
       <c r="F72" s="3">
-        <v>33016300</v>
+        <v>32095100</v>
       </c>
       <c r="G72" s="3">
-        <v>33309000</v>
+        <v>34008000</v>
       </c>
       <c r="H72" s="3">
-        <v>35544700</v>
+        <v>34309600</v>
       </c>
       <c r="I72" s="3">
-        <v>35079300</v>
+        <v>36612400</v>
       </c>
       <c r="J72" s="3">
+        <v>36133100</v>
+      </c>
+      <c r="K72" s="3">
         <v>34936700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>34070900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>33257600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>35103900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>34470100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>33344800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>33264700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>30745800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>30930100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>29702700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>27703000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>26980600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>26316600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>25085900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>27221500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>26976400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>27495100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>26875900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>29587900</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5480,8 +5657,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5560,8 +5740,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5640,88 +5823,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46393900</v>
+        <v>49844100</v>
       </c>
       <c r="E76" s="3">
-        <v>49155000</v>
+        <v>47787500</v>
       </c>
       <c r="F76" s="3">
-        <v>47653800</v>
+        <v>50631600</v>
       </c>
       <c r="G76" s="3">
-        <v>47130600</v>
+        <v>49085300</v>
       </c>
       <c r="H76" s="3">
-        <v>47713900</v>
+        <v>48546300</v>
       </c>
       <c r="I76" s="3">
-        <v>46729500</v>
+        <v>49147200</v>
       </c>
       <c r="J76" s="3">
+        <v>48133200</v>
+      </c>
+      <c r="K76" s="3">
         <v>47812500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>44284600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>45607800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>49791500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>52735500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>47506100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>50429800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>46460600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>48473500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>48366900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>44316000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>44612000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>43657500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>42091400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>44056200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>43689600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>43183300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>43385200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>45848700</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5800,173 +5989,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4325500</v>
+        <v>-1538500</v>
       </c>
       <c r="E81" s="3">
-        <v>-1708100</v>
+        <v>-4455500</v>
       </c>
       <c r="F81" s="3">
-        <v>-292700</v>
+        <v>-1759400</v>
       </c>
       <c r="G81" s="3">
-        <v>-2235700</v>
+        <v>-301500</v>
       </c>
       <c r="H81" s="3">
-        <v>465400</v>
+        <v>-2302800</v>
       </c>
       <c r="I81" s="3">
-        <v>271300</v>
+        <v>479300</v>
       </c>
       <c r="J81" s="3">
+        <v>279400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-270200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-366300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>544400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1243300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1423600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>927400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>984000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>996800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>828400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>285200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>439700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>664000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>712200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2135600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>245100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>304400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>617200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2712000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5995,88 +6193,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>561900</v>
+        <v>483800</v>
       </c>
       <c r="E83" s="3">
-        <v>445000</v>
+        <v>578700</v>
       </c>
       <c r="F83" s="3">
-        <v>386000</v>
+        <v>458400</v>
       </c>
       <c r="G83" s="3">
-        <v>2166000</v>
+        <v>397600</v>
       </c>
       <c r="H83" s="3">
-        <v>337800</v>
+        <v>2231000</v>
       </c>
       <c r="I83" s="3">
-        <v>366700</v>
+        <v>347900</v>
       </c>
       <c r="J83" s="3">
+        <v>377700</v>
+      </c>
+      <c r="K83" s="3">
         <v>390300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>369400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>339000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>368100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>342400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>624800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>263600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>243600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>261000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>298400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>258200</v>
-      </c>
-      <c r="U83" s="3">
-        <v>213500</v>
       </c>
       <c r="V83" s="3">
         <v>213500</v>
       </c>
       <c r="W83" s="3">
+        <v>213500</v>
+      </c>
+      <c r="X83" s="3">
         <v>244100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>216000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>218000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>226800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>240200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>242300</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6155,8 +6357,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6235,8 +6440,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6315,8 +6523,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6395,8 +6606,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6475,88 +6689,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9215100</v>
+        <v>9347200</v>
       </c>
       <c r="E89" s="3">
-        <v>1509800</v>
+        <v>9491900</v>
       </c>
       <c r="F89" s="3">
-        <v>-4980700</v>
+        <v>1555100</v>
       </c>
       <c r="G89" s="3">
-        <v>7906900</v>
+        <v>-5130300</v>
       </c>
       <c r="H89" s="3">
-        <v>7829700</v>
+        <v>8144400</v>
       </c>
       <c r="I89" s="3">
-        <v>25740900</v>
+        <v>8064900</v>
       </c>
       <c r="J89" s="3">
+        <v>26514100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1870000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7674600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3427100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7079000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9936000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-7236300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9288500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4510600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-8516700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-10878800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>11184300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>9858300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2307100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-13452500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>7114000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>4884000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-7346000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>24547000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-7004300</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6585,88 +6805,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-411800</v>
+        <v>-343000</v>
       </c>
       <c r="E91" s="3">
-        <v>-386000</v>
+        <v>-384000</v>
       </c>
       <c r="F91" s="3">
-        <v>-376400</v>
+        <v>-360000</v>
       </c>
       <c r="G91" s="3">
-        <v>-490000</v>
+        <v>-351000</v>
       </c>
       <c r="H91" s="3">
-        <v>-364600</v>
+        <v>-457000</v>
       </c>
       <c r="I91" s="3">
-        <v>-363500</v>
+        <v>-340000</v>
       </c>
       <c r="J91" s="3">
+        <v>-339000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-303500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-351800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-295100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-313500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-281700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-475700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-337300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-311700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-288700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-233500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-367100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-294500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-248400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-323500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-274200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-257200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-224700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-304400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-298200</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6745,8 +6969,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6825,88 +7052,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1056200</v>
+        <v>56189300</v>
       </c>
       <c r="E94" s="3">
-        <v>-11593400</v>
+        <v>1087900</v>
       </c>
       <c r="F94" s="3">
-        <v>15542600</v>
+        <v>-11941600</v>
       </c>
       <c r="G94" s="3">
-        <v>16873200</v>
+        <v>16009400</v>
       </c>
       <c r="H94" s="3">
-        <v>-11807800</v>
+        <v>17380100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1878600</v>
+        <v>-12162500</v>
       </c>
       <c r="J94" s="3">
+        <v>-1935000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-13997400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>12431300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>5972700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>10880600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12421400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3166400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-242400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2051100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2311700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-493300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>824400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>4866600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-12808900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>23224500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-8396800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>3455500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-7649400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-14118300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>6844800</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6935,8 +7168,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6962,17 +7196,17 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-371500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-383100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -6980,43 +7214,46 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-739400</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-1100</v>
       </c>
       <c r="S96" s="3">
         <v>-1100</v>
       </c>
       <c r="T96" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-679400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-3100</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-1000</v>
       </c>
       <c r="X96" s="3">
         <v>-1000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-588600</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7095,8 +7332,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7175,8 +7415,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7255,244 +7498,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-20421400</v>
+        <v>-153571300</v>
       </c>
       <c r="E100" s="3">
-        <v>820300</v>
+        <v>-21034800</v>
       </c>
       <c r="F100" s="3">
-        <v>-7033000</v>
+        <v>844900</v>
       </c>
       <c r="G100" s="3">
-        <v>-9535700</v>
+        <v>-7244300</v>
       </c>
       <c r="H100" s="3">
-        <v>8164300</v>
+        <v>-9822100</v>
       </c>
       <c r="I100" s="3">
-        <v>-9653600</v>
+        <v>8409500</v>
       </c>
       <c r="J100" s="3">
+        <v>-9943600</v>
+      </c>
+      <c r="K100" s="3">
         <v>10974700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3201200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2054000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3877600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>41721400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>11619600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>12785600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4073400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4309200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>16266900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-29249100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-21541400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>19783400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-5639400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4152700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1032600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-4215600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>4487900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-9169500</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-873900</v>
+        <v>-1111100</v>
       </c>
       <c r="E101" s="3">
-        <v>172600</v>
+        <v>-900200</v>
       </c>
       <c r="F101" s="3">
-        <v>-170500</v>
+        <v>177800</v>
       </c>
       <c r="G101" s="3">
-        <v>-3412000</v>
+        <v>-175600</v>
       </c>
       <c r="H101" s="3">
-        <v>238000</v>
+        <v>-3514500</v>
       </c>
       <c r="I101" s="3">
-        <v>-1029400</v>
+        <v>245200</v>
       </c>
       <c r="J101" s="3">
+        <v>-1060300</v>
+      </c>
+      <c r="K101" s="3">
         <v>3020600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1124800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-737900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-281400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-628400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-870800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>379800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-804300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>673600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>481200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-937500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1076600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-587000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-78400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>861900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-857900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-779700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1847400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-70400</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-11024000</v>
+        <v>-89145900</v>
       </c>
       <c r="E102" s="3">
-        <v>-9090700</v>
+        <v>-11355200</v>
       </c>
       <c r="F102" s="3">
-        <v>3358300</v>
+        <v>-9363800</v>
       </c>
       <c r="G102" s="3">
-        <v>14011400</v>
+        <v>3459200</v>
       </c>
       <c r="H102" s="3">
-        <v>5782800</v>
+        <v>14432200</v>
       </c>
       <c r="I102" s="3">
-        <v>14017800</v>
+        <v>5956500</v>
       </c>
       <c r="J102" s="3">
+        <v>14438900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-6248100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1339600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5734400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13800600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>18735600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6679000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3634500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2418100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5845600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5618300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-18218400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5799500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>8568300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>4054200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-4573600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>8514300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-19990700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>16764000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-9399400</v>
       </c>
     </row>
